--- a/Scripts/TIAB_Calibration1_Bruno_labeled_corrected.xlsx
+++ b/Scripts/TIAB_Calibration1_Bruno_labeled_corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\Work related\Debugging\script_debugging\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8927A4-87C2-4A3F-A428-863D4ED8815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBAA9BD-B94F-4BCB-B274-BA5B6DF20387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1174">
   <si>
     <t>MID</t>
   </si>
@@ -380,6 +380,9 @@
     <t>OBJECTIVE: To examine whether (a) Living in the Face of Trauma (LIFT), a group intervention to address coping with HIV and childhood sexual abuse (CSA), significantly reduced traumatic stress over a 1-year follow-up period more than an attention-matched support group comparison intervention; and (b) reductions in avoidant coping over time mediated reductions in traumatic stress. METHOD: In a randomized controlled trial, 247 participants completed measures of traumatic stress and avoidant coping at pre- and post intervention, and at 4-, 8-, and 12-month follow-ups. Latent growth curve modeling examined changes over the 5 time points; standardized path coefficients provide estimates of effects. RESULTS: As compared with the support intervention, the coping intervention led to a reduction in traumatic stress over time (b = -.20, p &lt; .02). Participants in the coping intervention also reduced their use of avoidant coping strategies more than did participants in the support intervention (b = -.22, p &lt; .05). Mediation analyses showed reductions in avoidant coping related to reductions in traumatic stress (b = 1.45, p &lt; .001), and the direct effect of the intervention on traumatic stress was no longer significant (b = .04, ns), suggesting that changes in avoidant coping completely mediated intervention effects on traumatic stress. CONCLUSIONS: The LIFT intervention significantly reduced traumatic stress over time, and changes in avoidant coping strategies mediated this effect, suggesting a focus on current stressors and coping skills improvement are important components in addressing traumatic stress for adults living with HIV and CSA.</t>
   </si>
   <si>
+    <t>Curve</t>
+  </si>
+  <si>
     <t>M2381</t>
   </si>
   <si>
@@ -1856,6 +1859,9 @@
     <t>Background: Post traumatic stress disorder (PTSD) and sleep problems are highly related. The relationship between nighttime sleep characteristics and next day post traumatic stress symptoms (PTSS) is not well known. This study examined the relationship between the previous night's sleep duration, number of awakenings, sleep quality, trouble falling asleep, and difficulty staying asleep and PTSS the following day. Methods: Using an ecological momentary assessment methodology, individuals with probable PTSD (N = 61) reported their nighttime sleep characteristics daily and PTSS four times per day for 15 days. Univariate and multivariate linear mixed models were used to examine the previous night's (within-subjects) and person's mean (between-subjects) associations between sleep characteristics and PTSS. Results: The previous night's sleep duration (p &lt; .001), sleep quality (p &lt; .001), trouble falling asleep (p &lt; .001), and difficulty staying asleep (p &lt; .001) significantly predicted the next day's PTSS. When examined in a multivariate model including all characteristics simultaneously, previous night's sleep duration (p = .024), trouble falling asleep (p = .019), and difficulty staying asleep (p &lt; .001) continued to predict PTSS, but sleep quality (p = .667) did not. When considering a person's mean, trouble falling asleep (p = .006) and difficulty staying asleep (p = .001) predicted PTSS, but only difficulty staying asleep (p = .018) predicted PTSS in a multivariate model. Conclusions: Among individuals with PTSD, the previous night's sleep duration, trouble falling asleep, and difficulty staying asleep predict next day PTSD symptoms. Interventions that facilitate falling and staying asleep and increase time slept may be important for treating PTSD. (PsycInfo Database Record (c) 2022 APA, all rights reserved)</t>
   </si>
   <si>
+    <t>Same as line 43</t>
+  </si>
+  <si>
     <t>M11304</t>
   </si>
   <si>
@@ -2316,6 +2322,1242 @@
   </si>
   <si>
     <t>Prolonged trauma conditions in a person have the potential to become Post-Traumatic Stress Disorder (PTSD). The American Psychological Association (APA) defines PTSD as an experience of someone who experiences a traumatic event that can cause disturbances in self-integrity, feeling of helplessness and specific trauma. People who are directly affected by earthquakes and volcanic explosions generally experience trauma. In order to reconcile the survivors of trauma, this study will categorize trauma survivors from Mount Sinabung's eruption in Karo Regency and the Ambon City Earthquake according to their level of trauma. The clustering process uses the Data Mining, a method to extract and identify trauma survivor data in order to produce the required information. The algorithm on K-Means is used in the computational process. The algorithm on K-Means has advantages in computational efficiency and ease of use. The data collection instrument in this study used the Impact of Even Scale-Revised (IES-R) Questionnaire which offered a common language and standard criteria for the classification of mental disorders. Information on the trauma survivors cluster of Mild, Moderate, and Severe trauma levels will be generated using the computational and iteration process supported by the Orange application. The results of the research on grouping trauma survivors using the K-means algorithm with the support of an application that helps the iteration process of survivor data processed through the IER-S questionnaire provide information that is useful for healing trauma survivors. © 2021 IEEE.</t>
+  </si>
+  <si>
+    <t>M11163</t>
+  </si>
+  <si>
+    <t>10.3233/ADR-200245</t>
+  </si>
+  <si>
+    <t>Sleep and Tau Pathology in Vietnam War Veterans with Preclinical and Prodromal Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>Background: The increasing prevalence of Alzheimer's disease (AD) and lack of effective medications has led to a need to identify modifiable risk factors as targets for interventions. Objective: In this cross-sectional study, we sought to determine whether worse sleep quality is associated with increased pathological tau, and whether this relationship is affected by amyloid pathology. Methods: 66 male participants underwent Florbetapir (AV45) positron emission tomography (PET) and Flortaucipir (FTP) PET and completed the Pittsburgh Sleep Quality Index questionnaire (PSQI) as part of the Department of Defense Alzheimer's Disease Neuroimaging Initiative, a multicenter study collecting data from Vietnam War veterans, some of whom have a history of post-traumatic stress disorder, or non-penetrating traumatic brain injury. AV45 PET was used to determine the presence of significant amyloid pathology. We used regression models to determine the effects of amyloid pathology and PSQI on tau deposition in brain regions associated with Braak stages. Results: Among the 66 participants, 14 individuals were amyloid positive (21%) and 52 were amyloid negative (79%). In regions associated with Braak stages III-IV, there was a significant interaction of amyloid status on PSQI (β= 0.04, p = 0.003) with higher PSQI correlating with higher FTP SUVr in amyloid-positive individuals only (β= 0.031, p = 0.005). Conclusion: Our study found that an AD profile of tau deposition was associated with an interaction between self-reported sleep quality and amyloid pathology such that worse self-reported sleep was related to higher tau in regions usually associated with AD progression, but only in individuals with high cerebral amyloid deposition.</t>
+  </si>
+  <si>
+    <t>M5934</t>
+  </si>
+  <si>
+    <t>10.1111/jep.13158</t>
+  </si>
+  <si>
+    <t>Using patient-reported outcomes to understand the effectiveness of guideline-concordant care for post-traumatic stress disorder in clinical practice</t>
+  </si>
+  <si>
+    <t>Rationale: Identifying predictors of improvement amongst patients receiving routine treatment for post-traumatic stress disorder (PTSD) could provide information about factors that influence the clinical effectiveness of guideline-concordant care. This study builds on prior work by accounting for delivery of specific evidence-based treatments (EBTs) for PTSD while identifying potential predictors of clinical improvement using patient-reported outcomes measurement. Method: Our sample consisted of 2 643 US Department of Veterans Affairs (VA) outpatients who initiated treatment for PTSD between 2008 and 2013 and received at least four PTSD checklist (PCL) measurements over 12 weeks. We obtained PCL data as well as demographic, diagnostic, and health services use information from the VA corporate data warehouse. We used latent trajectory analysis to identify classes of patients based on PCL scores, then determined demographic, diagnostic, and treatment predictors of membership in each class. Results: Patients who met our PCL-based inclusion criteria were far more likely than those who did not receive EBTs. We identified two latent trajectories of PTSD symptoms. Patients in the substantial improvement group (25.9%) had a mean decrease in PCL score of 16.24, whereas patients in the modest improvement group improved by a mean of 8.09 points. However, there were few differences between the groups, and our model to predict group membership was only slightly better than chance (area under the curve AUC] = 0.55). Of the 64 covariates we tested, the only robust individual predictor of improvement was gender, with men having lower odds of being in the substantial improvement group compared with women (odds ratio OR] 0.76; 95% confidence interval CI] 0.58-0.96). Conclusion: VA patients with PTSD can realize significant improvement in routine clinical practice. Although available medical records-based variables were generally insufficient to predict improvement trajectory, this study did indicate that men have lower odds of substantial improvement than women.</t>
+  </si>
+  <si>
+    <t>M10062</t>
+  </si>
+  <si>
+    <t>10.1016/j.jhsa.2016.12.011</t>
+  </si>
+  <si>
+    <t>A Double-Blind Placebo Randomized Controlled Trial of Minocycline to Reduce Pain After Carpal Tunnel and Trigger Finger Release</t>
+  </si>
+  <si>
+    <t>Purpose Minocycline is a microglial cell inhibitor and decreases pain behaviors in animal models. Minocycline might represent an intervention for reducing postoperative pain. This trial tested whether perioperative administration of minocycline reduced time to pain resolution (TPR) after standardized hand surgeries with known prolonged pain profiles: carpal tunnel release (CTR) and trigger finger release (TFR). Methods This double-blinded randomized controlled trial included patients undergoing CTR or TFR under local anesthesia. Before surgery, participants recorded psychological and pain measures. Participants received oral minocycline, 200 mg, or placebo 2 hours prior to procedure, and then 100 mg of minocycline or placebo 2 times a day for 5 days. After surgery, participants were called daily assessing their pain. The primary end point of TPR was when participants had 3 consecutive days of 0 postsurgical pain. Futility analysis and Kaplan-Meier analyses were performed. Results A total of 131 participants were randomized and 56 placebo and 58 controls were analyzed. Median TPR for CTR was 3 weeks, with 15% having pain more than 6 weeks. Median TPR for TFR was 2 weeks with 18% having pain more than 6 weeks. The overall median TPR for the placebo group was 2 weeks (10% pain &gt; 6 weeks) versus 2.5 weeks (17% pain &gt; 6 weeks) for the minocycline group. Futility analysis found that the likelihood of a true underlying clinically meaningful reduction in TPR owing to minocycline was only 3.5%. Survival analysis found minocycline did not reduce TPR. However, subgroup analysis of those with elevated posttraumatic distress scores found the minocycline group had longer TPR. Conclusions Oral administration of minocycline did not reduce TPR after minor hand surgery. There was evidence that minocycline might increase length of pain in those with increased posttraumatic stress disorder symptoms. Type of study/level of evidence Therapeutic I. © 2017 American Society for Surgery of the Hand</t>
+  </si>
+  <si>
+    <t>M11931</t>
+  </si>
+  <si>
+    <t>Utility of the Validity-10 scale across the recovery trajectory following traumatic brain injury</t>
+  </si>
+  <si>
+    <t>The Validity -10 scale was recently developed to screen for symptom exaggeration in patients following traumatic brain injury (TBI). However, it has only been validated on patients with TBI largely in the chronic phase of recovery. The influence of time since injury on the Validity -10 scale was investigated in 2,661 male servicemembers with TBI presenting to six U.S. Defense and Veterans Brain Injury Centers. Participants completed the Neurobehavioral Symptom Inventory (NSI). The Validity -10 scale and NSI total score were both weakly statistically significantly (1) positively correlated with time since injury, (2) negatively correlated with bodily injury severity, and (3) higher in participants undergoing medical board evaluations than in participants who returned to duty or were still hospitalized. Participants were statistically more likely to screen positive for possible symptom exaggeration on the Validity-10 scale as time since injury increased. However, the Validity-10 scale was only weakly related to time since injury, TBI severity, bodily injury severity, disposition, age, and return to duty status. That false positives are not increased in the acute phase of recovery and that the Validity -10 scale is not strongly related to clinical factors support the use of the Validity-10 scale in the acute recovery phase and across the TBI recovery trajectory.</t>
+  </si>
+  <si>
+    <t>M11235</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuroscience.2023.07.022</t>
+  </si>
+  <si>
+    <t>Altered Fear Behavior in Aeroallergen House Dust Mite Exposed C57Bl/6 Mice: A Model of Th2-skewed Airway Inflammation</t>
+  </si>
+  <si>
+    <t>There is a growing interest for studying the impact of chronic inflammation, particularly lung inflammation, on the brain and behavior. This includes asthma, a chronic inflammatory condition, that has been associated with psychiatric conditions such as posttraumatic stress disorder (PTSD). Although asthma is driven by elevated production of Th2 cytokines (IL-4, IL-5 and IL-13), which drive asthma symptomology, recent work demonstrates that concomitant Th1 or Th17 cytokine production can worsen asthma severity. We previously demonstrated a detrimental link between PTSD-relevant fear behavior and allergen-induced lung inflammation associated with a mixed Th2/Th17-inflammatory profile in mice. However, the behavioral effects of Th2-skewed airway inflammation, typical to mild/moderate asthma, are unknown. Therefore, we investigated fear conditioning/extinction in allergen house dust mite (HDM)-exposed C57Bl/6 mice, a model of Th2-skewed allergic asthma. Behaviors relevant to panic, anxiety, and depression were also assessed. Furthermore, we investigated the accumulation of Th2/Th17-cytokine-expressing cells in lung and brain, and the neuronal activation marker, ΔFosB, in fear regulatory brain areas. HDM-exposed mice elicited lower freezing during fear extinction with no effects on acquisition and conditioned fear. No HDM effect on panic, anxiety or depression-relevant behaviors was observed. While HDM evoked a Th2-skewed immune response in lung tissue, no significant alterations in brain Th cell subsets were observed. Significantly reduced ΔFosB+ cells in the basolateral amygdala of HDM mice were observed post extinction. Our data indicate that allergen-driven Th2-skewed responses may induce fear extinction promoting effects, highlighting beneficial interactions of Th2-associated immune mediators with fear regulatory circuits.</t>
+  </si>
+  <si>
+    <t>M11365</t>
+  </si>
+  <si>
+    <t>10.1016/j.nicl.2018.04.010</t>
+  </si>
+  <si>
+    <t>Real-time fMRI neurofeedback training of the amygdala activity with simultaneous EEG in veterans with combat-related PTSD</t>
+  </si>
+  <si>
+    <t>Posttraumatic stress disorder (PTSD) is a chronic and disabling neuropsychiatric disorder characterized by insufficient top-down modulation of the amygdala activity by the prefrontal cortex. Real-time fMRI neurofeedback (rtfMRI-nf) is an emerging method with potential for modifying the amygdala-prefrontal interactions. We report the first controlled emotion self-regulation study in veterans with combat-related PTSD utilizing rtfMRI-nf of the amygdala activity. PTSD patients in the experimental group (EG, n = 20) learned to upregulate blood-oxygenation-level-dependent (BOLD) activity of the left amygdala (LA) using the rtfMRI-nf during a happy emotion induction task. PTSD patients in the control group (CG, n = 11) were provided with a sham rtfMRI-nf. The study included three rtfMRI-nf training sessions, and EEG recordings were performed simultaneously with fMRI. PTSD severity was assessed before and after the training using the Clinician-Administered PTSD Scale (CAPS). The EG participants who completed the study showed a significant reduction in total CAPS ratings, including significant reductions in avoidance and hyperarousal symptoms. They also exhibited a significant reduction in comorbid depression severity. Overall, 80% of the EG participants demonstrated clinically meaningful reductions in CAPS ratings, compared to 38% in the CG. No significant difference in the CAPS rating changes was observed between the groups. During the first rtfMRI-nf session, functional connectivity of the LA with the orbitofrontal cortex (OFC) and the dorsolateral prefrontal cortex (DLPFC) was progressively enhanced, and this enhancement significantly and positively correlated with the initial CAPS ratings. Left-lateralized enhancement in upper alpha EEG coherence also exhibited a significant positive correlation with the initial CAPS. Reduction in PTSD severity between the first and last rtfMRI-nf sessions significantly correlated with enhancement in functional connectivity between the LA and the left DLPFC. Our results demonstrate that the rtfMRI-nf of the amygdala activity has the potential to correct the amygdala-prefrontal functional connectivity deficiencies specific to PTSD. Author Abstract] KEY WORDS: PTSD; combat trauma; neurofeedback; real-time fMRI; EEG-fMRI; amygdala; dorsolateral prefrontal cortex; orbitofrontal cortex; functional connectivity; EEG coherence</t>
+  </si>
+  <si>
+    <t>M10176</t>
+  </si>
+  <si>
+    <t>Children's mental health over the early life course: The impact of economic resources, neighborhood disorder, and family processes</t>
+  </si>
+  <si>
+    <t>Drawing upon a stress process and life course framework, and using data from the Child Supplement of the National Longitudinal Survey of Youth, the three papers presented in this dissertation examine the extent to which economic resources, neighborhood disorder, and family processes influence children's trajectories of mental health. In the first paper, I empirically construct six categories that represent children with comparable profiles of family income over time: increasing, decreasing, fluctuating, and stability across low-, medium-, and high-income families. The income categories are incorporated in multiple group latent growth curve models to assess the extent to which they initiate and shape children's mental health trajectories from age 4 to 14. Results reveal significant disparities in antisocial behavior and depression/anxiety at age 4 and over time across the income categories. In the second paper, I use these income categories to examine how stability and change in family income influences trajectories of maternal emotional support and the provision of cognitive stimulation in children's home environments. In subsequent analyses, I examine the extent to which these different economic profiles moderate the relationship between family processes and children's mental health trajectories. In the third and final paper, I examine the relationship between stability and change in perceived neighborhood disorder and children's trajectories of mental health. I conceptualize perceived neighborhood disorder as a two-part process involving a binary component that distinguishes between children exposed to minimal vs. high levels of disorder, and a continuous component that represents the actual level of disorder for children in the latter category. These two processes capture stability and change in neighborhood disorder over time, and are included in parallel process latent growth models to examine their separate and distinct impact on children's trajectories of mental health. The results from these papers underscore that the duration and sequencing of socioeconomic status, both at the family and neighborhood level, have important implications for children's mental health and family processes. The results also underscore the complex and dynamic ways family processes influence children's mental health in different economic contexts. (PsycInfo Database Record (c) 2022 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10179</t>
+  </si>
+  <si>
+    <t>10.5664/jcsm.10430</t>
+  </si>
+  <si>
+    <t>Examining the bidirectional relationship between posttraumatic stress disorder symptom clusters and PAP adherence</t>
+  </si>
+  <si>
+    <t>Study Objectives: Obstructive sleep apnea (OSA) is a common sleep disturbance in individuals with posttraumatic stress disorder (PTSD), with an emerging literature showing that treating OSA with positive airway pressure (PAP) therapy has a moderate effect on decreasing PTSD severity. Unfortunately, PAP adherence among individuals with PTSD is low. Our study examined how baseline PTSD cluster subscores predict 6-month PAP adherence and how PAP adherence predicts change in PTSD cluster subscores over time. Methods: We examined PTSD and PAP adherence in 41 veterans with PTSD newly diagnosed with OSA over 6 months of PAP use (mean age = 50.27 years; 73.7% White; 13.6% female). The Posttraumatic Stress Disorder Checklist-Specific (PCL-S) was used to examine PTSD and subscales (re-experiencing, avoidance, and hyperarousal). We used longitudinal analyses to examine PTSD subscores on PAP adherence and PAP adherence predicting changes in PTSD subscores at 6-month follow-up. Results: Among veterans with PTSD, higher levels of re-experiencing and hyperarousal, but not avoidance, predicted lower PAP use. Overall, the high-adherent group showed a 14.36-point decrease on the PCL-S, while the low-adherent group averaged just a 3.66-point decrease. More days of PAP use were associated with greater improvement in hyperarousal and avoidance subscores but not re-experiencing. Conclusions: Our findings reaffirm the importance of PAP use among patients with comorbid PTSD and sleep apnea, as well as the difficulty in achieving adherent PAP use in this population. Directly addressing heightened re-experiencing and hyperarousal in PTSD may increase PAP adherence among veterans with PTSD and requires future research.</t>
+  </si>
+  <si>
+    <t>M5973</t>
+  </si>
+  <si>
+    <t>10.1016/j.eclinm.2023.102063</t>
+  </si>
+  <si>
+    <t>Psychiatric disorders and subsequent risk of cardiovascular disease: a longitudinal matched cohort study across three countries</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Several psychiatric disorders have been associated with increased risk of cardiovascular disease (CVD), however, the role of familial factors and the main disease trajectories remain unknown. METHODS: In this longitudinal cohort study, we identified a cohort of 900,240 patients newly diagnosed with psychiatric disorders during January 1, 1987 and December 31, 2016, their 1,002,888 unaffected full siblings, and 1:10 age- and sex-matched reference population from nationwide medical records in Sweden, who had no prior diagnosis of CVD at enrolment. We used flexible parametric models to determine the time-varying association between first-onset psychiatric disorders and incident CVD and CVD death, comparing rates of CVD among patients with psychiatric disorders to the rates of unaffected siblings and matched reference population. We also used disease trajectory analysis to identify main disease trajectories linking psychiatric disorders to CVD. Identified associations and disease trajectories of the Swedish cohort were validated in a similar cohort from nationwide medical records in Denmark (N = 875,634 patients, same criteria during January 1, 1969 and December 31, 2016) and in Estonian cohorts from the Estonian Biobank (N = 30,656 patients, same criteria during January 1, 2006 and December 31, 2020), respectively. FINDINGS: During up to 30 years of follow-up of the Swedish cohort, the crude incidence rate of CVD was 9.7, 7.4 and 7.0 per 1000 person-years among patients with psychiatric disorders, their unaffected siblings, and the matched reference population. Compared with their siblings, patients with psychiatric disorders experienced higher rates of CVD during the first year after diagnosis (hazard ratio HR], 1.88; 95% confidence interval CI], 1.79-1.98) and thereafter (1.37; 95% CI, 1.34-1.39). Similar rate increases were noted when comparing with the matched reference population. These results were replicated in the Danish cohort. We identified several disease trajectories linking psychiatric disorders to CVD in the Swedish cohort, with or without mediating medical conditions, including a direct link between psychiatric disorders and hypertensive disorder, ischemic heart disease, venous thromboembolism, angina pectoris, and stroke. These trajectories were validated in the Estonian Biobank cohort. INTERPRETATION: Independent of familial factors, patients with psychiatric disorders are at an elevated risk of subsequent CVD, particularly during first year after diagnosis. Increased surveillance and treatment of CVDs and CVD risk factors should be considered as an integral part of clinical management, in order to reduce risk of CVD among patients with psychiatric disorders. FUNDING: This research was supported by EU Horizon 2020 Research and Innovation Action Grant, European Research Council Consolidator grant, Icelandic Research fund, Swedish Research Council, US NIMH, the Outstanding Clinical Discipline Project of Shanghai Pudong, the Fundamental Research Funds for the Central Universities, and the European Union through the European Regional Development Fund; the Research Council of Norway; the South-East Regional Health Authority, the Stiftelsen Kristian Gerhard Jebsen, and the EEA-RO-NO-2018-0535.</t>
+  </si>
+  <si>
+    <t>M5975</t>
+  </si>
+  <si>
+    <t>10.1038/s41380-022-01913-z</t>
+  </si>
+  <si>
+    <t>A paradigm shift in translational psychiatry through rodent neuroethology</t>
+  </si>
+  <si>
+    <t>Mental disorders are a significant cause of disability worldwide. They profoundly affect individuals’ well-being and impose a substantial financial burden on societies and governments. However, despite decades of extensive research, the effectiveness of current therapeutics for mental disorders is often not satisfactory or well tolerated by the patient. Moreover, most novel therapeutic candidates fail in clinical testing during the most expensive phases (II and III), which results in the withdrawal of pharma companies from investing in the field. It also brings into question the effectiveness of using animal models in preclinical studies to discover new therapeutic agents and predict their potential for treating mental illnesses in humans. Here, we focus on rodents as animal models and propose that they are essential for preclinical investigations of candidate therapeutic agents’ mechanisms of action and for testing their safety and efficiency. Nevertheless, we argue that there is a need for a paradigm shift in the methodologies used to measure animal behavior in laboratory settings. Specifically, behavioral readouts obtained from short, highly controlled tests in impoverished environments and social contexts as proxies for complex human behavioral disorders might be of limited face validity. Conversely, animal models that are monitored in more naturalistic environments over long periods display complex and ethologically relevant behaviors that reflect evolutionarily conserved endophenotypes of translational value. We present how semi-natural setups in which groups of mice are individually tagged, and video recorded continuously can be attainable and affordable. Moreover, novel open-source machine-learning techniques for pose estimation enable continuous and automatic tracking of individual body parts in groups of rodents over long periods. The trajectories of each individual animal can further be subjected to supervised machine learning algorithms for automatic detection of specific behaviors (e.g., chasing, biting, or fleeing) or unsupervised automatic detection of behavioral motifs (e.g., stereotypical movements that might be harder to name or label manually). Compared to studies of animals in the wild, semi-natural environments are more compatible with neural and genetic manipulation techniques. As such, they can be used to study the neurobiological mechanisms underlying naturalistic behavior. Hence, we suggest that such a paradigm possesses the best out of classical ethology and the reductive behaviorist approach and may provide a breakthrough in discovering new efficient therapies for mental illnesses.</t>
+  </si>
+  <si>
+    <t>M5980</t>
+  </si>
+  <si>
+    <t>10.1111/psyp.14197</t>
+  </si>
+  <si>
+    <t>Association between PTSD and impedance cardiogram-based contractility metrics during trauma recall: A controlled twin study</t>
+  </si>
+  <si>
+    <t>Post-traumatic stress disorder (PTSD) is an independent risk factor for incident heart failure, but the underlying cardiac mechanisms remained elusive. Impedance cardiography (ICG), especially when measured during stress, can help understand the underlying psychophysiological pathways linking PTSD with heart failure. We investigated the association between PTSD and ICG-based contractility metrics (pre-ejection period (PEP) and Heather index (HI)) using a controlled twin study design with a laboratory-based traumatic reminder stressor. PTSD status was assessed using structured clinical interviews. We acquired synchronized electrocardiograms and ICG data while playing personalized-trauma scripts. Using linear mixed-effects models, we examined twins as individuals and within PTSD-discordant pairs. We studied 137 male veterans (48 pairs, 41 unpaired singles) from Vietnam War Era with a mean (standard deviation) age of 68.5(2.5) years. HI during trauma stress was lower in the PTSD vs. non-PTSD individuals (7.2 vs. 9.3 ohm/s2], p = .003). PEP reactivity (trauma minus neutral) was also more negative in PTSD vs. non-PTSD individuals (-7.4 vs. -2.0 ms], p = .009). The HI and PEP associations with PTSD persisted for adjusted models during trauma and reactivity, respectively. For within-pair analysis of eight PTSD-discordant twin pairs (out of 48 pairs), PTSD was associated with lower HI in neutral, trauma, and reactivity, whereas no association was found between PTSD and PEP. PTSD was associated with reduced HI and PEP, especially with trauma recall stress. This combination of increased sympathetic activation and decreased cardiac contractility combined may be concerning for increased heart failure risk after recurrent trauma re-experiencing in PTSD. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M5981</t>
+  </si>
+  <si>
+    <t>10.1177/21677026231161064</t>
+  </si>
+  <si>
+    <t>What Is the Power of Identity? Examining the Moderating Role of Racial-Identity Latent Profiles on the Relationship Between Race-Related Stress and Trauma Symptoms Among Black American Women</t>
+  </si>
+  <si>
+    <t>In the current study, we investigated the emergence of racial-identity latent profiles and the potential for racial-identity profiles to moderate the relationship between race-related stress and trauma symptoms in nontreatment-seeking, trauma-exposed, Black American women (N = 222). Racial-identity profiles emerged from latent profile analyses and supported a three-class solution: undifferentiated, detached, and nationalist. Analysis of variance revealed that the nationalist profile group experienced significantly higher race-related stress compared with the detached and undifferentiated profiles. Moderation analyses revealed racial-identity profile type predicted both total posttraumatic stress disorder (PTSD) symptoms and each PTSD symptom cluster; specifically, the nationalist profile type buffered the effects of race-related stress on PTSD symptoms. This study illustrates how stress from racial discrimination influences PTSD symptoms and the ways racial identity may mitigate this relationship, which has the capacity to inform the adaptation of PTSD treatments for minoritized groups. © The Author(s) 2023.</t>
+  </si>
+  <si>
+    <t>M10559</t>
+  </si>
+  <si>
+    <t>10.1177/08897077231186677</t>
+  </si>
+  <si>
+    <t>Dispensary Staff Perceptions About the Benefits, Risks, and Safety of Cannabis for Medical Purposes</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Therapeutic use of cannabis is common in the United States (up to 18.7% of Americans aged ≥12), and dispensaries in the US are proliferating rapidly. However, the efficacy profile of medical cannabis is unclear, and customers often rely on dispensary staff for purchasing decisions. The objective was to describe cannabis dispensary staff perceptions of medical cannabis benefits and risks, as well as its safety in high-risk populations. METHODS: Online Survey study conducted using Qualtrics from February 13, 2020 to October 2, 2020 with a national sample of dispensary staff who reportedinteracting with customers in a cannabis dispensary selling tetrahydrocannabinol-containing products. Participants were queried about benefits ("helpfulness") and risks ("worry") about cannabis for a variety of medical conditions, and safety in older adults and pregnant women on a five-point Likert scale. These results were then collapsed into three categories including "neutral" (3/5). "I don't know" (uncertainty) was a response option for helpfulness and safety. RESULTS: Participants (n = 434) were from 29 states and included patient-facing dispensary staff (40%); managers (32%); pharmacists (13%); and physicians, nurse practitioners, or physician assistants (5%). Over 80% of participants perceived cannabis as helpful for post-traumatic stress disorder (88.7%), epilepsy (85.3%) and cancer (83.4%). Generally, participants were not concerned about potential cannabis risks, including increased use of illicit drugs (76.3%), decreases in intelligence (74.4%), disrupted sleep (71.7%), and new/worsening health problems from medical cannabis use (70.7%). Cannabis was considered safe in older adults by 81.3% of participants, though there was much less consensus on safety in pregnancy. CONCLUSIONS: Cannabis dispensary staff generally view medical cannabis as beneficial and low-risk. However, improvements in dispensary staff training, an increased role for certifying clinicians, and interventions to reduce dispensary staff concerns (e.g., cost, judgment) may improve evidence-based staff recommendations to patients seeking medical cannabis.</t>
+  </si>
+  <si>
+    <t>M5986</t>
+  </si>
+  <si>
+    <t>10.1155/2023/2063212</t>
+  </si>
+  <si>
+    <t>Professional Quality of Life, Work-Related Stress, and Job Satisfaction among Nurses in Saudi Arabia: A Structural Equation Modelling Approach</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: To examine the interrelated impacts of work-related stress, compassion satisfaction (CS), and job satisfaction on burnout (BO) and secondary traumatic stress (STS) among nurses using structural equation modelling (SEM). METHODS: A cross-sectional design was used to survey 727 nurses at a teaching hospital in eastern Saudi Arabia. Three scales were used: the Quality of Life (ProQOL) scale, the Nursing Stress Scale (NSS), and the Job Satisfaction Survey (JSS). Data were analysed using SPSS and Analysis of Moment Structures (AMOS), and SEM analysis was conducted to confirm the interrelations among variables. RESULTS: The final model had a good fit for the obtained data (X (2) = 2.726, RMSEA = 0.032). Stress is directly related to BO and STS, and the following variables were directly related to STS: job satisfaction, BO, and CS. Lastly, BO mediated the relationship between stress and STS. CONCLUSION: It is crucial to analyze the effect of stress, CS, and job satisfaction which seems to have a positive and negative impact on nurses' BO and STS. Therefore, implementing a management strategy to manage stress and satisfaction can enhance nurses' quality of life, support the maintenance of positive attitudes, and enhance the standard of patient care.</t>
+  </si>
+  <si>
+    <t>M5993</t>
+  </si>
+  <si>
+    <t>10.1002/cbdv.202201038</t>
+  </si>
+  <si>
+    <t>Computational Design of Plant-Based Antistress Agents Targeting Nociceptin Receptor</t>
+  </si>
+  <si>
+    <t>Stress is the body's reaction to the challenges it faces, and it produces a multitude of chemical molecules known as stressors as a result of these reactions. It's also a misalignment of the sympathetic and parasympathetic nervous systems causing changes in a variety of physiological reactions and perhaps leading to stress disorders. The reduction in neurotransmitter &amp; neurohormonal hormones is mainly governed by the nociceptin receptor as G-protein coupled receptor and increased the level of reactive oxygen species. Various synthetic medicines that target nociceptin receptors were utilized to reduce the effects of stress but they come up with a variety of side effects. Because of the widespread utilization and renewed interest in medicinal herbal plants considered to be alternative antistress therapy. Our present work is an approach to decipher the molecular nature of novel herbal leads by targeting nociceptin receptor, under which herbal compounds were screened and validated through in-silico methods. Among screened leads, withanolide-B showed stable association in the active site of the nociceptin receptor as an antistress agent with no side effects. Furthermore, the selected lead was also evaluated for stability by molecular dynamic stimulation as well as for pharmacokinetics and toxicity profile. It has been concluded stable conformation of withanolide-B without presence of any major toxic effects. As a result, the in silico molecular docking technique is a highly successful method for selecting a prospective herbal lead molecule with respect to a specific target, and future research can pave the way for further exploration in the drug development field. © 2023 Wiley-VHCA AG, Zurich, Switzerland.</t>
+  </si>
+  <si>
+    <t>M10548</t>
+  </si>
+  <si>
+    <t>10.1007/s10803-023-05946-3</t>
+  </si>
+  <si>
+    <t>Exploring the psychosocial experiences of individuals with developmental language disorder during childhood: A qualitative investigation</t>
+  </si>
+  <si>
+    <t>Children with Developmental Language Disorder (DLD) often experience co-occurring psychosocial difficulties, the developmental trajectories of which are still not fully understood. This study sought to explore the manifestation of such difficulties during childhood, through first-hand accounts of those with DLD and their close relatives. Individual semi-structured interviews were conducted with 11 mothers of children with DLD (aged 6-12 years old) and were analysed alongside the secondary data from interviews of five adults with DLD. Interviews were conducted online; all participants resided in Europe and were fluent in spoken and written English. A process of interpretive phenomenological analysis resulted in the development of five overall themes: experiencing anxiety, social frustrations, maintaining factors, childhood strengths and the parenting experience. Cognitive appraisals appeared particularly important during childhood in both escalating and maintaining anxiety, low self-esteem, emotion dysregulation and social frustrations. High levels of isolation and stress were experienced by all mothers. The findings suggest parents in the United Kingdom and Ireland require more support and guidance at the point of diagnosis than is currently provided. Emphasis was given to the link between children's experience of anxiety and social behaviours, such as withdrawal, as well as their intolerance of uncertainty. Internalising symptoms were a prioritisation for intervention during childhood by both parents and adults with DLD. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M5994</t>
+  </si>
+  <si>
+    <t>Sedation Vacation in the ICU</t>
+  </si>
+  <si>
+    <t>As the name implies, the intensive care unit (ICU) is where a hospital’s sickest patients who require accelerated and concentrated care are admitted. Many of these patients, an estimated 33% of all admissions, are admitted for the respiratory failure of one etiology or another and subsequently are intubated and placed on mechanical ventilatory control. Part of the standard of care for intubation is to sedate the patient continuously to reduce pain and anxiety; decrease oxygen consumption and the body’s stress response; prevent patient-ventilator desynchrony; reduce adverse neurocognitive impacts such as depression and post-traumatic stress disorder and ventilator-associated events including pneumonia and tracheostomy, and reduce total nursing requirements. The medications used to initiate and maintain sedation within an intensive care unit setting include benzodiazepines such as diazepam, lorazepam, and midazolam; opioid analgesics such as fentanyl, hydromorphone, morphine, remifentanil, propofol, dexmedetomidine, and ketamine; and antipsychotics such as haloperidol, quetiapine, and ziprasidone. No sedative is found to be superior in efficacy or mortality. However, The Society of Critical Care Medicine guidelines states to avoid benzodiazepines due to evidence of a longer duration of intubation. The choice of which sedative is best lies in the practitioner’s clinical assessment of individual patient scenarios, weighing the risk/benefit profile of the medicine for each patient. Regardless of which sedative agent was utilized, total continuous sedation was found to be associated with an extension of the total length of intubation and increased length of the ICU stay and limited the ability to properly assess the mental status of the patient, increasing the risk for delirium, and suppressed brainwave function seen on EEG, linking to increased 6-month mortality. It was assessed that daily, short-term cessation of sedation, a “sedation vacation,” led to improved outcomes in patient care. Sedation vacations were first introduced in 2000 with a study by J.P. Kress et al. that was published in the New England Journal of Medicine and recognized as a medical necessity for standard practice within the ICU to wean patients from mechanical ventilation. The study of spontaneous-awakening trials showed that daily sedation interruptions improved the time to extubation of 64 patients by approximately 2 days which reduced the total admission time to the ICU by 3.5 days. This study was further reinforced by two separate trials, the Awakening and Breathing Controlled Trial in 2008 titled the “wake up and breathe” protocol and the No Sedation in Intensive Care Unit Patients trial in 2010. Both of these supporting trials investigated the impacts of imposing a protocol to evaluate and reduce sedation in a structured format and found that spontaneous-breathing trials along with sedation vacations reduced ventilatory dependent days and ICU admission days when compared to non-structured or no sedation vacation protocols.</t>
+  </si>
+  <si>
+    <t>M6007</t>
+  </si>
+  <si>
+    <t>10.1007/s12144-021-02554-1</t>
+  </si>
+  <si>
+    <t>Uncertainty after sexual assault: Understanding associations between IU and PTSD within a treatment-seeking sample</t>
+  </si>
+  <si>
+    <t>Sexual violence is associated with increased rates of posttraumatic stress disorder (PTSD) symptoms (PTSS) among survivors. Intolerance of uncertainty (IU), or a fear of the unknown, has been consistently linked with PTSS. However, no research has examined IU and PTSS across different trauma types. The current study examined whether differences exist in the relationship between IU and PTSS across sexual (n = 79) and non-sexual violence (n = 168) trauma subsamples. Baseline data from a diverse sample of participants enrolled in a randomized control treatment trial was used and participants were grouped according to trauma type. Results indicated that rates of IU did not differ across trauma types subsamples (p =.84), whereas PTSS levels did (p &lt;.02). Within non-sexual violence trauma survivors, IU was significantly associated with PTSD arousal symptoms. Within the sexual violence sample, all symptom clusters, except re-experiencing symptoms, were significantly associated with IU. Findings from the current study are discussed in terms of clinical implications and directions for future research. © 2021, This is a U.S. government work and not under copyright protection in the U.S.; foreign copyright protection may apply.</t>
+  </si>
+  <si>
+    <t>M6013</t>
+  </si>
+  <si>
+    <t>10.3389/fnbeh.2023.1112837</t>
+  </si>
+  <si>
+    <t>Neuroinflammation is a susceptibility factor in developing a PTSD-like phenotype</t>
+  </si>
+  <si>
+    <t>Introduction: Post-Traumatic Stress Disorder (PTSD) is a psychological disorder that occurs after a traumatic event in a subset of exposed individuals. This implies the existence of susceptibility factors that foster the development of PTSD. Susceptibility factors are present before trauma and can contribute to the development and maintenance of PTSD after trauma. Manipulation of susceptibility factors may decrease the probability of developing PTSD. A putative susceptibility factor is inflammation. Patients with PTSD have been documented to have a higher pro-inflammatory profile compared to non-PTSD subjects. In addition, they are more likely to develop and die from cardiovascular disease which has a strong inflammation component. It is not known, however, whether inflammation plays a role in developing PTSD or whether reducing inflammation can prevent PTSD. Methods: We used the Revealing Individual Susceptibility to a PTSD-like phenotype (RISP) model to behaviorally classify male rats as resilient or susceptible before trauma and tested their serum and prefrontal cortical (mPFC) levels of IL-1β, IL-6, TNFα, IL-10, IFN IFNγ, and KC/GRO to determine whether inflammation represents a putative susceptibility factor for PTSD. Results: We found elevated IL-6 levels in the mPFC, but not serum, of susceptible rats compared to resilient animals before trauma. Serum and mPFC levels were not correlated in any of the cytokines/chemokines. Rats with high anxiety-like behavior had elevated IL-6 and IL-10 mPFC levels. Acoustic startle responses were not associated with cytokine/chemokine levels. Discussion: Neuroinflammation, rather than systemic inflammation exists in susceptible male rats before trauma and is thus a putative susceptibility factor for PTSD. Thus, susceptibility appears neurogenic in its pathogenesis. The lack of differences between susceptible and resilient rats in serum cytokine/chemokine levels infers that peripheral markers will not be useful in determining susceptibility. Chronic neuroinflammation appears more broadly associated with anxiety rather than startle responses.</t>
+  </si>
+  <si>
+    <t>M6015</t>
+  </si>
+  <si>
+    <t>10.1097/01.hjh.0000939068.66076.cb</t>
+  </si>
+  <si>
+    <t>ASSOCIATION OF HIGH BLOOD PRESSURE WITH POSTTRAUMATIC STRESS DISORDER IN UKRAINIAN WOMEN SEEKING ASYLUM IN POLAND: A PILOT STUDY</t>
+  </si>
+  <si>
+    <t>Objective: Post-traumatic stress disorder (PTSD) and its components have been associated with hypertension, particularly in military servants, war veterans and more recently in populations exposed to chronic violence. However, to our knowledge, this association has not been investigated in refugees. The objective of this study was to explore the potential association between high blood pressure and PTSD in Ukrainian women seeking asylum in Poland. Design and method: From September to December 2022, 55 Ukrainian women refugees were enrolled in dormitories from Sopot (Poland). Blood pressure (BP) was measured using validated oscillometric devices. Hypertension was defined as systolic BP &gt; = 140 mmHg, diastolic BP &gt; = 90 mmHg or being on antihypertensive treatment. Relevant demographic and clinical data were obtained. Furthermore, subjects filled validated questionnaires for depression, stress and anxiety (DASS) and post-traumatic stress disorder (PTSD) (PCL-5). Subjects with and without hypertension were compared for both general and psychological characteristics. Results: Thirty out of 55 subjects were found to be hypertensive. Compared to subjects with normal BP in absence of drugs (mean BP: 117.8/75.6 mmHg, n = 25), hypertensive subjects (mean BP: 138.1/85.8 mmHg, n = 30) were older (57.2 ± 11.1 vs. 39.1 ± 0.8 years, p &lt; 0.00001) and had a higher BMI (29.0 ± 5.4 vs. 23.8 ± 4.4 kg/m2, p = 0.003). Furthermore, despite a similar personal situation (socio-economic background, direct exposure to war, time since arrival in Poland, with or without children/relatives), hypertensive subjects were more often feeling unsafe at the time of examination (4-items scale, p = 0.001) and scored higher for PTSD score (24.9 ± 17.0 vs. 16.3 ± 12.9, p = 0.038), particularly regarding intrusion (cluster B, p = 0.039) and hyper-arousal (cluster E, p = 0.002) dimensions, but not for DASS score (22.4 ± 14.2 vs. 17.2 ± 11.5 , p = 0.14). Conclusions: This preliminary analysis is consistent with an association between high BP and both feeling of being unsafe and PTSD score in Ukrainian women refugees. Our results need confirmation using 24-hour BP monitoring and in a larger sample. In the absence of difference in personal background and exposure to war, these associations may reflect underlying differences in expression of emotions and coping abilities, as previously shown in other populations exposed to violence or with difficult-to-treat hypertension.</t>
+  </si>
+  <si>
+    <t>M6019</t>
+  </si>
+  <si>
+    <t>10.1037/dev0001475</t>
+  </si>
+  <si>
+    <t>Prospective associations between pandemic-related adversity, harsh parenting, and the development of prosociality across middle to late childhood</t>
+  </si>
+  <si>
+    <t>Parenting behaviors and children's prosociality (i.e., voluntary behaviors intended to benefit others) are linked across development. Contextual risk and environmental stressors may undermine parenting behaviors known to promote children's prosocial behavior. The COVID-19 pandemic provides a unique context in which to examine how stress and contextual risk disrupt parenting practices and the development of children's prosociality over time. To explore the associations between pandemic-related adversity, parenting practices, and child prosocial behavior, we used survey data from 303 families (child Mage = 6.43; 51.4% female, 48.6% male; 65.7% White) who participated in a three-wave longitudinal study during the first year of the pandemic. Families were recruited from two northeastern cities in the United States. Growth mixture modeling identified two groups of parents who varied in their experience of pandemic-related adversity. The high-adversity group reported significantly more symptoms of depression and anxiety, parental burnout, and pandemic-related worries than the low-adversity group. At baseline, parents in the high-adversity group reported harsher parenting and perceived less prosocial behavior in their children. Across the full sample, there were no significant changes in harsh parenting and parental perceptions of child's prosociality across the first year of the pandemic. However, within the high-adversity group, increases in harsh parenting were related to reductions in children's prosociality over time. Results are interpreted in the context of family systems theory and contribute to our understanding of the links between parenting and children's prosociality and patterns of risk and resilience in the context of the COVID-19 pandemic. (PsycInfo Database Record (c) 2023 APA, all rights reserved) Impact Statement The present research investigated contextual and familial influences on children's prosocial behavior, which could potentially improve our understanding of how prosociality develops over time and inform programs that seek to promote prosocial behavior development across childhood and within the context of environmental adversity. Importantly, findings also support the notion that families naturally reorganize and adapt in the face of contextual adversity, which further highlights the importance of leveraging family systems theory and the interconnected nature of families to provide support and intervention for those most at risk. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10510</t>
+  </si>
+  <si>
+    <t>10.1002/smi.3279</t>
+  </si>
+  <si>
+    <t>Various types of stress and greater use of disengagement coping are associated with worse sleep disturbance in oncology patients undergoing chemotherapy</t>
+  </si>
+  <si>
+    <t>Various types of stress and the choice of coping strategies may be risk factors for higher levels of sleep disturbance in oncology patients. Purposes were to evaluate for differences in global, cancer-specific, and cumulative life stress, as well as resilience and the use of coping strategies among three subgroups of patients with distinct sleep disturbance profiles (i.e., Low, High, Very High). Oncology outpatients (n = 1331) completed measures of global (Perceived Stress Scale), cancer-specific (Impact of Event Scale-Revised), and cumulative life (Life Stressor Checklist-Revised) stress, resilience (Connor-Davidson Resilience Scale) and coping (Brief Cope) prior to their second or third cycle of chemotherapy. Sleep disturbance was assessed six times over two chemotherapy cycles. Differences were evaluated using parametric and non-parametric tests. All stress measures showed a dose response effect (i.e., as the sleep disturbance profile worsened, levels of all types of stress increased). Compared to Low class, the other two classes reported higher levels of global perceived stress and higher occurrence rates and effect from previous stressful life events. Impact of Event Scale-Revised scores for the Very High class indicated post-traumatic symptomatology. Patients in High and Very High classes had resilience scores below the normative score for the United States population and used a higher number of disengagement coping strategies. Our findings suggest that very high levels of sleep disturbance are associated with higher levels of various types of stress, lower levels of resilience, and higher use of disengagement coping strategies. Clinicians need to perform routine assessments and implement symptom management interventions to reduce stress and encourage the use of engagement coping strategies. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10508</t>
+  </si>
+  <si>
+    <t>10.1111/jmft.12637</t>
+  </si>
+  <si>
+    <t>Engagement and response to a psychoeducation program for family members of inpatients undergoing treatment for substance use disorder</t>
+  </si>
+  <si>
+    <t>The goal of this study was to evaluate a sample of family members, among whom individuals were undergoing inpatient treatment for substance use disorder and identify predictors of engagement in a family support program. A total of 159 family nuclei were analyzed; 36 (22.6%) completed the program and 123 (77.4%) did not complete the program. Compared to nonparticipants, participants were majorly female (91.9%), younger (43.3 years old, SD = 16.5), unemployed, homemakers, and not financially independent (56.7%). The results showed the predominant participation of wives (29.7%) and offspring (mostly daughters, 27.0%). Participants also reported a higher rate of depressive symptoms (p = 0.003) and worse quality of life, primarily environmental. The frequency of domestic violence was higher among participants than among nonparticipants (27.9% vs. 9.0%, p = 0.005). Engagement in family support programs is the first challenge to overcome. The nonparticipants' profile shows the need to adopt engagement strategies that encompass males and facilitate the participation of breadwinning family members. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6021</t>
+  </si>
+  <si>
+    <t>10.3390/children10091454</t>
+  </si>
+  <si>
+    <t>State of the Evidence for Use of Psychotropic Medications in School-Age Youth</t>
+  </si>
+  <si>
+    <t>Psychotropic medications are commonly prescribed to school-aged youth for the management of mental health concerns. This paper describes the current state of evidence for psychotropic medications in school-aged youth. More specifically, the following sections summarize relevant medication research trials and practice parameters pertaining to psychotropic medication prescribing as well as the specific medications indicated for a range of commonly presenting disorders and symptom clusters in school-aged youth. For each of these disorders and symptom clusters, key findings pertaining to the current state of science and practice are highlighted for the purpose of offering patients, clinicians, researchers, and policymakers with nuanced considerations for the role of psychopharmacology within the context of a larger “whole-child” approach to care that relies on the collaboration of providers and services across systems of care to promote optimal child and family health and wellness. The paper concludes with a discussion about supporting the use of medication treatments in schools, including considerations for ensuring effective family-school-health system collaboration to best meet youth mental health needs. © 2023 by the authors.</t>
+  </si>
+  <si>
+    <t>M10504</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejtd.2023.100337</t>
+  </si>
+  <si>
+    <t>Exploring help-seeking patterns of UK veterans with mental health difficulties: Referrals to Combat Stress 2012–2022</t>
+  </si>
+  <si>
+    <t>Background: Exploration of help-seeking by UK veterans with mental health difficulties has traditionally focused on barriers and facilitators to action. Comparatively little is known concerning referral patterns to specialist veteran mental health services. Aims: To explore patterns of help-seeking over the decade to 2022 to a national specialist mental health service for UK military veterans. Methods: A dataset was created from electronic patient records for referrals between 2012 and 2022. Data included demographics, dates of referral, military service details including service length and operational deployments. Results: The mean time taken for veterans to seek help after leaving service appeared to modestly increase, when compared to previous studies. This is contrary to predictions from previous studies and potentially driven by a cohort effect of older veterans continuing to take longer to seek support than their younger peers. Further, early service leavers took longer to seek help. Over the course of the decade, the proportion of veterans with experience of operations in Iraq and/or Afghanistan increased; these individuals appeared to seek help more quickly than veterans who had served on previous deployments. The proportion of female veterans seeking referral increased over time. Conclusions: Although older veterans continue to present with mental health difficulties, those younger and with more recent deployment to Afghanistan are likely to represent the largest group seeking help in the coming years. These trends indicate that adequate specialist veteran mental health care provision is contingent on meeting the needs of veterans with a range of demographic and military profiles. © 2023 Elsevier Masson SAS</t>
+  </si>
+  <si>
+    <t>M6024</t>
+  </si>
+  <si>
+    <t>10.1002/hsr2.1215</t>
+  </si>
+  <si>
+    <t>Latent class analysis of the Epidemic-Pandemic Impacts Inventory on mental health outcomes in Siyan Clinical patients</t>
+  </si>
+  <si>
+    <t>Background and Aims: The COVID-19 pandemic has made an outsized negative impact on mental health worldwide. However, research indicates that this impact was not uniform. This study aimed to determine how mental health patients experienced the COVID-19 pandemic to characterize mental health disparities and identify underlying factors. Methods: We used the Epidemic-Pandemic Impacts Inventory (EPII) and latent class analysis to determine the impacts of epidemics and pandemics across several life domains in 245 survey respondents, all of whom were mental health patients at Siyan Clinical. Respondents were predominately White (84.5%) and female (76.3%), with the majority being diagnosed with anxiety or mood disorders (76.3%). Results: In the work life domain, respondents in the higher-impact class were more likely to be employed and/or working in healthcare. In both the home life and emotional/physical health and infection domain, respondents with mood disorders, substance use disorders, or children under 18 living at home were more likely to be in the higher-impact class. In the home life and positive change domains, respondents that were married were more likely to be in the higher-impact class, indicating that this group experiences more impacts from the pandemic, both positive and negative. Finally, some groups stood out as having fewer impacts from the pandemic: respondents that were male, over age 55, White, and/or have anxiety disorders were more likely to experience fewer impacts from the pandemic in the work life and home life domains. Conclusions: This study provides evidence that certain groups may experience greater or fewer impacts from the pandemic.</t>
+  </si>
+  <si>
+    <t>M10497</t>
+  </si>
+  <si>
+    <t>10.1017/S0033291721003779</t>
+  </si>
+  <si>
+    <t>Effects of prior deployments and perceived resilience on anger trajectories of combat-deployed soldiers</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Problematic anger is frequently reported by soldiers who have deployed to combat zones. However, evidence is lacking with respect to how anger changes over a deployment cycle, and which factors prospectively influence change in anger among combat-deployed soldiers. METHODS: Reports of problematic anger were obtained from 7298 US Army soldiers who deployed to Afghanistan in 2012. A series of mixed-effects growth models estimated linear trajectories of anger over a period of 1-2 months before deployment to 9 months post-deployment, and evaluated the effects of pre-deployment factors (prior deployments and perceived resilience) on average levels and growth of problematic anger. RESULTS: A model with random intercepts and slopes provided the best fit, indicating heterogeneity in soldiers' levels and trajectories of anger. First-time deployers reported the lowest anger overall, but the most growth in anger over time. Soldiers with multiple prior deployments displayed the highest anger overall, which remained relatively stable over time. Higher pre-deployment resilience was associated with lower reports of anger, but its protective effect diminished over time. First- and second-time deployers reporting low resilience displayed different anger trajectories (stable v. decreasing, respectively). CONCLUSIONS: Change in anger from pre- to post-deployment varies based on pre-deployment factors. The observed differences in anger trajectories suggest that efforts to detect and reduce problematic anger should be tailored for first-time v. repeat deployers. Ongoing screening is needed even for soldiers reporting high resilience before deployment, as the protective effect of pre-deployment resilience on anger erodes over time.</t>
+  </si>
+  <si>
+    <t>M10496</t>
+  </si>
+  <si>
+    <t>10.1016/j.jad.2023.08.029</t>
+  </si>
+  <si>
+    <t>Associations of active-duty mental health trajectories with post-military adjustment: Results from the STARRS Longitudinal Study</t>
+  </si>
+  <si>
+    <t>Background: Many servicemembers experience difficulties transitioning from military to civilian life. We examined whether changes in mental health observed during active duty were associated with indices of post-military adjustment. Methods: Survey data from the multi-wave Army STARRS Pre/Post Deployment Study (PPDS; conducted 2012–2014) were linked to follow-up data from wave 1 of the STARRS Longitudinal Study (STARRS-LS1; conducted 2016–2018). Empirical Bayes estimates of intercepts and slopes of posttraumatic stress, problematic anger, and depressive symptoms during the PPDS were extracted from mixed-effects growth models and evaluated as predictors of life stress among 1080 participants who had separated or retired from the Army at STARRS-LS1; and of job satisfaction among 586 veterans who were employed at STARRS-LS1. Results: Higher average levels and larger increases in posttraumatic stress, anger, and depression over the deployment period were each associated with increased stress and (in the case of anger and depression) reduced job satisfaction. Posttraumatic stress and anger slopes were associated with overall stress (b = 5.60, p &lt; 0.01 and b = 15.64, p = 0.04, respectively) and relationship stress (b = 5.50, p = 0.01 and b = 22.86, p = 0.01, respectively) beyond the average levels of those symptoms. Limitations: Some transition-related difficulties may have resolved before outcome assessment; some measures were not previously validated. Conclusions: Larger increases in posttraumatic stress and anger over a deployment period were associated with increased stress after leaving the Army, even after controlling for average symptom levels during the same period. Monitoring changes in mental health during active duty may help identify personnel who need additional support to facilitate the military-to-civilian transition.</t>
+  </si>
+  <si>
+    <t>M10495</t>
+  </si>
+  <si>
+    <t>10.1017/S0033291723000211</t>
+  </si>
+  <si>
+    <t>Associations of polygenic risk scores with posttraumatic stress symptom trajectories following combat deployment</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Identification of genetic risk factors may inform the prevention and treatment of posttraumatic stress disorder (PTSD). This study evaluates the associations of polygenic risk scores (PRS) with patterns of posttraumatic stress symptoms following combat deployment. METHOD: US Army soldiers of European ancestry (n = 4900) provided genomic data and ratings of posttraumatic stress symptoms before and after deployment to Afghanistan in 2012. Latent growth mixture modeling was used to model posttraumatic stress symptom trajectories among participants who provided post-deployment data (n = 4353). Multinomial logistic regression models tested independent associations between trajectory membership and PRS for PTSD, major depressive disorder (MDD), schizophrenia, neuroticism, alcohol use disorder, and suicide attempt, controlling for age, sex, ancestry, and exposure to potentially traumatic events, and weighted to account for uncertainty in trajectory classification and missing data. RESULTS: Participants were classified into low-severity (77.2%), increasing-severity (10.5%), decreasing-severity (8.0%), and high-severity (4.3%) posttraumatic stress symptom trajectories. Standardized PTSD-PRS and MDD-PRS were associated with greater odds of membership in the high-severity v. low-severity trajectory adjusted odds ratios and 95% confidence intervals, 1.23 (1.06-1.43) and 1.18 (1.02-1.37), respectively] and the increasing-severity v. low-severity trajectory 1.12 (1.01-1.25) and 1.16 (1.04-1.28), respectively]. Additionally, MDD-PRS was associated with greater odds of membership in the decreasing-severity v. low-severity trajectory 1.16 (1.03-1.31)]. No other associations were statistically significant. CONCLUSIONS: Higher polygenic risk for PTSD or MDD is associated with more severe posttraumatic stress symptom trajectories following combat deployment. PRS may help stratify at-risk individuals, enabling more precise targeting of treatment and prevention programs.</t>
+  </si>
+  <si>
+    <t>M5967</t>
+  </si>
+  <si>
+    <t>10.1111/jnu.12906</t>
+  </si>
+  <si>
+    <t>Stigma, social and structural vulnerability, and mental health among transgender women: A partial least square path modeling analysis</t>
+  </si>
+  <si>
+    <t>Introduction: Existing literature suggests that transgender women (TW) may be at high risk for adverse mental health due to stress attributed to combined experiences of stigma and complex social and structural vulnerabilities. Little research has examined how these co-occurring experiences relate to mental health. We aimed to test a theoretically driven conceptual model of relationships between stigma, social and structural vulnerabilities, and mental health to inform future intervention tailoring. Design/Methods: Partial least square path modeling followed by response-based unit segmentation was used to identify homogenous clusters in a diverse community sample of United States (US)-based TW (N = 1418; 46.2% White non-Hispanic). This approach examined associations between latent constructs of stigma (polyvictimization and discrimination), social and structural vulnerabilities (housing and food insecurity, unemployment, sex work, social support, and substance use), and mental health (post-traumatic stress and psychological distress). Results: The final conceptual model defined the structural relationship between the variables of interest within stigma, vulnerability, and mental health. Six clusters were identified within this structural framework which suggests that racism, ethnicism, and geography may be related to mental health inequities among TW. Conclusion: Our findings around the impact of racism, ethnicism, and geography reflect the existing literature, which unfortunately shows us that little change has occurred in the last decade for TW of color in the Southern US; however, the strength of our evidence (related to sampling structure and sample size) and type of analyses (accounting for co-occurring predictors of health, i.e., stigma and complex vulnerabilities, reflecting that of real-world patients) is a novel and necessary addition to the literature. Findings suggest that health interventions designed to offset the negative effects of stigma must include anti-racist approaches with components to reduce or eliminate barriers to resources that contribute to social and structural vulnerabilities among TW. Herein we provide detailed recommendations to guide primary, secondary, and tertiary prevention efforts. Clinical Relevance: This study demonstrated the importance of considering stigma and complex social and structural vulnerabilities during clinical care and design of mental health interventions for transgender women who are experiencing post-traumatic stress disorder and psychological distress. Specifically, interventions should take an anti-racist approach and would benefit from incorporating social support-building activities. © 2023 The Authors. Journal of Nursing Scholarship published by Wiley Periodicals LLC on behalf of Sigma Theta Tau International.</t>
+  </si>
+  <si>
+    <t>M10486</t>
+  </si>
+  <si>
+    <t>10.1093/jpepsy/jsac082</t>
+  </si>
+  <si>
+    <t>Acceptability and Feasibility of eSCCIP: Results From a Pilot Study of the Electronic Surviving Cancer Competently Intervention Program</t>
+  </si>
+  <si>
+    <t>BACKGROUND: Providing high-quality psychosocial care to parents and other primary caregivers of children with cancer (henceforth referred to as caregivers) is important, given the numerous challenges associated with a pediatric cancer diagnosis and the increased risk for negative psychosocial sequelae among caregivers. The Electronic Surviving Cancer Competently Intervention Program (eSCCIP) is a psychosocial eHealth intervention for caregivers, developed using an iterative, user-centered process. METHOD: eSCCIP was tested in a single-arm pilot trial at Nemours Children's Hospital, Delaware (NCT05333601). The primary outcomes were intervention acceptability and feasibility, assessed via enrollment and retention targets, and item-level acceptability ratings. Enrollment and retention targets of 45% were set based on previous work, and an item-level acceptability threshold of 80% was set. A secondary exploratory analysis was conducted examining acute distress, anxiety, symptoms of post-traumatic stress, and family functioning. RESULTS: 44 caregivers enrolled in the study and 31 completed. The intervention was rated favorably by completers, with over 80% of the sample selecting "mostly true" or "very true" for all items of the eSCCIP Evaluation Questionnaire, which was used to assess acceptability and feasibility. Enrollment and retention rates were 54% and 70%, respectively. Exploratory psychosocial outcomes showed statistically significant decreases from pre-intervention to post-intervention for overall symptoms of post-traumatic stress disorder (PTSD), cluster D symptoms of PTSD (negative mood and cognitions), and anxiety. Small-moderate effect sizes were observed for all psychosocial outcomes of interest. CONCLUSIONS: eSCCIP is an acceptable and feasible intervention for caregivers. Results are promising regarding reductions in symptoms of post-traumatic stress and anxiety.</t>
+  </si>
+  <si>
+    <t>M5962</t>
+  </si>
+  <si>
+    <t>10.1017/S0033291721001665</t>
+  </si>
+  <si>
+    <t>Refuting the myth of a 'tsunami' of mental ill-health in populations affected by COVID-19: evidence that response to the pandemic is heterogeneous, not homogeneous</t>
+  </si>
+  <si>
+    <t>BACKGROUND: The current study argues that population prevalence estimates for mental health disorders, or changes in mean scores over time, may not adequately reflect the heterogeneity in mental health response to the COVID-19 pandemic within the population. METHODS: The COVID-19 Psychological Research Consortium (C19PRC) Study is a longitudinal, nationally representative, online survey of UK adults. The current study analysed data from its first three waves of data collection: Wave 1 (March 2020, N = 2025), Wave 2 (April 2020, N = 1406) and Wave 3 (July 2020, N = 1166). Anxiety-depression was measured using the Patient Health Questionnaire Anxiety and Depression Scale (a composite measure of the PHQ-9 and GAD-7) and COVID-19-related posttraumatic stress disorder (PTSD) with the International Trauma Questionnaire. Changes in mental health outcomes were modelled across the three waves. Latent class growth analysis was used to identify subgroups of individuals with different trajectories of change in anxiety-depression and COVID-19 PTSD. Latent class membership was regressed on baseline characteristics. RESULTS: Overall prevalence of anxiety-depression remained stable, while COVID-19 PTSD reduced between Waves 2 and 3. Heterogeneity in mental health response was found, and hypothesised classes reflecting (i) stability, (ii) improvement and (iii) deterioration in mental health were identified. Psychological factors were most likely to differentiate the improving, deteriorating and high-stable classes from the low-stable mental health trajectories. CONCLUSIONS: A low-stable profile characterised by little-to-no psychological distress ('resilient' class) was the most common trajectory for both anxiety-depression and COVID-19 PTSD. Monitoring these trajectories is necessary moving forward, in particular for the ~30% of individuals with increasing anxiety-depression levels.</t>
+  </si>
+  <si>
+    <t>M10596</t>
+  </si>
+  <si>
+    <t>10.1002/jts.22897</t>
+  </si>
+  <si>
+    <t>Medical board transparency regarding physician sexual misconduct: Two years post–policy updates</t>
+  </si>
+  <si>
+    <t>Recent years have seen increased attention to and motivation for addressing sexual violence. Physician sexual misconduct (PSM) represents a significant violation and abuse of power, with consequences for both patients and public trust in medicine. In the United States, the Federation of State Medical Boards released updated policies in 2020 imploring increased transparency and stronger punishments for PSM cases. This brief report presents an assessment of how transparent medical board websites are in disclosing PSM now 2 years after this policy paper. We reviewed the websites for all 50 states and Washington, DC, to examine how easily a consumer could find a list of board orders, profiles of licensees, and PSM case summaries. In total, 24 states provided a list of orders, and 21 states provided case summaries. Many barriers to finding clearly discussed PSM-related information remain, including many outdated licensee profiles. Ideas for continued efforts to document and discuss PSM to help foster evidence-based policy recommendations are presented. © 2022 International Society for Traumatic Stress Studies.</t>
+  </si>
+  <si>
+    <t>M5880</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>Sertraline is a medication used to manage and treat the major depressive disorder, obsessive-compulsive disorder, panic disorder, post-traumatic stress disorder, premenstrual dysphoric disorder, and social anxiety disorder. It is in the SSRI class of medications. This activity outlines the indications, actions, and contraindications for sertraline as a valuable agent in the treatment of major depressive disorder and other disorders. This activity will highlight the mechanism of action, adverse event profile, and other key factors (e.g., off-label uses, dosing, monitoring, relevant interactions) pertinent for members of the interprofessional healthcare team in treating patients with major depressive disorder and related conditions.</t>
+  </si>
+  <si>
+    <t>M5888</t>
+  </si>
+  <si>
+    <t>10.3390/medicina59081467</t>
+  </si>
+  <si>
+    <t>The Co-Occurrence of Post-Traumatic Stress Disorder and Depression in Individuals with and without Traumatic Brain Injury: A Comprehensive Investigation</t>
+  </si>
+  <si>
+    <t>Post-traumatic stress disorder (PTSD) is a prevalent psychiatric disorder that often occurs following war trauma. Despite its high prevalence, there is still a lack of comprehensive understanding regarding the mechanisms underlying its progression and treatment resistance. Recent research has shed light on the biological basis of PTSD, with neuroimaging studies revealing altered brain connectivity patterns in affected individuals. In war contexts, traumatic brain injury (TBI) is a common occurrence and is associated with a high prevalence of PTSD. This study aimed to compare the severity of PTSD and depression in patients with and without a history of TBI to shed light on the impact of comorbid TBI on the presentation of PTSD symptoms. To achieve this goal, a cross-sectional study was conducted involving a sample of 60 outpatients who were diagnosed with both PTSD and Depressive Disorder. The inclusion criteria required participants to meet the diagnostic criteria for both disorders using validated tools. The severities of PTSD and depressive symptoms were assessed using scales that have been widely used and validated in previous research. By utilizing these standardized assessment tools, this study aimed to ensure the reliability and validity of the obtained data. The results of this study revealed that patients with comorbid PTSD and TBI exhibited a significantly higher severity of PTSD symptoms compared to those with PTSD only. Specifically, the comorbid group demonstrated higher ratings of symptom intensity across all symptom clusters. These findings are consistent with previous research that has highlighted the impact of comorbid TBI on the intensity and persistence of PTSD symptoms. When controlling for PTSD severity, no significant differences were observed in the severity of depressive symptoms between the two groups. This suggests that the increased depressive symptoms observed in the comorbid group may be primarily driven by the presence of more intense PTSD symptoms rather than TBI per se. The findings highlight the need for an accurate diagnosis of TBI in individuals with PTSD to guide appropriate treatment interventions. Further research is warranted to delve into the underlying mechanisms that contribute to the interaction between TBI and PTSD and to develop targeted interventions for individuals with comorbid PTSD and TBI. © 2023 by the authors.</t>
+  </si>
+  <si>
+    <t>M10670</t>
+  </si>
+  <si>
+    <t>10.1080/17460441.2023.2224555</t>
+  </si>
+  <si>
+    <t>New directions in psychiatric drug development: promising therapeutics in the pipeline</t>
+  </si>
+  <si>
+    <t>Introduction: Psychiatric disorders are a leading cause of disability worldwide, calling for an urgent need for new treatments, early detection, early intervention, and precision medicine. Drug discovery and development in psychiatry continues to expand in new and exciting areas, with several new medications approved for psychiatric indications by the U.S. Food and Drug Administration (FDA) in the last 5 years. Areas covered: In this review, the authors summarize recent new drug approvals and new molecular mechanisms in Phase 1–3 clinical development for psychiatric disorders. Advances in human genetics-driven target identification, emergent technologies such as artificial intelligence-enabled drug discovery, digital health technologies, and biomarker tools and strategies for testing novel mechanisms are highlighted. Expert opinion: There continues to be a need for research focused on understanding the natural history, developmental trajectory, and pathophysiology of psychiatric disorders to identify new molecular and circuit-based targets. Looking to the future, a vision of precision psychiatry is emerging, taking advantage of advances in genetics, digital technology, and multimodal biomarkers to accelerate the development of next-generation therapies for individuals living with mental illnesses. © This work was authored as part of the Contributor’s official duties as an Employee of the United States Government and is therefore a work of the United States Government. In accordance with 17 USC 105, no copyright protection is available for such works under US Law.</t>
+  </si>
+  <si>
+    <t>M5897</t>
+  </si>
+  <si>
+    <t>Toward the narrow approach to posttraumatic stress disorder diagnostic criteria: An item response theory analysis</t>
+  </si>
+  <si>
+    <t>A crucial debate in the field of traumatic stress involves the question of whether posttraumatic stress disorder (PTSD) is better represented by a broad or a narrow approach to establishing the set of symptom criteria (Stein et al., 2014). The broad approach, exemplified by the Diagnostic and Statistical Manual of Mental Disorders, 5th Edition (DSM-5; APA, 2013), includes a wide range of trauma-related symptoms, regardless of whether they overlap with other disorders. Conversely, the narrow approach, exemplified by the International Classification of Diseases, 11th Edition (ICD-11; WHO, expected release 2018) retains only a limited set of what are argued to be core symptoms specific to PTSD (Brewin, 2013; Maercker et al., 2013; Resick &amp; Miller, 2009).. Although the ICD-11 workgroup narrowed symptom criteria using theory, empirical research, and clinical judgment, it remains empirically unclear whether the retained symptoms are truly the core PTSD symptoms. Item response theory (IRT), a statistical technique that examines each symptom's relative contribution to a construct, is a powerful tool that can inform PTSD symptom selection for the narrow approach. Although IRT studies on PTSD measures exist, no firm conclusions can be drawn about the core symptoms due to the over-restrictiveness of the models employed, variations in measures and populations examined, and the change from DSM-IV-TR (APA, 2000) to DSM-5 (APA, 2013) criteria. To empirically address the question of which items represent the core PTSD symptoms, IRT was employed to examine item difficulty and item discrimination parameters. Undergraduates who experienced a DSM-5 Criterion A event completed the LEC-5 and PCL-5. Physiological reactivity, internal avoidance, persistent negative emotional state, detachment from others, and concentration and sleep difficulties emerged as the most discriminating symptoms within each DSM-5 symptom cluster. Importantly, this list only has one symptom in common with ICD-11 PTSD criteria, suggesting that, in general, the symptoms retained for ICD-11 are not in fact the most discriminating. Future research should employ IRT in a clinical population. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10662</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpain.2023.03.001</t>
+  </si>
+  <si>
+    <t>Cpg methylation levels in hpa axis genes predict chronic pain outcomes following trauma exposure</t>
+  </si>
+  <si>
+    <t>Chronic post-traumatic musculoskeletal pain (CPTP) is a common outcome of traumatic stress exposure. Biological factors that influence the development of CPTP are poorly understood, though current evidence indicates that the hypothalamic-pituitary-adrenal (HPA) axis plays a critical role in its development. Little is known about molecular mechanisms underlying this association, including epigenetic mechanisms. Here, we assessed whether peritraumatic DNA methylation levels at 248 5'-C-phosphate-G-3' (CpG) sites in HPA axis genes (FKBP5, NR3C1, CRH, CRHR1, CRHR2, CRHBP, POMC) predict CPTP and whether identified CPTP-associated methylation levels influence expression of those genes. Using participant samples and data collected from trauma survivors enrolled into longitudinal cohort studies (n = 290), we used linear mixed modeling to assess the relationship between peritraumatic blood-based CpG methylation levels and CPTP. A total of 66 (27%) of the 248 CpG sites assessed in these models statistically significantly predicted CPTP, with the three most significantly associated CpG sites originating from the POMC gene region (ie, cg22900229 beta = .124, P = 4: r = -.18, P = .2312). Our results suggest that methylation of HPA axis genes including POMC and CRHBP predict risk for and may contribute to vulnerability to CPTP. PERSPECTIVE: Peritraumatic blood levels of CpG methylation sites in HPA axis genes, particularly CpG sites in the POMC gene, predict CPTP development. This data substantially advances our understanding of epigenetic predictors and potential mediators of CPTP, a highly common, morbid, and hard-to-treat form of chronic pain. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10660</t>
+  </si>
+  <si>
+    <t>10.1016/j.jaac.2022.12.028</t>
+  </si>
+  <si>
+    <t>Short-term impact of "Amaka Amasanyufu" multiple family group intervention on mental health functioning of children with disruptive behavior disorders in Uganda</t>
+  </si>
+  <si>
+    <t>Objective: We evaluate the mid-intervention (8 weeks) and short-term (16 weeks) impact of a culturally adapted multiple family group (MFG) intervention, "Amaka Amasanyufu," on the mental health of children with disruptive behavior disorders (DBDs) and primary caregivers in Uganda. Method: We analyzed data from the Strengthening mental health and research training in Sub-Saharan Africa (SMART) Africa-Uganda study. Schools were randomized to the following: a control group; an MFG facilitated by parent peers (MFG-PP); or an MFG facilitated by community health workers (MFG:CHW). All participants were blinded to interventions provided to other participants and study hypotheses. At 8 weeks and 16 weeks, we evaluated differences in depressive symptoms and self-concept among children and in mental health and caregiving-related stress among caregivers. Three-level linear mixed-effects models were fitted. Pairwise comparisons of post-baseline group means were performed using the Sidak adjustment for multiple comparisons and standardized mean differences. Data from 636 children with DBDs and caregivers (controls: n = 243, n = 10 schools; MFG-PP: n = 194, n = 8 schools; MFG-CHW: n = 199, n = 8 schools) were analyzed. Results: There were significant group-by-time interactions for all outcomes, and differences were observed mid-intervention, with short-term effects at 16 weeks (end-intervention). MFG-PP and MFG-CHW children had significantly lower depressive symptoms and higher self-concept, whereas caregivers had significantly lower caregiving-related stress and fewer mental health problems, than controls. There was no difference between intervention groups. Conclusion: Amaka Amasanyufu MFG intervention is effective for reducing depressive symptoms and improving self-concept among children with DBDs while reducing parental stress and mental health problems among caregivers. Given the paucity of culturally adapted mental health interventions, this provides support for adaptation and scale-up in Uganda and other low-resource settings. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M5912</t>
+  </si>
+  <si>
+    <t>10.1126/scitranslmed.abn0441</t>
+  </si>
+  <si>
+    <t>Precision functional MRI mapping reveals distinct connectivity patterns for depression associated with traumatic brain injury</t>
+  </si>
+  <si>
+    <t>Depression associated with traumatic brain injury (TBI) is believed to be clinically distinct from primary major depressive disorder (MDD) and may be less responsive to conventional treatments. Brain connectivity differences between the dorsal attention network (DAN), default mode network (DMN), and subgenual cingulate have been implicated in TBI and MDD. To characterize these distinctions, we applied precision functional mapping of brain network connectivity to resting-state functional magnetic resonance imaging data from five published patient cohorts, four discovery cohorts (n = 93), and one replication cohort (n = 180). We identified a distinct brain connectivity profile in TBI-associated depression that was independent of TBI, MDD, posttraumatic stress disorder (PTSD), depression severity, and cohort. TBI-associated depression was independently associated with decreased DAN–subgenual cingulate connectivity, increased DAN-DMN connectivity, and the combined effect of both. This effect was stronger when using precision functional mapping relative to group-level network maps. Our results support the possibility of a physiologically distinct “TBI affective syndrome,” which may benefit from individualized neuromodulation approaches to target its distinct neural circuitry.</t>
+  </si>
+  <si>
+    <t>M5914</t>
+  </si>
+  <si>
+    <t>10.1097/COC.0000000000000998</t>
+  </si>
+  <si>
+    <t>The Impact of Psychedelic Drugs on Anxiety and Depression in Advanced Cancer or other Life-threatening Disease: A Systematic Review With Meta-analysis</t>
+  </si>
+  <si>
+    <t>Objectives: Life-threatening cancer or other diseases can induce anxiety and depressive symptoms. We performed a systematic review with meta-analyses of randomized controlled trials assessing patients with cancer or other life-threatening diseases using validated anxiety and depression scales. Methods: PubMed was searched up to November 15, 2022 and citations were applied to prespecified inclusion criteria. Disease rating scales for anxiety or depression included the State-Trait Anxiety Inventory (STAI) (STAI Trait STAI-T], STAI-State STAI-S]), Beck Depression Inventory (BDI), Hospital Anxiety and Depression Scale (HADS) (HADS-Anxiety HADS-A]; HADS-Depression HADS-D]), Profile of Mood States (POMS), and the Hamilton Rating Scale for Depression (HAM-D or GRID-HAM-D-17). Safety outcomes included assessments of blood pressure and heart rate. Results: Five trials, predominantly in cancer patients, had data assessing anxiety and depressive symptoms. These trials found promising results for psychedelics versus placebo in several anxiety and depression scales but increases in blood pressure and heart rate also occurred. There were some concerns of risk of bias because it is difficult to truly randomize a psychedelic trial and there was a high percentage of patients in the trials who had used psychedelics in the past. There was high heterogeneity for all analyses that we could not explain. Conclusions: Although the results are promising, future trials are needed to assess the optimal psychedelic, dose, number of sessions required, and how psychedelic naïve patients would respond both psychologically and hemodynamically before this therapy can be considered for widescale clinical use.</t>
+  </si>
+  <si>
+    <t>M10643</t>
+  </si>
+  <si>
+    <t>10.5055/jem.0754</t>
+  </si>
+  <si>
+    <t>Predicting profiles of post-trauma adaptation in first responders and civilians after the 2013 Boston Marathon bombings: The role of distress, growth, and emotion regulation</t>
+  </si>
+  <si>
+    <t>Introduction: Responses to trauma are often characterized either by the presence or absence of psychological distress; however, the process of adapting after trauma also includes potential positive change. While some studies document that the majority of individuals exposed to single event terrorism report low levels of psychological distress, more research is needed to understand different adaptation profiles following this type of trauma, and the factors that might predict responses. Methods: We examined post-trauma responses in 257 first responders/medical professionals (66.8 percent) and civilians (33.2 percent) exposed to the 2013 Boston Marathon Bombings. Data for post-trauma profiles—post-traumatic growth (PTG), post-traumatic stress, and emotion regulation—and profile predictors—trauma proximity, trauma history, and coping flexibility—were collected approximately 2.5 years after the bombings. Latent profile analysis identified response profiles, and multinomial logistic regression identified demographic, event-specific, and psychological predictors of profile membership. Results: Four profiles emerged: (1) symptomatic, (2) resistant, (3) resilient, and (4) struggling growth. First responder role decreased the odds of belonging to the struggling growth profile, as compared to the symptomatic profile. Greater coping flexibility and adaptive emotion regulation increased the odds of membership in the struggling growth, rather than symptomatic profile. Conclusion: A subset of individuals experiencing post-traumatic stress symptoms years after trauma exposure may also be utilizing flexible, adaptive coping strategies and experiencing PTG. First responders may have difficulty experiencing simultaneous distress and growth, and interventions designed to promote healthy post-trauma adaptation for this population could be tailored accordingly. © 2023 Weston Medical Publishing. All rights reserved.</t>
+  </si>
+  <si>
+    <t>M10640</t>
+  </si>
+  <si>
+    <t>10.1002/cpp.2815</t>
+  </si>
+  <si>
+    <t>An examination of the heterogeneity of the relationships between posttraumatic stress disorder, self-compassion and gratitude</t>
+  </si>
+  <si>
+    <t>Previous research has found both self-compassion and gratitude to be protective against overall posttraumatic stress disorder (PTSD) symptom severity. PTSD is a highly heterogeneous disorder; however, it is unclear if these protective constructs are differentially associated with each cluster of PTSD. The present study examined differences in the association of self-compassion and gratitude with the four clusters of PTSD as indicated by the DSM-5. Participants were 1424 trauma-exposed individuals recruited via Amazon's Mechanical Turk. The mean age of participants was 31.49 (SD = 11.25) years old, and 55.3% of the sample identified as female. A structural equation model (SEM) approach was used to examine relationships between factors of gratitude, self-compassion and the four PTSD symptom clusters. A two-factor model of self-compassion best fits the data. Both the self-compassion and gratitude factors were significantly associated with all symptom clusters of PTSD. Wald chi-square tests indicated self-compassion and gratitude to have the strongest association with negative alterations in cognitions and mood (NACM) PTSD symptoms. These findings may have important implications for treatment targets to reduce specific symptoms of PTSD, particularly in PTSD symptoms related to negative affect.</t>
+  </si>
+  <si>
+    <t>M5917</t>
+  </si>
+  <si>
+    <t>10.1016/j.invent.2023.100666</t>
+  </si>
+  <si>
+    <t>Machine learning identifies a COVID-19-specific phenotype in university students using a mental health app</t>
+  </si>
+  <si>
+    <t>Background: Advances in smartphone technology have allowed people to access mental healthcare via digital apps from wherever and whenever they choose. University students experience a high burden of mental health concerns. Although these apps improve mental health symptoms, user engagement has remained low. Studies have shown that users can be subgrouped based on unique characteristics that just-in-time adaptive interventions (JITAIs) can use to improve engagement. To date, however, no studies have examined the effect of the COVID-19 pandemic on these subgroups. Objective: Here, we sought to examine user subgroup characteristics across three COVID-19-specific timepoints: during lockdown, immediately following lockdown, and three months after lockdown ended. Methods: To do this, we used a two-step machine learning approach combining unsupervised and supervised machine learning. Results: We demonstrate that there are three unique subgroups of university students who access mental health apps. Two of these, with either higher or lower mental well-being, were defined by characteristics that were stable across COVID-19 timepoints. The third, situational well-being, had characteristics that were timepoint-dependent, suggesting that they are highly influenced by traumatic stressors and stressful situations. This subgroup also showed feelings and behaviours consistent with burnout. Conclusions: Overall, our findings clearly suggest that user subgroups are unique: they have different characteristics and therefore likely have different mental healthcare goals. Our findings also highlight the importance of including questions and additional interventions targeting traumatic stress(ors), reason(s) for use, and burnout in JITAI-style mental health apps to improve engagement.</t>
+  </si>
+  <si>
+    <t>M10637</t>
+  </si>
+  <si>
+    <t>A longitudinal analysis of chronic stress, substance use, and mental health among a sample of young sexual minority men in New York City</t>
+  </si>
+  <si>
+    <t>Sexual minority men (SMM) are at increased risk for psychosocial stressor exposure, substance use, and poor mental health relative to heterosexual men. While the burden of mental health and substance use is growing in the United States, among SMM these trends are increasing at a greater rate, driving already large health disparities. To better understand how psychosocial stressors drive disparities in substance use and mental health, this dissertation utilized an integrated framework built upon Meyer's Minority Stress Model and Hatzenbuehler's Psychological Mediation Framework. Data from seven timepoints over 36 months of a prospective cohort study of young SMM (n=528) were used to examine the extent to which stressors (stigma, discrimination, internalized homophobia, perceived stress) drive substance use (alcohol to intoxication, club drug, poly club drug) and poor mental health (anxiety, depression, PTSD), and how poor mental health impacts substance use. Using zero-inflated generalized linear mixed models, the differential impacts of stressors on the frequency of specific substance use and the severity of mental health symptomatology was observed, and how the severity of specific mental health outcomes drove the use of specific substances. By observing how these relationships differed by race, ethnicity, sexual identity, and SES, these analyses highlighted the social nature of substance use, and the challenges SMM face during young adulthood. Based on the findings from the primary analyses, a supplementary mediation analysis was conducted between perceived stress and substance use outcomes, to determine how depression and PTSD mediate these relationships. Overall, these findings support an increased need for public health interventions that target psychosocial stressors in order to address the growing mental health and substance use disparities among young SMM. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10636</t>
+  </si>
+  <si>
+    <t>10.1080/09638237.2022.2118687</t>
+  </si>
+  <si>
+    <t>The effectiveness of group-based gardening interventions for improving wellbeing and reducing symptoms of mental ill-health in adults: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Background: There is increasing interest in the association between nature, health and wellbeing. Gardening is a popular way in which interaction with nature occurs and numerous gardening projects aim to facilitate wellbeing among participants. More research is needed to determine their effectiveness. Aim: To systematically evaluate the effectiveness of group-based gardening interventions for increasing wellbeing and reducing symptoms of mental ill-health in adults. Methods: A systematic review of Randomised Controlled Trials was conducted following the protocol submitted to PROSPERO (CRD42020162187). Studies reporting quantitative validated health and wellbeing outcomes of the community residing, adult populations (18+) were eligible for inclusion. Results: 24 studies met inclusion criteria: 20 completed and four ongoing trials. Meta-analyses suggest these interventions may increase wellbeing and may reduce symptoms of depression, however, there was uncertainty in the pooled effects due to heterogeneity and unclear risk of bias for many studies. There were mixed results for other outcomes. Research limitations/implications: Heterogeneity and small sample sizes limited the results. Poor reporting precluded meta-analysis for some studies. Initial findings for wellbeing and depression are promising and should be corroborated in further studies. The research area is active, and the results of the ongoing trials identified will add to the evidence base.</t>
+  </si>
+  <si>
+    <t>M5923</t>
+  </si>
+  <si>
+    <t>10.2196/45917</t>
+  </si>
+  <si>
+    <t>Feasibility and Effectiveness of an Intervention to Reduce Intimate Partner Violence and Psychological Distress Among Women in Nepal: Protocol for the Domestic Violence Intervention (DeVI) Cluster-Randomized Trial</t>
+  </si>
+  <si>
+    <t>Background: Intimate partner violence (IPV) disproportionately affects people in low-and middle-income countries (LMICs), such as Nepal. Women experiencing IPV are at higher risk of developing depression, anxiety, and posttraumatic stress disorder. The shortage of trained frontline health care providers, coupled with stigma related to IPV and mental health disorders, fuels low service uptake among women experiencing IPV. The Domestic Violence Intervention (DeVI) combines the Problem Management Plus counseling program developed by the World Health Organization with a violence prevention component. Objective: This study aims to implement and evaluate the feasibility, acceptability, and effectiveness of DeVI in addressing psychological distress and enabling the secondary prevention of violence for women experiencing IPV. Methods: A parallel cluster-randomized trial will be conducted across 8 districts in Madhesh Province in Nepal, involving 24 health care facilities. The study will include women aged 18-49 years who are either nonpregnant or in their first trimester, have experienced IPV within the past 12 months, have a 12-item General Health Questionnaire (GHQ-12) score of 3 or more (indicating current mental health issues), and have lived with their husbands or in-laws for at least 6 months. A total sample size of 912 was estimated at 80% power and α&lt;.05 statistical significance level to detect a 15% absolute risk reduction in the IPV frequency and a 50% reduction in the GHQ-12 score in the intervention arm. The health care facilities will be randomly assigned to either the intervention or the control arm in a 1:1 ratio. Women visiting the health care facilities in the intervention and control arms will be recruited into the respective arms. In total, 38 participants from each health care facility will be included in the trial to meet the desired sample size. Eligible participants allocated to either arm will be assessed at baseline and follow-up visits after 6, 17, and 52 weeks after baseline. Results: This study received funding in 2019. As of December 29, 2022, over 50% of eligible women had been recruited from both intervention and control sites. In total, 269 eligible women have been enrolled in the intervention arm and 309 eligible women in the control arm. The trial is currently in the recruitment phase. Data collection is expected to be completed by December 2023, after which data analysis will begin. Conclusions: If the intervention proves effective, it will provide evidence of how nonspecialist mental health care providers can address the harmful effects of IPV in resource-constrained settings with a high burden of IPV, such as Nepal. The study findings could also contribute evidence for integrating similar services into routine health programs in LMICs to prevent IPV and manage mental health problems among women experiencing IPV. © Rachana Shrestha, Diksha Sapkota, Devika Mehra, Anna Mia Ekström, Keshab Deuba.</t>
+  </si>
+  <si>
+    <t>M10629</t>
+  </si>
+  <si>
+    <t>10.1016/j.biopsych.2023.02.502</t>
+  </si>
+  <si>
+    <t>262. Acute Posttraumatic Somatic and Psychological Symptoms Are Interwoven and Both Contribute to Acute Posttraumatic Dysfunction</t>
+  </si>
+  <si>
+    <t>Background: Acute neuropsychiatric symptoms in the early aftermath of traumatic stress cause suffering and dysfunction and predict chronic neuropsychiatric sequelae. Traditionally, studies of acute neuropsychiatric symptoms have focused solely on psychological symptoms; however, increasing evidence suggests that a broader evaluation of acute neuropsychiatric symptoms may more accurately reflect the survivor experience and capture symptoms that influence acute dysfunction. Methods: Trauma survivors (n=1,644, mean age 35, 67% female) presenting to 28 US emergency departments (EDs) enrolled. The incidence of and correlation between a range of somatic, psychological, and sleep-related symptoms were assessed, clustering of symptoms was explored, and the impact of different symptoms on posttraumatic dysfunction (Sheehan disability scale, SF-12) was evaluated. Symptoms were assessed in the ED, 0-5 days after trauma, and 7-19 days after trauma. Results: Both moderate or severe acute somatic and psychological symptoms were common in the first weeks after trauma (e.g., day 7-19: 59% headache, 65% concentration difficulty, nausea 30%, depressive symptoms 27%, anxiety 26%). Somatic and psychological symptoms showed generally moderate correlations across timepoints (e.g., day 0-5: re-experiencing symptoms and dizziness .38, anxiety and fatigue .38). In k-means cluster analyses, individuals clustered across, rather than between, somatic and psychological symptoms. Both somatic and psychological symptoms contributed to posttraumatic disability. Conclusions: Somatic and psychological symptoms are common and covary in the acute aftermath of traumatic stress. Both contribute to acute posttraumatic dysfunction. Funding Source: NIMH U01MH110925, the US Army Medical Research and Material Command, the One Mind Foundation, Mindstrong Health, and the Mayday Fund. Keywords: PTS - Posttraumatic Stress, Acute stress reaction, Somatic Symptoms</t>
+  </si>
+  <si>
+    <t>M5931</t>
+  </si>
+  <si>
+    <t>10.1177/09732179231151756</t>
+  </si>
+  <si>
+    <t>Correlates of Perceived Stress and Professional Quality of Life Among Nurses Working in Neonatal Intensive Care Units (NICU) in North India: A Multicenter Study</t>
+  </si>
+  <si>
+    <t>Objective: To estimate the levels of perceived stress and determine the professional quality of life domains namely, compassion satisfaction, burnout, and secondary trauma and their associated factors in neonatal intensive care unit (NICU) nurses. Methods: A multicenter cross-sectional study was carried out across a number of NICUs in North India from May to June 2022. A total of 223 nurses included in the study were given a self-administered questionnaire consisting of their sociodemographic profile, work profile, PSS 14 scale, and ProQol 5 scale. Data was analyzed using descriptive statistics, correlation coefficient, and multiple regression. Results: Based on PSS 14, 52(23.3%), 132(59.2%), and 39(17.5%) nurses experienced mild, moderate, and severe stress, respectively. Burnout and secondary trauma were found to be average in the majority of nurses (17879.8%] and 175 78.5%], respectively) in regard to professional quality of life domains. A sizable portion of the nurses was found to have average to high compassion satisfaction. Factors such as more number of night duties, alarms and lights in NICU, lesser professional experience, high workload, being unmarried, and having no children were found to be significant in association with perceived stress and professional quality of life. Conclusion: According to this study, the majority of nurses who work in NICUs experience moderate levels of stress, which negatively impacts their professional quality of life. Therefore, it is important to consider various stress management programs based on the stressors.</t>
+  </si>
+  <si>
+    <t>M5935</t>
+  </si>
+  <si>
+    <t>10.1080/20008066.2022.2159048</t>
+  </si>
+  <si>
+    <t>Latent profile analysis of post-traumatic stress and post-traumatic growth among firefighters</t>
+  </si>
+  <si>
+    <t>Background: Due to the job characteristics, firefighters are repeatedly exposed to trauma incidents. However, not all firefighters exhibit the same level of post-traumatic stress disorder (PTSD) or post-traumatic growth (PTG). Despite this, few studies have looked into firefighters' PTSD and PTG.Objective: This study identified subgroups of firefighters based on their PTSD and PTG levels, and investigated the influence of demographic factors and PTSD/PTG-related factors on latent class classification.Method: Latent profile analysis was used to examine the patterns of PTSD and PTG among 483 firefighters in South Korea. Using a cross-sectional design, demographic factors and job factors were examined as group covariates through a three-step approach. PTSD-related factors such as depression and suicide ideation, as well as PTG-related factors such as emotion-based response were analysed as differentiating factors.Results: Four classes were identified and named 'Low PTSD-low PTG (65.2%),' 'Mid PTSD-mid PTG (15.5%),' 'Low PTSD-high PTG (15.3%),' and 'High PTSD-mid PTG (3.9%).' The likelihood of belonging to the group with high trauma-related risks increased with more rotating shift work and years of service. The differentiating factors revealed differences based on the levels of PTSD and PTG in each group.Conclusions: 34.8% of firefighters experienced changes due to traumatic events while on the job, and some required serious attention. Modifiable job characteristics, such as the shift pattern, indirectly affected PTSD and PTG levels. Individual and job factors should be considered together when developing trauma interventions for firefighters.</t>
+  </si>
+  <si>
+    <t>M5937</t>
+  </si>
+  <si>
+    <t>10.1016/j.soncn.2023.151471</t>
+  </si>
+  <si>
+    <t>Higher Lifetime Stress and Symptom Burden Contribute to the Occurrence of Shortness of Breath</t>
+  </si>
+  <si>
+    <t>OBJECTIVES: Among four classes of patients with distinct shortness of breath profiles, evaluate for differences in levels of global, cancer-specific, and cumulative life stress, as well as resilience; evaluate for differences in the occurrence rates for various stressful life events, and evaluate for differences in the severity of common co-occurring symptoms. DATA SOURCES: Outpatients (N = 1338) completed questionnaires six times over two cycles of chemotherapy. The occurrence of shortness of breath was assessed using the Memorial Symptom Assessment Scale. Latent class analysis was used to identify subgroups of patients with distinct shortness of breath profiles. Differences among the classes were evaluated using parametric and nonparametric tests. CONCLUSION: Shortness of breath classes were labeled based on their distinct occurrence trajectories: None (70.5%), Decreasing (8.2%), Increasing (7.8%), and High (13.5%). Compared to None class, Decreasing and High classes had higher global and cancer-specific stress scores. The High class reported higher occurrence rates for several adverse childhood experiences. Compared to None class, Decreasing and High classes had higher depression, anxiety, and morning fatigue scores and lower morning energy and cognitive function scores. IMPLICATIONS FOR NURSING PRACTICE: Given the additive or synergistic relationships between stress, co-occurring symptoms, and shortness of breath, multimodal interventions that include stress management, exercise training, and/or symptom management may decrease shortness of breath in oncology patients.</t>
+  </si>
+  <si>
+    <t>M5945</t>
+  </si>
+  <si>
+    <t>10.1192/bjo.2023.1</t>
+  </si>
+  <si>
+    <t>Early self-reported post-traumatic stress symptoms after trauma exposure and associations with diagnosis of post-traumatic stress disorder at 3 months: Latent profile analysis</t>
+  </si>
+  <si>
+    <t>Background Trauma exposure can cause post-traumatic stress symptoms (PTSS), and persistently experiencing PTSS may lead to the development of post-traumatic stress disorder (PTSD). Research has shown that PTSS that emerged within days of trauma was a robust predictor of PTSD development. Aims To investigate patterns of early stress responses to trauma and their associations with development of PTSD. Method We recruited 247 civilian trauma survivors from a local hospital emergency department. The PTSD Checklist for DSM-5 (PCL-5) and Acute Stress Disorder Scale (ASDS) were completed within 2 weeks after the traumatic event. Additionally, 3 months post-trauma 146 of these participants completed a PTSD diagnostic interview using the Clinician Administered PTSD Scale for DSM-5. Results We first used latent profile analysis on four symptom clusters of the PCL-5 and the dissociation symptom cluster of the ASDS and determined that a four-profile model ('severe symptoms', 'moderate symptoms', 'mild symptoms', 'minimal symptoms') was optimal based on multiple fit indices. Gender was found to be predictive of profile membership. We then found a significant association between subgroup membership and PTSD diagnosis (χ2(3) = 11.85, P &lt; 0.01, Cramer's V = 0.263). Post hoc analysis revealed that this association was driven by participants in the 'severe symptoms' profile, who had a greater likelihood of developing PTSD. Conclusions These findings fill the knowledge gap of identifying possible subgroups of individuals based on their PTSS severity during the early post-trauma period and investigating the relationship between subgroup membership and PTSD development, which have important implications for clinical practice.</t>
+  </si>
+  <si>
+    <t>M5946</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-031-43075-6_30</t>
+  </si>
+  <si>
+    <t>Estimating Dynamic Posttraumatic Stress Symptom Trajectories with Functional Data Analysis</t>
+  </si>
+  <si>
+    <t>Posttraumatic stress disorder (PTSD) is a mental health condition that may develop following exposure to trauma, with diverse and complex longitudinal trajectories of symptoms during the days to months after a traumatic event. To supplement mainstream chronic PTSD research, advancing our understanding of early post-trauma longitudinal trajectories of PTSD symptoms is warranted. In the current study, we aimed to demonstrate functional data analysis (FDA), a non-parametric method which has flexibility to capture complex non-linear patterns, as a potential superior analytic tool to comprehensively examine early post-trauma longitudinal interactions among PTSD symptoms, behavioral, brain structural, and other factors. First, data from two existing longitudinal acute trauma studies were pooled. Then, trajectories of PTSD symptom, depressive symptom, and right lateral orbital frontal gyrus thickness were estimated using functional principal component analysis. Last, the temporal associations among these measures were revealed using functional regression analysis. Results showed that both cortical thickness and depressive symptoms negatively associated with PTSD symptoms post-trauma, with dynamically changing on the strength of association. These findings demonstrated FDA as a useful tool to contribute to better understanding of PTSD development and thus may improve the efficacy of individualized PTSD preventative interventions. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+  </si>
+  <si>
+    <t>M10604</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpsychires.2023.02.009</t>
+  </si>
+  <si>
+    <t>Phenotypic predictors of suicide subtypes from pre-to postdeployment in active duty military personnel</t>
+  </si>
+  <si>
+    <t>Military service members are at increased risk for suicide, but there are few strategies for detecting those who are at highest risk after a deployment. Using all available data collected from 4119 Military service members before and after their deployment to Iraq for Operation Iraqi Freedom, we tested whether predeployment characteristics clustered together to predict postdeployment suicidal risk. Latent class analysis showed that three classes best characterized the sample at predeployment. Class 1 had significantly higher scores on PTSD severity pre- and postdeployment than Classes 2 and 3 (Ps &lt; .001). At postdeployment, Class 1 also had a greater proportion of endorsement of lifetime and past year suicidal ideation than Classes 2 and 3 (Ps &lt; .05) and a greater proportion of lifetime suicide attempts than Class 3 (P &lt; .001). Class 1 also had a greater proportion of endorsement of past-30-days intention to act on suicidal thoughts than Classes 2 and 3 (Ps &lt; .05) and past-30-days specific plan for suicide than Classes 2 and 3 (Ps &lt; .05). The study showed that based only on predeployment data, it is possible to determine which service members might be at highest risk for suicidal ideation and behavior at postdeployment.</t>
+  </si>
+  <si>
+    <t>M5961</t>
+  </si>
+  <si>
+    <t>10.1017/S0033291721004025</t>
+  </si>
+  <si>
+    <t>Psychological responses to the COVID-19 pandemic are heterogeneous but have stabilised over time: 1 year longitudinal follow-up of the COVID-19 Psychological Research Consortium (C19PRC) study</t>
+  </si>
+  <si>
+    <t>The current study extends the findings of Shevlin et al. by identifying trajectory patterns that were consistent with those initially reported from the analysis of the first three waves of C19PRC data. The current findings suggest that the vast majority of the sample experienced a homoeostatic mental health response over the course of the first year of the pandemic, with over two-thirds being characterised as 'Resilient', while about 15% were characterised as 'Moderate-Stable' and roughly 6% fell into the 'Chronic' category. Yet, for a minority of individuals (~12%), the months following the initial UK outbreak represented a period of rapid change in mental health, for better or worse. Notably, however, these trajectories plateaued from summer 2020 onwards, with only minor fluctuations in mental health scores during the period July 2020-March/April 2021. It may be that some individuals will experience a more delayed response to the pandemic, which has not fully manifested itself until much later after the traumatic event, as has been documented with the case of delayed-onset PTSD. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6558</t>
+  </si>
+  <si>
+    <t>10.1108/IDD-11-2022-0110</t>
+  </si>
+  <si>
+    <t>A 30-year bibliometric assessment and visualisation of emotion regulation research: applying network analysis and cluster analysis</t>
+  </si>
+  <si>
+    <t>Purpose: The emotion regulation research has drawn considerable attention from academicians and scholars in the contemporary world. As a result, the publications that are specifically dedicated to emotion regulation research are rapidly escalating. Therefore, this study aims to conduct a bibliometric analysis of research articles that have been published in the field of “emotion regulation.” The study primarily examines the growth and development of scholarly publications, seminal studies, influential authors, productive journals, research production and collaboration among countries, emerging research themes, research hotspots and thematic evolution of emotion regulation research. Design/methodology/approach: The Web of Science Core Collection database was used to gather the study’s data, which was then analysed using VOSviewer and Bibliometrix, Biblioshiney open-source package of the R language environment. Findings: The study’s results reveal that the research on emotion regulation has grown significantly over the last three decades. Notably, Emotion and Frontiers in Psychology are the most dominant and productive journals in the field of emotion regulation research. The most prominent author in the area of emotion regulation is identified as James Gross, followed by Gratz, Wang and Tull. The USA is at the forefront of research on emotion regulation and has collaborated with most of the developed countries like Germany, England and Canada. The keyword analysis revealed that the most potential research areas in the field of emotion regulation are functional magnetic resonance imaging, amygdala, post-traumatic stress disorder, borderline personality disorder, alexithymia, emotion dysregulation, depression, anxiety, functional connectivity, neuroimaging, mindfulness, self-regulation, resilience and coping. The thematic evolution reflects that the research on emotion regulation has recently focused on issues including Covid-19, non-suicidal self-injury, psychological distress, intimate partner violence and mental health. Originality/value: The results of this study highlighted the current knowledge gaps in emotion regulation research and suggested areas for further investigation. The present study could be useful for researchers, academicians, planners, publishers and universities engaged in emotion regulation research. © 2023, Emerald Publishing Limited.</t>
+  </si>
+  <si>
+    <t>M6038</t>
+  </si>
+  <si>
+    <t>10.1016/j.schres.2023.05.003</t>
+  </si>
+  <si>
+    <t>Can computational models help elucidate the link between complex trauma and hallucinations?</t>
+  </si>
+  <si>
+    <t>Recently, a number of predictive coding models have been proposed to account for post-traumatic stress disorder (PTSD)'s symptomatology, including intrusions, flashbacks and hallucinations. These models were usually developed to account for traditional/type-1 PTSD. We here discuss whether these models also apply or can be translated to the case of complex/type-2 PTSD and childhood trauma (cPTSD). The distinction between PTSD and cPTSD is important because the disorders differ in terms of symptomatology and potential mechanisms, how they relate to developmental stages, but also in terms of illness trajectory and treatment. Models of complex trauma could give us insights on hallucinations in physiological/pathological conditions or more generally on the development of intrusive experiences across diagnostic classes. © 2023 The Authors</t>
+  </si>
+  <si>
+    <t>M10470</t>
+  </si>
+  <si>
+    <t>10.1016/j.comppsych.2023.152404</t>
+  </si>
+  <si>
+    <t>A multidimensional approach for differentiating the clinical needs of young people presenting for primary mental health care</t>
+  </si>
+  <si>
+    <t>Objectives: There is an ongoing necessity to match clinical interventions with the multidimensional needs of young people. A key step toward better service planning and the design of optimal models of care is to use multidimensional assessment to understand the clinical needs of those presenting to primary mental health care. Methods: 1284 people aged 12–25 years presenting to primary youth mental health services completed an online assessment at service entry. Latent class analysis was conducted for seven scales assessing anxiety, depression, psychosis, mania, functioning (indexed by Work and Social Adjustment Scale), and suicidality. Results: A three-class solution was identified as the optimal solution. Class 1 (n = 305, 23.75%), an early illness stage group, had low and mixed symptomatology with limited functional impairment, class 2 (n = 353, 27.49%) was made up of older persons with established depression and functional impairment, and class 3 (n = 626, 48.75%) had very high and complex needs, with functional impairment, suicidality, and at-risk mental states (psychosis or mania). Additional differentiating characteristics included psychological distress, circadian disturbances, social support, mental health history, eating disorder behaviours, and symptoms of post-traumatic stress disorder. Conclusions: A large proportion of help-seeking young people present with symptoms and functional impairment that may exceed the levels of care available from basic primary care or brief intervention services. These subgroups highlight the importance of multidimensional assessments to determine appropriate service pathways and care options.</t>
+  </si>
+  <si>
+    <t>M10333</t>
+  </si>
+  <si>
+    <t>10.1007/s00406-021-01361-w</t>
+  </si>
+  <si>
+    <t>Diagnostic progression to schizophrenia in 35,255 patients with obsessive-compulsive disorder: A longitudinal follow-up study</t>
+  </si>
+  <si>
+    <t>Evidence suggests a continuity between obsessive-compulsive disorder (OCD) and schizophrenia. However, the factors that may predict diagnostic progression from OCD to schizophrenia remain unclear. A total of 35,255 adolescents and adults with OCD (ICD-9-CM code: 300.3) were enrolled between 2001 and 2010 and followed up at the end of 2011 for the identification of de novo schizophrenia (ICD-9-CM code: 295). The Kaplan-Meier method was used to estimate incidence rates, and the Cox regression was used to determine the significance of candidate predictors. At the end of the 11-year follow-up period, the crude cumulative progression rate from OCD to schizophrenia was 6%, and the estimated progression rate totaled 7.80%. Male sex (hazard ratio: 1.23), obesity (1.77), autism spectrum disorder (1.69), bipolar disorder (1.69), posttraumatic stress disorder (1.65), cluster A personality disorder (2.50), and a family history of schizophrenia (2.57) also were related to an elevated likelihood of subsequent progression to schizophrenia in patients with OCD. Further study is necessary to elucidate the exact pathomechanisms underlying diagnostic progression to schizophrenia in patients with OCD. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10318</t>
+  </si>
+  <si>
+    <t>10.1016/s2215-0366(23)00143-8</t>
+  </si>
+  <si>
+    <t>The relationship between cannabis use, schizophrenia, and bipolar disorder: a genetically informed study</t>
+  </si>
+  <si>
+    <t>BACKGROUND: The relationship between psychotic disorders and cannabis use is heavily debated. Shared underlying genetic risk is one potential explanation. We investigated the genetic association between psychotic disorders (schizophrenia and bipolar disorder) and cannabis phenotypes (lifetime cannabis use and cannabis use disorder). METHODS: We used genome-wide association summary statistics from individuals with European ancestry from the Psychiatric Genomics Consortium, UK Biobank, and International Cannabis Consortium. We estimated heritability, polygenicity, and discoverability of each phenotype. We performed genome-wide and local genetic correlations. Shared loci were identified and mapped to genes, which were tested for functional enrichment. Shared genetic liabilities to psychotic disorders and cannabis phenotypes were explored using causal analyses and polygenic scores, using the Norwegian Thematically Organized Psychosis cohort. FINDINGS: Psychotic disorders were more heritable than cannabis phenotypes and more polygenic than cannabis use disorder. We observed positive genome-wide genetic correlations between psychotic disorders and cannabis phenotypes (range 0·22-0·35) with a mixture of positive and negative local genetic correlations. Three to 27 shared loci were identified for the psychotic disorder and cannabis phenotype pairs. Enrichment of mapped genes implicated neuronal and olfactory cells as well as drug-gene targets for nicotine, alcohol, and duloxetine. Psychotic disorders showed a causal effect on cannabis phenotypes, and lifetime cannabis use had a causal effect on bipolar disorder. Of 2181 European participants from the Norwegian Thematically Organized Psychosis cohort applied in polygenic risk score analyses, 1060 (48·6%) were females and 1121 (51·4%) were males (mean age 33·1 years SD 11·8]). 400 participants had bipolar disorder, 697 had schizophrenia, and 1044 were healthy controls. Within this sample, polygenic scores for cannabis phenotypes predicted psychotic disorders independently and improved prediction beyond the polygenic score for the psychotic disorders. INTERPRETATION: A subgroup of individuals might have a high genetic risk of developing a psychotic disorder and using cannabis. This finding supports public health efforts to reduce cannabis use, particularly in individuals at high risk or patients with psychotic disorders. Identified shared loci and their functional implications could facilitate development of novel treatments. FUNDING: US National Institutes of Health, the Research Council Norway, the South-East Regional Health Authority, Stiftelsen Kristian Gerhard Jebsen, EEA-RO-NO-2018-0535, European Union's Horizon 2020 Research and Innovation Programme, the Marie Skłodowska-Curie Actions, and University of Oslo Life Science.</t>
+  </si>
+  <si>
+    <t>M10315</t>
+  </si>
+  <si>
+    <t>10.1016/j.jgo.2023.101634</t>
+  </si>
+  <si>
+    <t>Post-traumatic stress disorder symptoms and quality of life among older patients with cancer during the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t>Introduction: The Coronavirus (COVID-19) pandemic and its associated health restrictions have harmed the population psychologically. We aimed to compare the post-traumatic stress disorder (PTSD) symptoms and Quality of Life (QoL) in older French patients with cancer to the younger ones. Materials and Methods: This longitudinal multicenter study named COVIPACT began in April 2020 during the first French lockdown and has included 579 outpatients receiving treatment for a solid or hematological malignancy. Data were collected every three months, namely at the first release period (M3), at the second lockdown (M6), at the second release period (M9), and finally at the last curfew period (M12) in France. Standardized validated self-questionnaires were used to assess PTSD symptoms (using the Event Scale–Revised self-questionnaire), insomnia (through the Insomnia Severity Index questionnaire), QoL (using the Functional Assessment of Cancer Therapy - General questionnaire), and cognitive complaints (through the Functional Assessment of Cancer Therapy – Cognition questionnaire). Student (or Wilcoxon) tests and Chi-squared tests were used for continuous or discrete variables, respectively. We conducted linear mixed model to study the change during follow-up. Results: Out of 579 included patients, 157 (27%) were ≥ 70 years old at baseline, of whom 104 participated in the longitudinal study. At baseline, older patients reported fewer PTSD symptoms (17% versus 23%, p = .06), insomnia (17% versus 27%, p = .02), and cognitive complaint (3% versus 16%, p &lt; .01) than younger patients. QoL at baseline was similar between age subgroups. We observed no significant difference in the trajectory of PTSD symptoms, insomnia, or emotional well-being between both groups during the follow-up. Cognitive complaints were lower at baseline in older patients but steadily increased during the follow-up and reached the same level as younger patients at one year. Discussion: One in five older patients reported PTSD symptoms, evolving similarly to younger patients during the first year of the COVID-19 pandemic. While cognitive complaints tend to recover in a bell-shaped curve at one year in younger patients, the trend is increasing in older ones. Screening for PTSD symptoms and late cognitive impairment should be given special attention in older patients. Trial Registration: Clinicaltrials.gov identifier: NCT04366154 © 2023</t>
+  </si>
+  <si>
+    <t>M10311</t>
+  </si>
+  <si>
+    <t>10.1080/23279095.2023.2175321</t>
+  </si>
+  <si>
+    <t>Neuropsychological functioning of homeless people in Paris: An exploratory study</t>
+  </si>
+  <si>
+    <t>Homelessness is a multifactorial issue, influenced by structural and individual factors. These factors include health status, which has been reported to be poorer among people experiencing homelessness. Although the somatic and mental health of homeless individuals has already been studied in France, to our knowledge, no research has been conducted on neuropsychological functioning in this country. Studies out with France have identified cognitive impairments as highly prevalent among homeless people, and these impairments are likely affected by local structural factors, such as healthcare access. Therefore, we conducted an exploratory study in Paris to evaluate cognition and associated factors in homeless adults. The second objective was to identify methodological specificities to consider in a future larger-scale study and for the application of the outcomes. For this exploratory phase, 14 individuals were recruited from specific services and were interviewed regarding their social, neurological, and psychiatric history, before completing a set of cognitive tests. The results showed a high diversity of profiles in terms of demographic characteristics, including being a migrant and/or illiterate. A high proportion of participants had signs of traumatic brain injury, anxiety, depressive disorders, and post-traumatic stress disorders. Most cognitive scores were in the low average of normative data. No statistical association was found between identified risk factors and cognitive performance. Future studies should consider the sociodemographic specificities of the homeless population and design appropriate measurement tools to improve the understanding of neuropsychological profiles. © 2023 Taylor &amp; Francis Group, LLC.</t>
+  </si>
+  <si>
+    <t>M10307</t>
+  </si>
+  <si>
+    <t>10.1007/s12144-023-04643-9</t>
+  </si>
+  <si>
+    <t>Time attitudes affecting psychological health during COVID-19 pandemic: a two-wave, six-month prospective study in Taiwan</t>
+  </si>
+  <si>
+    <t>The COVID-19 pandemic has induced traumatic and fear responses globally. Time attitudes, which refer to one’s feelings toward the past, present and future, may have certain effects on psychological adaptations during this crisis period. This study employed a person-centered approach and a two-wave prospective design to investigate how people with different time attitude profiles change differently in their PTSD symptoms and COVID-19-related fears from a low-risk stage to the first big COVID-19 outbreak in Taiwan. Participants were 354 adults with a mean age of 27.79 years. The result provided support for the theoretical six-factor structure of the traditional Chinese Adolescent and Adult Time Inventory-Time Attitudes Scale (AATI-TA). Four clusters of time attitude profiles were identified (Positives, Negatives, Past Negatives and Pessimists). At both waves, Positives had lower levels of PTSD severity and COVID-19-related fears than most of the other groups, and the reverse was noted for Negatives. As for time effects, people across all profiles were significantly affected during the outbreak, but Negatives showed a greater increase in PTSD severity than other groups. In conclusion, mental health services should put efforts into early identification of those with highly negative time attitudes and implement interventions that nudge people toward a more balanced or positive attitude in each temporal frame, especially during adversity such as the COVID-19 pandemic. © 2023, The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature.</t>
+  </si>
+  <si>
+    <t>M10295</t>
+  </si>
+  <si>
+    <t>10.1016/j.jad.2023.08.033</t>
+  </si>
+  <si>
+    <t>The prevalence, latent structure and psychosocial and cognitive correlates of complex post-traumatic stress disorder in an adolescent community sample</t>
+  </si>
+  <si>
+    <t>Complex PTSD has received growing attention in recent years. However, the validity, prevalence and risk factors of this diagnosis remain unclear. This study examined PTSD presentations in adolescents using diagnostic criteria and latent class analysis (LCA). It then explored the role of demographics factors, trauma history factors, psychopathology factors and cognitive factors in predicting different PTSD presentations. A cross-sectional data comprising self-report measures of 342 community adolescents (12–15 years) were collected and analysed. 2.3 %, 5.6 % and 10 % of adolescents met the criteria for PTSD, CPTSD and disturbances in self-organisation (DSO) respectively. A three-class model (healthy class, CPTSD class and DSO class) were generated from LCA. Adolescents with CPTSD were most likely to be female and endorsed the most overall trauma types, interpersonal trauma types, depression, anxiety and maladaptive cognitive processes, followed by adolescents with DSO and subsequently healthy adolescents. CPTSD appeared to be a more common presentation than PTSD among community adolescents. The relatively high prevalence of DSO is noteworthy and suggests that DSO is not necessarily accompanied by PTSD. Given the strong associations between CPTSD and cognitive processes implicated in PTSD, CPTSD as a construct might be conceptually similar to PTSD.</t>
+  </si>
+  <si>
+    <t>M10294</t>
+  </si>
+  <si>
+    <t>10.1101/2023.09.25.559347</t>
+  </si>
+  <si>
+    <t>A suite of engineered mice for interrogating psychedelic drug actions</t>
+  </si>
+  <si>
+    <t>Psychedelic drugs like lysergic acid diethylamide (LSD) and psilocybin have emerged as potentially transformative therapeutics for many neuropsychiatric diseases, including depression, anxiety, post-traumatic stress disorder, migraine, and cluster headaches. LSD and psilocybin exert their psychedelic effects via activation of the 5-hydroxytryptamine 2A receptor (HTR2A). Here we provide a suite of engineered mice useful for clarifying the role of HTR2A and HTR2A-expressing neurons in psychedelic drug actions. We first generated Htr2a -EGFP-CT-IRES-CreERT2 mice (CT:C-terminus) to independently identify both HTR2A-EGFP-CT receptors and HTR2A-containing cells thereby providing a detailed anatomical map of HTR2A and identifying cell types that express HTR2A. We also generated a humanized Htr2a mouse line and an additional constitutive Htr2A -Cre mouse line. Psychedelics induced a variety of known behavioral changes in our mice validating their utility for behavioral studies. Finally, electrophysiology studies revealed that extracellular 5-HT elicited a HTR2A-mediated robust increase in firing of genetically-identified pyramidal neurons--consistent with a plasma membrane localization and mode of action. These mouse lines represent invaluable tools for elucidating the molecular, cellular, pharmacological, physiological, behavioral, and other actions of psychedelic drugs in vivo .</t>
+  </si>
+  <si>
+    <t>M6160</t>
+  </si>
+  <si>
+    <t>10.1016/j.psychres.2023.115496</t>
+  </si>
+  <si>
+    <t>Changes in posttraumatic stress disorder symptom severity during the COVID-19 pandemic: Ten-wave findings from a longitudinal observational cohort study of community adults</t>
+  </si>
+  <si>
+    <t>Few studies have examined changes in posttraumatic-stress disorder (PTSD) symptomatology across an extended time period during the COVID-19 pandemic. This study used a longitudinal cohort design to examine: (1) changes in overall PTSD symptoms and symptom clusters; (2) moderators of change; (3) the clinical significance of observed changes; and (4) correlates of clinically meaningful changes. Community adults (N = 1412) were assessed using the PTSD Checklist for DSM-5 (PCL-5) at 10 timepoints (October 2018 - April 2022). Changes in overall PCL-5 score and symptom clusters were substantially moderated by pre-pandemic clinical severity (i.e., above/below PCL-5 cut-off). Pre-pandemic non-clinical participants exhibited increases in overall scores, Cluster D (negative cognitions), and Cluster E (arousal), while clinically elevated participants exhibited decreases overall and in all clusters. Regarding clinical significance, 12% of pre-pandemic non-clinical participants exhibited clinically meaningful increases, and 4% exhibited decreases. Conversely, 42% of the pre-pandemic elevated group exhibited clinically meaningful decreases, while 6% exhibited increases. Pandemic impacts in numerous psychosocial domains were associated with clinically meaningful change. Collectively, these findings reveal substantively divergent trajectories by pre-pandemic severity and PTSD symptom cluster. The large proportion of pre-pandemic high-severity participants exhibiting sizable decreases was an unexpected notable observation.</t>
+  </si>
+  <si>
+    <t>M10276</t>
+  </si>
+  <si>
+    <t>10.31557/APJCP.2023.24.6.1923</t>
+  </si>
+  <si>
+    <t>Predictors of Post-traumatic Stress Symptoms (PTSS), Depression, and Anxiety among Caregivers of Children with Acute Lymphoblastic Leukaemia (ALL)</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: The caregivers of children diagnosed with acute lymphoblastic leukaemia (ALL) are believed to experience post-traumatic stress symptoms (PTSS), depression and anxiety. This present study endeavoured to explore the prevalence and predictors of PTSS, depression, and anxiety among the caregivers of children with ALL. METHODS: Purposive sampling was used to select the 73 caregivers of children with ALL who participated in this cross-sectional study. The Post-traumatic Stress Disorder Checklist for DSM-5 (PCL-5), Beck Depression Inventory (BDI), and Beck Anxiety Inventory (BAI) were used to measure psychological distress. RESULT: There was a low prevalence (11%) of post-traumatic stress disorder (PTSD) among the participants. Although all the criteria for PTSD were not met, a few post-traumatic symptoms remained, suggesting that PTSS was likely present. Most of the participants reported minimal symptoms of depression (79.5%) and anxiety (65.8%). Anxiety, depression, and ethnicity predicted the PTSS scores (R2 = .77, p =.000). Subsequently, depression predicted the PTSS scores (R2 = 0.42, p =0.000). Participants of 'Other' or 'Indigenous' ethnicity had lower PTSS scores and higher anxiety scores (R2 = 0.75, p =0.000) than participants of Malay ethnicity. CONCLUSION: The caregivers of children with ALL experience post-traumatic stress symptoms (PTSS), depression, and anxiety. These variables co-exist and may have different trajectories in different ethnic groups. Therefore, healthcare providers should take ethnicity and psychological distress into consideration when providing paediatric oncology treatment and care.</t>
+  </si>
+  <si>
+    <t>M6165</t>
+  </si>
+  <si>
+    <t>Exploring gender-specific differences in substance use disorder recovery capital: A multiple-group latent growth modeling and random forest approach</t>
+  </si>
+  <si>
+    <t>Recovery housing is a promising community-based treatment modality for the 21.2 million individuals living with substance use disorders (SUDs) in the United States. However, women and men face unique barriers in their recovery, and little is known about whether and how such barriers persist over time in recovery housing contexts. The current study sought to address this gap by identifying key, gender-specific predictors of women's and men's recovery status (i.e., stable versus unstable recovery) using a latent growth modeling and machine learning approach. Through secondary analysis of a community-based sample of Delaware sober living home residents, multiple-group latent growth modeling was used to capture gender-specific trajectories of women's and men's recovery capital. These trajectories were then used in a series of gender-specific random forest predictions to identify variables strongly associated with women's and men's recovery status. Findings suggest that while social support was the strongest predictor of both women's and men's recovery status, women presented with more trauma and co-occurring mental health disorders, made less money, and reported greater financial strain, stress, and depressive symptomatology compared to men. Given the gender-specific barriers women face in recovery, sober living homes represent an ideal context for the implementation of gender-responsive programming. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6174</t>
+  </si>
+  <si>
+    <t>10.1513/AnnalsATS.202209-797OC</t>
+  </si>
+  <si>
+    <t>Symptoms of Anxiety, Depression, and Stress among Families of Critically Ill Patients with COVID-19: A Longitudinal Clinical Trial</t>
+  </si>
+  <si>
+    <t>Rationale: Families of critically ill patients with coronavirus disease (COVID-19) may be at particularly high risk for anxiety, depression, and post-traumatic stress disorder after hospital discharge. Objectives: To assess symptoms of anxiety, depression, and stress among families of patients with COVID-19 during and after intensive care unit (ICU) admissions and to use qualitative methods to determine the sources of emotional distress. Methods: Families of patients with COVID-19 who participated in an ICU study were approached for participation in this post-hospital discharge study. Participants completed the Hospital Anxiety and Depression Scale (HADS) and the Impact of Events Scale-Revised (IES-R) at up to three points during the ICU stay and once after the ICU stay. Mixed-effects models were used to compare trajectories of HADS and IES-R scores over the ICU and post-ICU periods. Telephone interviews with participants were evaluated using thematic content analysis. Results: Among the 90 families that participated from September 2020 to April 2021, 47 respective patients were alive and 43 were deceased. Average HADS anxiety, HADS depression, and IES-R scores after hospital discharge were significantly higher (greater symptom burden) among families of deceased versus surviving patients: 9.2 (95% confidence interval CI], 7.8-10.6) versus 6.3 (95% CI, 4.9-7.6) (P &lt; 0.01), 7.1 (95% CI, 5.7-8.6) versus 3.2 (95% CI, 2.3-4.1) (P &lt; 0.001), and 36.1 (95% CI, 31.0-41.2) versus 20.4 (95% CI, 16.1-24.8) (P &lt; 0.001), respectively. HADS anxiety and HADS depression scores began to diverge during the ICU stay, whereas IES-R scores diverged after the stay for families of surviving versus deceased patients. Qualitative analysis confirmed a higher burden of psychological symptoms among families of deceased patients. Memories from the ICU stay became a focal point for participants who lost their loved ones, whereas families of surviving patients were able to look positively toward the future. In addition, families of deceased patients often viewed friends and family as sources of stress, whereas families of surviving patients typically viewed their community as a source of support. Conclusions: Patient death was associated with symptoms of anxiety, depression, and post-traumatic stress disorder among families of ICU patients with COVID-19. Psychological support interventions may be most beneficial for families of patients who died of COVID-19. Clinical trial registered with www.clinicaltrials.gov (NCT04501445).</t>
+  </si>
+  <si>
+    <t>M6176</t>
+  </si>
+  <si>
+    <t>10.1192/bjo.2022.631</t>
+  </si>
+  <si>
+    <t>The Brain Medicine Clinic: two cases highlighting the advantages of integrative care</t>
+  </si>
+  <si>
+    <t>Background: Current assessment and management models often do not adequately address the many aspects of managing complex brain disorders involving disordered affect, behaviour and cognition (ABC). A more collaborative model of care, where several specialties can jointly assess and manage patients with complex brain disorders, is gaining attention. Aims: In this case report, we present two cases that highlight the benefits of the 'brain medicine' clinical model. Method: The Brain Medicine Clinic employs an integrated clinical model in which psychiatrists and neurologists provide integrated interdisciplinary assessments of patients with complex brain disorders, leading to comprehensive assessment. We describe the clinical model and the trajectories of two patients with complex brain disorders seen in this clinic. In these case descriptions, we explain how the brain medicine clinical approach leads to an improved patient experience. Results: The Brain Medicine Clinic assessments resulted in a neurobiopsychosocial formulation of symptoms and, consequently, holistic individualised treatment plans for two patients with complex brain disorders. This approach to patients' conditions emerges from the understanding that there are multifactorial causes of brain disorders at the social, cultural, psychological and biological level. Conclusions: Integrated interdisciplinary assessments allow for tailored treatment plans for individuals experiencing complex brain disorders, while creating efficiencies for the patient and the healthcare system.</t>
+  </si>
+  <si>
+    <t>M10234</t>
+  </si>
+  <si>
+    <t>10.1177/10731911221128947</t>
+  </si>
+  <si>
+    <t>Development and validation of the Disclosure Expectancy Scale</t>
+  </si>
+  <si>
+    <t>Although the disclosure of traumatic experiences is believed to influence trajectories of post-trauma recovery, less is known about individual differences that affect survivors' motivation to share. The current project describes the development and evaluation of the Disclosure Expectancy Scale (DExS), a novel instrument intended to assess survivors' expectations about the potential risks and benefits of disclosure. Items targeting both positive and negative expectancies were generated based on existing research and the authors' clinical experience with various survivor populations. Preliminary analyses in trauma-exposed undergraduates (N = 359) offer support for hypothesized positive and negative expectancy dimensions with evidence for the convergent and discriminant validity of scores. Subsequent evaluation in active-duty, help-seeking military personnel (N = 35) provides further evidence of validity based on correlations with relevant clinical measures. A final regression demonstrating unique effects of initial disclosure expectancies on post-traumatic stress disorder (PTSD) severity following trauma-focused treatment highlights the predictive validity of DExS scores. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10228</t>
+  </si>
+  <si>
+    <t>10.1192/bjp.2022.175</t>
+  </si>
+  <si>
+    <t>Modelling mood updating: A proof of principle study</t>
+  </si>
+  <si>
+    <t>Background: Recent developments in computational psychiatry have led to the hypothesis that mood represents an expectation (prior belief) on the likely interoceptive consequences of action (i.e. emotion). This stems from ideas about how the brain navigates its external world by minimising an upper bound on surprisal (free energy) of sensory information and echoes developments in other perceptual domains. Aims: In this paper we aim to present a simple partial observable Markov decision process that models mood updating in response to stressful or non-stressful environmental fluctuations while seeking to minimise surprisal in relation to prior beliefs about the likely interoceptive signals experienced with specific actions (attenuating or amplifying stress and pleasure signals). Method: We examine how, by altering these prior beliefs we can model mood updating in depression, mania and anxiety. Results: We discuss how these models provide a computational account of mood and its related psychopathology and relate it to previous research in reward processing. Conclusions: Models such as this can provide hypotheses for experimental work and also open up the potential modelling of predicted disease trajectories in individual patients. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10223</t>
+  </si>
+  <si>
+    <t>10.1080/16506073.2023.2197148</t>
+  </si>
+  <si>
+    <t>Predictors and sub-groups in the treatment of stress-induced exhaustion disorder</t>
+  </si>
+  <si>
+    <t>Correction Notice: An Erratum for this article was reported in Vol 52(4) of Cognitive Behaviour Therapy (see record 2023-80733-001). In the original article, on the third page, second paragraph, the word ''parasympathetic'' was used incorrectly in the sixth sentence. The word ''parasympathetic'' has been replaced with the word ''sympathetic'' and the corrected sentence now reads: This paper also underlined the importance of worrying as it increases sympathetic activation and can interfere with restorative behaviors such as sleep and relaxation, usually highlighted in ED treatment.] Little is known about psychological interventions for stress-induced Exhaustion disorder (ED), and there is a need for more research to improve the outcomes obtained in treatments. The present study examines predictors of improvement, including sub-group responses, in a large sample of ED patients receiving a Multimodal intervention (MMI) based on Cognitive Behavior Therapy (N = 915). In step one, available variables were explored separately as predictors of improvement in ED symptoms. In step two, sub-groups were explored through Latent Class Analysis to reduce the heterogeneity observed in the larger group and to investigate whether combining the variables from step one predicted symptom improvement. Younger age, no previous sick leave due to ED, and scoring high on anxiety, depression, insomnia, perfectionism, and treatment credibility emerged as separate predictors of improvement. In the sub-group analyses, a sub-group including participants who were single and had a lower income showed less improvement. Overall, people with ED participating in MMI report symptom improvement regardless of characteristics before treatment. However, the present findings do have the potential to inform future treatments for ED, as they highlight perfectionism as a predictor of improvement and the importance of assessing treatment credibility during treatment. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6196</t>
+  </si>
+  <si>
+    <t>10.1016/j.socscimed.2023.115942</t>
+  </si>
+  <si>
+    <t>Latent class analysis of post-traumatic stress disorder symptoms following exposure to Hurricane Ike</t>
+  </si>
+  <si>
+    <t>Background: There is substantial heterogeneity in how people react to potentially traumatic events (PTEs). Although some literature has explored this heterogeneity, there are only a few studies identifying factors associated with it within the disaster literature. Objective: The current investigation identified latent classes of post-traumatic stress disorder (PTSD) symptoms and differences between these classes after exposure to Hurricane Ike. Methods: Adults living in Galveston and Chambers County, Texas, (n = 658) completed a battery of measures during an interview conducted two to five months after Hurricane Ike. Latent class analysis (LCA) was performed to identify latent classes of PTSD symptoms. Additionally, gender, age, racial or ethnic minority status, depression severity, anxiety severity, quality of life, perceived need for services, and disaster exposure were examined to explore class differences. Results: LCA supported a 3-class model with low (n = 407, 61.9%), moderate (n = 191, 29.0%), and high PTSD symptoms (n = 60, 9.1%). Women appeared most at-risk for a moderate-severity presentation as compared to a low-severity presentation. Further, racial or ethnic minority groups appeared most at-risk for a high-severity presentation as compared to a moderate-severity presentation. Overall, the high symptom class had the poorest well-being, the most perceived need for services, and the highest exposure to the disaster, followed by the moderate symptom class, and finally the low symptom class. Conclusions: PTSD symptom classes appeared to be differentiated primarily by overall severity as well as important psychological, contextual, and demographic dimensions.</t>
+  </si>
+  <si>
+    <t>M6198</t>
+  </si>
+  <si>
+    <t>10.1037/tra0001407</t>
+  </si>
+  <si>
+    <t>The latent factor structure and assessment of childbirth-related PTSD in fathers: Psychometric characteristics of the City Birth Trauma Scale-French version (partner version)</t>
+  </si>
+  <si>
+    <t>Objective: There is no evidence on the latent structure of symptoms of childbirth-related posttraumatic stress disorder (CB-PTSD) in fathers and to date, no validated French instrument exists to measure CB-PTSD in partners, although the City Birth Trauma Scale (partner version) (City BiTS (P)) was developed to measure such CB-PTSD symptoms. This study aimed to validate the French version of the City BiTS-P (City BiTS-F (P)) in partners attending childbirth and to examine its factor structure, reliability, and validity. Method: French-speaking fathers of 1-to-12-month-olds participated in this online cross-sectional survey (n = 280). They completed the City BiTS-F (P), the PTSD Checklist, the Edinburgh Postnatal Depression Scale, and the anxiety subscale of the Hospital Anxiety and Depression Scale, as well as sociodemographic and medical items. Results: The four-factor model did not fit well the data, contrary to the two-factor model with birth-related symptoms (BRS) and general symptoms (GS). However, the bifactor model with a general factor and the BRS and GS provided the best fit to the data. High reliability (alpha = .88-.89), and good convergent and divergent validity were found. Fathers with a history of traumatic childbirth reported higher total and subscale scores. Discussion: Our findings provide evidence for the use of the City BiTS-F (P) as a reliable and validated tool to assess CB-PTSD symptoms in French-speaking partners. The use of the total score in addition to the BRS and GS subscale scores is warranted. (PsycInfo Database Record (c) 2023 APA, all rights reserved) Impact Statement</t>
+  </si>
+  <si>
+    <t>M10201</t>
+  </si>
+  <si>
+    <t>Emotion regulation and sensitive caregiving in trauma-exposed mothers</t>
+  </si>
+  <si>
+    <t>Sensitive caregiving, or a caregiver's ability to notice and attend to infant signals, interpret them accurately, and respond to them in an appropriate and timely manner, sets the stage for positive trajectories of socioemotional development. Meta-analytic findings suggest that maternal experiences of interpersonal trauma, including histories of childhood maltreatment and intimate partner violence (IPV), are associated with less sensitive caregiving. However, the mechanisms linking women's experiences of interpersonal trauma to parenting behavior are not well understood. Maternal psychopathology and non-balanced maternal representations have been proposed as potential explanatory pathways, both of which share emotion regulation deficits as underlying features. Therefore, the present study aimed to examine whether self-report and physiological (high-frequency heart rate variability; HF-HRV) measures of emotion regulation mediate the associations between maternal experiences of interpersonal trauma and observed caregiving sensitivity. Additionally, current psychopathology and maternal representations were examined as potential moderators of this mediation pathway. The sample consisted of 370 women enrolled in the Michigan Prenatal Stress Study. Participants were oversampled for experiences of interpersonal violence. Assessments of demographic risk, childhood maltreatment, lifetime and pregnancy IPV, and maternal representations were completed during pregnancy. Measures of depression, PTSD, self-reported emotion regulation, baseline and stressed HF-HRV, and observed caregiving sensitivity were collected at 6-months postpartum. A series of structural equation models conducted in Mplus were used to test the study hypotheses. Contrary to expectations, although history of childhood maltreatment was associated with greater self-reported emotion regulation difficulties, neither childhood maltreatment nor IPV significantly predicted caregiving sensitivity directly or indirectly through self-reported emotion regulation. Regarding physiological emotion regulation, childhood maltreatment was associated with less parasympathetic withdrawal during the stress task, which in turn was associated with less sensitive caregiving. The moderation hypotheses were not supported. Results suggest that early experiences of interpersonal trauma have lasting consequences for women's emotion regulation abilities, and physiological regulation in particular may have bearing on mothers' abilities to engage in sensitive caregiving. Results should be interpreted in the context of the specific methods used in the present study, and an important future direction will be to replicate these findings using a parenting task that is more demanding of mothers' emotion regulation resources. Lastly, cumulative demographic risk was a significant predictor of caregiving sensitivity, highlighting the importance of taking ecological/contextual factors into account when examining mechanisms of intergenerational transmission of risk. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6212</t>
+  </si>
+  <si>
+    <t>10.1037/tra0001567</t>
+  </si>
+  <si>
+    <t>Long-COVID stress symptoms: Mental health, anxiety, depression, or posttraumatic stress</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Currently, there is no single profile of mental health sequela in long-coronavirus disease (COVID) patients, impacting identification, treatment, and exacerbating stigma among this population. This article highlights the rationale for mental health professionals to consider a summary of mental health symptoms in long-COVID patients. METHOD: This article provides an overview of the existing literature regarding the health and mental health impact of long COVID on patients and proposes an approach to conceptualizing mental health symptoms in individuals living with long COVID. This article summarizes the health and mental health impacts of long COVID and underscores the limitations of the current approach to measuring and screening mental health symptoms in long-COVID patients. RESULTS: Long-COVID patients have reported new and worsening mental health symptoms; most frequently reported are depression, anxiety, posttraumatic stress disorder (PTSD), and insomnia. The article concludes by proposing the notion of long-COVID stress symptoms and calls for mental health researchers to identify the unique and complex mental health profiles emerging among this patient population. CONCLUSIONS: Though some long-COVID patients survived life-threatening illnesses and may, therefore, meet the formal criteria for PTSD, many will present with posttraumatic symptomology that mimics PTSD but may not arise from life-threatening medical trauma. A better understanding of the mental health burden of long-COVID stress symptoms is essential to providing efficient and effective mental health treatment, supporting physicians treating long-COVID patients, and enhancing access to and utilization of medical services. (PsycInfo Database Record (c) 2023 APA, all rights reserved).</t>
+  </si>
+  <si>
+    <t>M6219</t>
+  </si>
+  <si>
+    <t>10.1002/jclp.23505</t>
+  </si>
+  <si>
+    <t>The importance of acculturation orientation in understanding the impact of pre- and post-migration stressors on behavioral health: Evidence from a crisis migrant sample</t>
+  </si>
+  <si>
+    <t>Objective: We examine the interplay of acculturation orientation, cultural stress, and hurricane trauma exposure with behavioral health among Puerto Rican crisis migrants who relocated to the US mainland after Hurricane Maria. Method: Participants were 319 adult (Mage = 39 years; 71% female; 90% arriving in 2017-2018) Hurricane Maria survivors surveyed on the US mainland. Latent profile analysis was used to model acculturation subtypes. In turn, ordinary least squares regression was executed to examine the associations of cultural stress and hurricane trauma exposure with behavioral health while stratifying by acculturation subtype. Results: Five acculturation orientation subtypes were modeled, three of which-Separated (24%), Marginalized (13%), and Full Bicultural (14%)-align closely with prior theorizing. We also identified Partially Bicultural (21%) and Moderate (28%) subtypes. Stratifying by acculturation subtype, with behavioral health (depression/anxiety symptoms) specified as the dependent variable, hurricane trauma and cultural stress accounted for only 4% of explained variance in the Moderate class, a somewhat greater percentage in the Partial Bicultural (12%) and Separated (15%) classes, and substantially greater amounts of variance in the Marginalized (25%) and Full Bicultural (56%) classes. Conclusion: Findings underscore the importance of accounting for acculturation in understanding the relationship between stress and behavioral health among climate migrants. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10191</t>
+  </si>
+  <si>
+    <t>10.1016/j.comppsych.2023.152402</t>
+  </si>
+  <si>
+    <t>Mental health outcomes in frontline healthcare workers in Brazil during the COVID-19 epidemic: Results of an online survey in four regions using respondent-driven sampling (RDS)</t>
+  </si>
+  <si>
+    <t>BACKGROUND: The COVID-19 pandemic overwhelmed health facilities and presented healthcare workers (HCWs) with a new infectious disease threat. In addition to a sanitary crisis, Brazil still had to face major political, economic, and social challenges. This study aimed to investigate mental health outcomes in frontline HCWs in different regions of the country and at different epidemic times. We also sought to identify the main risk factors associated with these outcomes. METHODS: A cross-sectional online survey using respondent-driven sampling was conducted to recruit physicians (n = 584), nurses (n = 997), and nurse technicians (n = 524) in 4 regions of Brazil (North, Northeast, Southeast, and South) from August 2020 to July 2021. We used standardized instruments to screen for common mental disorders (CMD)(SRQ-20), alcohol misuse (AUDIT-C), depression (PHQ-9), anxiety (GAD-7), and post-traumatic stress disorder (PTSD)(PCL-5). Gile's successive sampling estimator was used to produce weighted estimates. We created a three-cluster data set for each HCW category and developed a hierarchical regression model with three levels: individual characteristics; workplace-related aspects; COVID-19 personal experience. The impact of the epidemic moment on the outcomes was also studied. RESULTS: The prevalence of probable CMD was 26.8-36.9%, alcohol misuse 8.7-13.6%, depression 16.4-21.2%, anxiety 10.8-14.2%, and PTSD 5.9-8.0%. We found a stronger association between mental health outcomes and the following factors: history of psychiatric disorders, female gender, and clinical comorbidities (level 1); work overload and family isolation (level 2); sick leave (level 3). Epidemic variables, such as the number of deaths and trend of deaths by COVID-19, had almost no impact on the outcomes. CONCLUSION: An alarmingly high prevalence of depression and anxiety was found in Brazilian frontline HCWs. Individual factors were the most strongly associated with mental health outcomes. These findings indicate the need to develop programs that provide emotional support, identify professionals at risk and refer them to specialized treatment when necessary.</t>
+  </si>
+  <si>
+    <t>M6129</t>
+  </si>
+  <si>
+    <t>10.1186/s13024-023-00616-5</t>
+  </si>
+  <si>
+    <t>NF-kappaB is a critical mediator of post-mitotic senescence in oligodendrocytes and subsequent white matter loss</t>
+  </si>
+  <si>
+    <t>Background: Inflammaging represents an accepted concept where the immune system shifts to a low-grade chronic pro-inflammatory state without overt infection upon aging. In the CNS, inflammaging is mainly driven by glia cells and associated with neurodegenerative processes. White matter degeneration (WMD), a well-known process in the aging brain, manifests in myelin loss finally resulting in motor, sensory and cognitive impairments. Oligodendrocytes (OL) are responsible for homeostasis and maintenance of the myelin sheaths, which is a complex and highly energy demanding process sensitizing these cells to metabolic, oxidative and other forms of stress. Yet, the immediate impact of chronic inflammatory stress like inflammaging on OL homeostasis, myelin maintenance and WMD remains open. Methods: To functionally analyze the role of IKK/NF-kappaB signaling in the regulation of myelin homeostasis and maintenance in the adult CNS, we established a conditional mouse model allowing NF-kappaB activation in mature myelinating oligodendrocytes. IKK2-CAPLP-CreERT2 mice were characterized by biochemical, immunohistochemical, ultrastructural and behavioral analyses. Transcriptome data from isolated, primary OLs and microglia cells were explored by in silico pathway analysis and validated by complementary molecular approaches. Results: Chronic NF-kappaB activation in mature OLs leads to aggravated neuroinflammatory conditions phenocopying brain inflammaging. As a consequence, IKK2-CAPLP-CreERT2 mice showed specific neurological deficits and impaired motoric learning. Upon aging, persistent NF-kappaB signaling promotes WMD in these mice as ultrastructural analysis revealed myelination deficits in the corpus callosum accompanied by impaired myelin protein expression. RNA-Seq analysis of primary oligodendrocytes and microglia cells uncovers gene expression signatures associated with activated stress responses and increased post mitotic cellular senescence (PoMiCS) which was confirmed by elevated senescence-associated beta-galactosidase activity and SASP gene expression profile. We identified an elevated integrated stress response (ISR) characterized by phosphorylation of eIF2alpha as a relevant molecular mechanism which is able to affect translation of myelin proteins. Conclusions: Our findings demonstrate an essential role of IKK/NF-kappaB signaling in mature, post-mitotic OLs in regulating stress-induced senescence in these cells. Moreover, our study identifies PoMICS as an important driving force of age-dependent WMD as well as of traumatic brain injury induced myelin defects.Graphical Abstract (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6042</t>
+  </si>
+  <si>
+    <t>10.1111/jpr.12341</t>
+  </si>
+  <si>
+    <t>The psychometric properties of the Posttraumatic Stress Disorder Checklist for the DSM-5 in Korean adults exposed to natural disasters</t>
+  </si>
+  <si>
+    <t>This study was conducted to examine the factor structure and other psychometric properties of the Posttraumatic Stress Disorder Checklist for the Diagnostic and Statistical Manual Disorders-Fifth Edition (PCL-5) in Korean adults (N = 234) exposed to natural disasters. Confirmatory factor analyses indicated almost the same excellent fit with both the six-factor Anhedonia model and the seven-factor Hybrid model. However, no significant difference in model fit was found between the two models, supporting the parsimonious six-factor Anhedonia model. In addition, the total scale and six subscales of the PCL-5 demonstrated good or acceptable internal consistency and good convergent and discriminant validity. These results provide additional evidence for expanding the use of the PCL-5 with non-English-speaking adults exposed to natural disasters. Implications for the use of this questionnaire in assessment and treatment contexts are discussed. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10345</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0291446</t>
+  </si>
+  <si>
+    <t>Grammatical impairment in schizophrenia: An exploratory study of the pronominal and sentential domains</t>
+  </si>
+  <si>
+    <t>Schizophrenia (SZ) is a severe mental disorder associated with a variety of linguistic deficits, and recently it has been suggested that these deficits are caused by an underlying impairment in the ability to build complex syntactic structures and complex semantic relations. Aiming at contributing to determining the specific linguistic profile of SZ, we investigated the usage of pronominal subjects and sentence types in two corpora of oral dream and waking reports produced by speakers with SZ and participants without SZ (NSZ), both native speakers of Brazilian Portuguese. Narratives of 40 adult participants (20 SZ, and 20 NSZ–sample 1), and narratives of 31 teenage participants (11 SZ undergoing first psychotic episode, and 20 NSZ–sample 2) were annotated and statistically analyzed. Overall, narratives of speakers with SZ presented significantly higher rates of matrix sentences, null pronouns—particularly null 3Person referential pronouns—and lower rates of non-anomalous truncated sentences. The high rate of matrix sentences correlated significantly with the total PANSS scores, suggesting an association between the overuse of simple sentences and SZ symptoms in general. In contrast, the high rate of null pronouns correlated significantly with positive PANSS scores, suggesting an association between the overuse of null pronominal forms and the positive symptoms of SZ. Finally, a cross-group analysis between samples 1 and 2 indicated a higher degree of grammatical impairment in speakers with multiple psychotic episodes. Altogether, the results strengthen the notion that deficits at the pronominal and sentential levels constitute a cross-cultural linguistic marker of SZ.</t>
+  </si>
+  <si>
+    <t>M10362</t>
+  </si>
+  <si>
+    <t>10.1037/tra0001440</t>
+  </si>
+  <si>
+    <t>Factor Structure of the International Trauma Questionnaire in Trauma Exposed LGBTQ+ Adults: Role of Cumulative Traumatic Events and Minority Stress Heterosexist Experiences</t>
+  </si>
+  <si>
+    <t>Exposure to prolonged and/ormultiple types of psychological trauma and stressors has been shown to bemore strongly associated with ICD-11 complex posttraumatic stress disorder (CPTSD) than posttraumatic stress disorder (PTSD). Lesbian, gay, bisexual, trans and queer adults (LGBTQ+) are at a heightened risk of exposure to traumatic events, and minority stressors including harassment, discrimination, rejection by family, and isolation. Objective: To examine the factor structure of the international trauma questionnaire (ITQ), a self-report measure of PTSD and CPTSD, and the associations of cumulative lifetime trauma exposure assessed via the life events checklist and minority stress assessed via the daily heterosexist experiences scale, with CPTSD (three PTSD symptom clusters, three clusters reflecting disturbances in self-organization DSO]) among LGBTQ+ adults. Method: Participants comprised 225 LGBTQ+ adults (including 74 transgender and gender diverse individuals; age range: 18–60 years; M/SD= 31.35/9.48) residing in Spain. Results: Confirmatory factor analyses indicated that both a first-order six-factor model and a hierarchical two-factor model, comprising PTSD and DSO as second-order factors, fit the data best. Cumulative traumatic events score was associated with PTSD, and cumulative minority stress was associated with PTSD and DSO. Among the minority stress subscales, harassment based on gender expression was positively associated with all symptom clusters of PTSD and DSO. Conclusion: This is the first study to examine the role of minority stressors alongside exposure to psychological traumas in ICD-11 PTSD and CPTSD and emphasizes the inclusion ofminority stressors in trauma-related assessments. © 2023 American Psychological Association</t>
+  </si>
+  <si>
+    <t>M6043</t>
+  </si>
+  <si>
+    <t>10.3389/fpubh.2023.1150121</t>
+  </si>
+  <si>
+    <t>Potential impact of metabolic syndrome on cognitive function in US firefighters</t>
+  </si>
+  <si>
+    <t>Objectives: Among US firefighters, sudden cardiac arrest and psychological stress (i.e., PTSD) are the leading cause of on-duty death. Metabolic syndrome (MetSyn) may influence both cardiometabolic and cognitive health. Here, we examined differences in cardiometabolic disease risk factors, cognitive function, and physical fitness in US firefighters with vs. without MetSyn. Materials and methods: One hundred fourteen male firefighters, aged 20 to 60 years, participated in the study. US firefighters with MetSyn vs. non-MetSyn were divided by AHA/NHLBI criteria. Of them, we performed a paired-match analysis with respect to the age and BMI of firefighters with (n = 18) vs. without MetSyn (n = 18). The cardiometabolic disease risk factors included blood pressure, fasting glucose, blood lipid profiles HDL-C, triglyceride (TG)], and surrogate markers of insulin resistance TG/HDL-C, TG glucose index (TyG)]. The cognitive test included a psychomotor vigilance task as a measure of reaction time and a delayed-match-to-sample task (DMS) as a measure of memory, using the computer-based Psychological Experiment Building Language Version 2.0 program. The differences between MetSyn and non-MetSyn groups in US firefighters were analyzed using an independent t-test adjusted for age and BMI. In addition, Spearman correlation and stepwise multiple regression were conducted. Results: US firefighters with MetSyn exhibited severe insulin resistance estimated by TG/HDL-C and TyG (Cohen’s d &gt; 0.8, all p  0.8, all p &lt; 0.01). In stepwise linear regression, HDL-C predicted DMS total time (β = − 0.440, R2 = 0.194, p &lt; 0.05), and TyG (β = 0.432, R2 = 0.186, p &lt; 0.05) predicted DMS reaction time. Conclusion: US firefighters with vs. without MetSyn were predisposed to metabolic risk factors, surrogate markers of insulin resistance, and cognitive function, even when matched for age and BMI, and there was a negative association between metabolic characteristics and cognitive function in US firefighters. The findings of this study suggest that the prevention of MetSyn may be beneficial to supporting firefighters’ safety and occupational performance. Copyright © 2023 Seo, Gann, Lee, Heffernan, Kim and Jung.</t>
+  </si>
+  <si>
+    <t>M10468</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2022.50921</t>
+  </si>
+  <si>
+    <t>Analysis of Psychological Symptoms Following Disclosure of Amyloid-Positron Emission Tomography Imaging Results to Adults with Subjective Cognitive Decline</t>
+  </si>
+  <si>
+    <t>Importance: Individuals who are amyloid-positive with subjective cognitive decline and clinical features increasing the likelihood of preclinical Alzheimer disease (SCD+) are at higher risk of developing dementia. Some individuals with SCD+ undergo amyloid-positron emission tomography (PET) as part of research studies and frequently wish to know their amyloid status; however, the disclosure of a positive amyloid-PET result might have psychological risks. Objective: To assess the psychological outcomes of the amyloid-PET result disclosure in individuals with SCD+ and explore which variables are associated with a safer disclosure in individuals who are amyloid positive. Design, Setting, and Participants: This prospective, multicenter study was conducted as part of The Amyloid Imaging to Prevent Alzheimer Disease Diagnostic and Patient Management Study (AMYPAD-DPMS) (recruitment period: from April 2018 to October 2020). The setting was 5 European memory clinics, and participants included patients with SCD+ who underwent amyloid-PET. Statistical analysis was performed from July to October 2022. Exposures: Disclosure of amyloid-PET result. Main Outcomes and Measures: Psychological outcomes were defined as (1) disclosure related distress, assessed using the Impact of Event Scale-Revised (IES-R; scores of at least 33 indicate probable presence of posttraumatic stress disorder PTSD]); and (2) anxiety and depression, assessed using the Hospital Anxiety and Depression scale (HADS; scores of at least 15 indicate probable presence of severe mood disorder symptoms). Results: After disclosure, 27 patients with amyloid-positive SCD+ (median IQR] age, 70 66-74] years; gender: 14 men 52%]; median IQR] education: 15 13 to 17] years, median IQR] Mini-Mental State Examination MMSE] score, 29 28 to 30]) had higher median (IQR) IES-R total score (10 2 to 14] vs 0 0 to 2]; P &lt;.001), IES-R avoidance (0.00 0.00 to 0.69] vs 0.00 0.00 to 0.00]; P &lt;.001), IES-R intrusions (0.50 0.13 to 0.75] vs 0.00 0.00 to 0.25]; P &lt;.001), and IES-R hyperarousal (0.33 0.00 to 0.67] vs 0.00 0.00 to 0.00]; P &lt;.001) scores than the 78 patients who were amyloid-negative (median IQR], age, 67 64 to 74] years, 45 men 58%], median IQR] education: 15 12 to 17] years, median IQR] MMSE score: 29 28 to 30]). There were no observed differences between amyloid-positive and amyloid-negative patients in the median (IQR) HADS Anxiety (-1.0 -3.0 to 1.8] vs -2.0 -4.8 to 1.0]; P =.06) and Depression (-1.0 -2.0 to 0.0] vs -1.0 -3.0 to 0.0]; P =.46) deltas (score after disclosure - scores at baseline). In patients with amyloid-positive SCD+, despite the small sample size, higher education was associated with lower disclosure-related distress (ρ = -0.43; P =.02) whereas the presence of study partner was associated with higher disclosure-related distress (W = 7.5; P =.03). No participants with amyloid-positive SCD+ showed probable presence of PTSD or severe anxiety or depression symptoms at follow-up. Conclusions and Relevance: The disclosure of a positive amyloid-PET result to patients with SCD+ was associated with a bigger psychological change, yet such change did not reach the threshold for clinical concern.</t>
+  </si>
+  <si>
+    <t>M10454</t>
+  </si>
+  <si>
+    <t>Characteristics of soldiers who have experienced potentially morally injurious events (PMIE) utilizing the army Starrs dataset: A latent profile analysis approach</t>
+  </si>
+  <si>
+    <t>Throughout history, warriors have faced both physical and psychological consequences as a result of their experiences on the battlefield. As understanding of the toll of war has progressed, much attention has been paid to combat-related posttraumatic stress disorder (PTSD). Despite progress in treating the negative mental health outcomes associated with military servicemembers' experiences, psychologists noted a wound of war that conventional evidence-based treatments for PTSD were unable to resolve. Moral injury has been shown to be a construct distinct from PTSD, with its own uniquely adverse mental health symptoms as a result of a moral transgression (shame, guilt, anxiety). This study explored the characteristics United States Army Soldiers who have experienced PMIE's, specifically in relationship to increased severity of PTSD, suicidality, relationship instability, and spirituality and religiosity, using data from the Army Study To Assess Risk and Resilience in Servicemembers (Army STARRS). This dataset includes data from 21,449 active duty Army personnel. Results of a latent profile analysis indicated three profiles of soldiers who endorsed experiencing PMIE, with one class endorsing increased PTSD symptomatology, one class endorsing more frequent relationship instability, and one class being well-adjusted. Implications, study limitations, and future directions are discussed. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10452</t>
+  </si>
+  <si>
+    <t>Environmental etiologies of autism and other neurodevelopmental conditions: Twin studies of the cumulative effect of early medical events</t>
+  </si>
+  <si>
+    <t>Background: Neurodevelopmental conditions (NDC), such as autism spectrum disorder (ASD) and attention deficit hyperactivity disorder (ADHD), are characterized by alterations in the architecture, functioning, and maturation of the brain causing cognitive challenges and impairments in social, educational, occupational, and other important areas of life. NDC are common, with a prevalence of 10 to 15%. Heritability estimates leave space for environmental etiological contributions, but the exact etiology remains poorly understood.Observational studies of the etiology of NDC often suffer from familial confounding. Objectives: The overarching aim of this thesis was: * to explore associations between environmental factors and ASD and other NDC; * to identify early medical events associated with ASD and other NDC, and; * to test the hypothesis of a cumulative environmental effect. Methods: A comprehensive systematic review of previously conducted twin or sibling studies was performed to map all early environmental factors of NDC beyond familial confounding. In total, 140 studies were included. Advanced paternal age, low birth weight, congenital malformations, and perinatal respiratory stress were found to be associated with ASD, and low birth weight, low gestational age and low family income were associated with ADHD. Several previously suspected factors, including pregnancy-related ones, were deemed due to familial confounding. Among a rare monozygotic (MZ) twin sample of ASD discordant twins - that is one twin in the pair having an ASD diagnosis and the other one not - all medical records were scrutinized for early medical events not shared with the other twin. A list of 31 non-shared early medical events were found within the discordant MZ sample and a cumulative effect on autistic traits was confirmed in a larger sample of twins. Then, in a large population-based twin cohort, the cumulative effect of the early medical events identified in the systematic review (that is low birth weight, congenital malformations, and perinatal respiratory stress) were tested against ASD and ASD symptoms. Being exposed to all three medical events, compared with no exposure for the co-twin, doubled the odds of an ASD diagnosis, but the result was not statistically significant. Having a higher load of early exposure was consistently associated with more autistic symptoms for the affected twin than their co-twin. The final study suggests that this cumulative environmental effect of early medical events acts through a common latent NDC factor, that in turn affects neurodevelopment. Thereby affecting ASD as well as ADHD, tics and learning difficulties.There is a critical need for more genetically informed studies of good quality in the quest for the environmental etiologies of NDC. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10445</t>
+  </si>
+  <si>
+    <t>10.1016/j.chiabu.2022.105995</t>
+  </si>
+  <si>
+    <t>Elucidating the relations between adverse childhood experiences, age of exposure to adversity, and adult posttraumatic stress symptom severity in pregnant women</t>
+  </si>
+  <si>
+    <t>Background: Adverse childhood experiences (ACEs) are typically assessed within two subscales: child maltreatment (CM) and household dysfunction (HD). More research is needed about how the CM and HD subscales differentially contribute to adult posttraumatic stress symptoms (PTSS), accounting for additional adversities. Objective, participants, and setting: In a sample of 137 pregnant women exposed to recent intimate partner violence (IPV) in the United States, this study aimed to (1) explore the contributions of ACEs subscales to pregnant women's PTSS severity, (2) examine the inclusion of the witnessing IPV ACE in the CM subscale, and (3) contextualize the contributions of the ACEs subscales to women's PTSS by examining the moderating effect of age of first ACE exposure. Methods: The study used linear, multiple, and hierarchical regression analyses and the Hotelling-Williams test. Results: The CM subscale predicted pregnant women's PTSS significantly better than the HD subscale, controlling for past-year IPV (t(134) = 2.69, p =.008). Adding the witnessing IPV ACE to the CM subscale did not significantly improve the subscale's prediction of PTSS (ΔR2 = 0.07, p =.290). Age of first exposure did not significantly moderate the effects of the CM (β = 0.12, p =.140) or HD (β = −0.10, p =.238) ACEs subscales on PTSS. Conclusions: Results suggest that for pregnant women exposed to high levels of trauma, polyvictimization and particularly experiencing multiple types of CM have stronger predictive validity for PTSS than HD. Cumulative victimization may be more influential than age of exposure to adversity.</t>
+  </si>
+  <si>
+    <t>M6064</t>
+  </si>
+  <si>
+    <t>10.1016/j.jadr.2023.100655</t>
+  </si>
+  <si>
+    <t>Association of PTSD history with confusion or memory loss among World Trade Center Health Registry enrollees</t>
+  </si>
+  <si>
+    <t>Background: Burgeoning research suggests that people exposed to the 9/11/2001 terrorist attacks in New York City (NYC) may be at greater risk for cognitive impairment due to a variety of potential exposures. We investigated whether posttraumatic stress disorder (PTSD) history was associated with self-reported confusion or memory loss (CML) among World Trade Center Health Registry enrollees. Methods: The study sample included enrollees who completed all five wave surveys (W1 in 2003–04 through W5 in 2020–21), were between the ages of 35 and 64 during W3-W5, and had no history of stroke or dementia (N = 11,432). We categorized PTSD history during W1-W3 as chronic-high, increased, decreased, or resilient-low with trajectory analysis. Generalized estimating equations modeling was used for the repeated measures analysis of the outcome, CML. Results: Compared to those in the resilient-low PTSD group, those in the decreased and increased PTSD groups were at over 52% greater risk of reporting CML; those in the chronic-high PTSD group had between a 1.62 and 1.92 times greater risk of CML than the resilient-low PTSD group, with non-rescue/recovery workers having greater risk on average. PTSD history was also associated with elevated risk of more severe CML-related outcomes in W5 – specifically, experiencing worsening symptoms and functioning in daily life. Limitations: CML symptoms are self-reported, and generalizability of results may be limited. Conclusions: These findings suggest that survivors with PTSD should be monitored for cognitive issues, including CML. Effective treatment of PTSD may have benefits beyond mitigation of PTSD symptoms. © 2023</t>
+  </si>
+  <si>
+    <t>M10437</t>
+  </si>
+  <si>
+    <t>An examination of sex differences in maladaptive shame coping styles in a military sample</t>
+  </si>
+  <si>
+    <t>Shame plays a role in many mental health disorders. It is also linked to increased severity of suicidality in military and veteran populations. The Compass of Shame describes four maladaptive shame coping styles: attack others, withdrawal, attack self, and avoidance. The Military Compass of Shame Scale measures trait-shame in a military sample using military specific scenarios focusing on the four maladaptive shame coping styles. Sex differences in the expression of maladaptive shame coping styles were explored during the validation of the COSS but were not specifically focused on during the validation of the M-COSS. This research specifically focused on sex differences in maladaptive shame coping in US service members. Participants were from all branches and components of US military service. Results support previous civilian findings that military males and females differ in their maladaptive shame coping styles. Understanding how male and female service members differ in their maladaptive responses to shame might lead to using more appropriate treatment interventions, resulting in better treatment outcomes, a reduction of service members in both outpatient and inpatient settings, more efficient use of behavioral health resources, faster returns to service from a profile status, and a healthier mission-capable military force. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10434</t>
+  </si>
+  <si>
+    <t>Measurement invariance of posttraumatic stress disorder symptoms across three civilian trauma types</t>
+  </si>
+  <si>
+    <t>The factor structure of posttraumatic stress disorder (PTSD) remains the subject of intense investigation. The DSM three-factor conceptualization of PTSD has not been empirically supported; rather, two four-factor models of PTSD (King, Leskin, King, &amp; Weathers, 1998; Simms, Watson, &amp; Doebbeling, 2002) have garnered the majority of support from confirmatory factor analytic (CFA) studies. Recently, interest has turned to examination of the generalizability of these well-supported models across diverse samples. Termed factorial or measurement invariance, these studies answer the question of whether PTSD maintains the same factor structure, and can be measured equivalently, across samples. However, no studies have examined PTSD's measurement invariance across distinct, homogeneous samples exposed to different trauma types. The current study examined the factor structure and measurement invariance of PTSD in, and across, three groups of trauma-exposed college students (N = 854) using the PTSD Checklist-Specific Version (PCL-S; Weathers, Litz, Herman, Juska, &amp; Keane, 1993). Participants were grouped according to self-reported direct exposure to one of three distinct trauma types: motor vehicle accidents (MVA), sexual assault (SA), and sudden unexpected death of a loved one (SUD). Five models were tested using within-groups CFA, and three models showed adequate fit in each trauma group (Elhai, Biehn, Armour, Klopper, Frueh, &amp; Palmieri, 2011; King et al., 1998; Simms et al., 2002). Multiple-group CFA showed that factor loadings were equivalent across groups for the Elhai et al. (2011) and the King et al. (1998) models, but not for the Simms et al. (2002) model. However, intercepts differed between groups in all three models. These findings suggest that PTSD symptoms as measured by the PCL-S cannot be compared across individuals who have experienced different types of traumatic events, as observed scores on the PCL-S may not correspond to levels of the latent factors equivalently across trauma types. Implications and limitations of the current results are discussed. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6067</t>
+  </si>
+  <si>
+    <t>10.1016/j.bpsc.2022.07.010</t>
+  </si>
+  <si>
+    <t>Coping in the Clinic: Effects of Clinically Elevated Anxiety on Dynamic Neurophysiological Mechanisms of Escape/Avoidance Preparation</t>
+  </si>
+  <si>
+    <t>Background: Treatments for anxiety and related disorders target exaggerated escape/avoidance as a core feature, but current methods fail to improve escape/avoidance habits for many treatment-seeking individuals. To support developing tools that increase treatment efficacy by targeting mechanisms more directly, the current work examined potential distinctions in the neurophysiologies of escape and avoidance and tested how clinical anxiety affects these neurophysiologies. Methods: Twenty-five treatment-seeking individuals with varied principal diagnoses (e.g., generalized anxiety disorder, posttraumatic stress disorder) and 20 non-treatment-seeking control subjects participated. In the study task, approximately 5.25-second cues predicted aversive images that could be avoided (blocked by a button press before image onset), escaped (ended by a button press after image onset), or not controlled. To examine neural processing and defensive response modulation, anticipatory event-related potentials were derived, and startle reflexes were probed throughout each cue. Results: Multidimensional profiles were observed such that 1) anticipatory event-related potential enhancement was only reliable during avoidance preparation, and event-related potentials potentially reflected perceived/instrumental control; and 2) startle reflexes were inhibited during avoidance preparation, relatively enhanced during escape preparation, and further enhanced during uncontrollable anticipation, thus potentially reflecting fear-related activation. Treatment-seeking status, then, did not affect cortical processing, but it did moderate context-dependent fear (if individuals with severe depression were excluded) such that treatment-seeking individuals without depression showed exaggerated startle during escape, but not avoidance, preparation. Conclusions: Data suggest a specific effect of anxiety on fear system activation during preparation to escape aversion. This effect warrants further investigation as a precision target for interventions that directly modulate the specific underlying neural circuitry. © 2022 Society of Biological Psychiatry</t>
+  </si>
+  <si>
+    <t>M10429</t>
+  </si>
+  <si>
+    <t>10.1055/s-0043-1761635</t>
+  </si>
+  <si>
+    <t>Knowledge Gaps in Placenta Accreta Spectrum</t>
+  </si>
+  <si>
+    <t>Since its first description early in the 20th Century, placenta accreta and its variants have changed substantially in incidence, risk factor profile, clinical presentation, diagnosis and management. While systematic use of diagnostic tools and a multidisciplinary team care approach has begun to improve patient outcomes, the condition's pathophysiology, epidemiology, and best practices for diagnosis and management remain poorly understood. The use of large databases with broadly accepted terminology and diagnostic criteria should accelerate research in this area. Future work should focus on non-traditional phenotypes, such as those without placenta previa-preventive strategies, and long term medical and emotional support for patients facing this diagnosis. Key Points Placenta accreta spectrum research may be improved with standardized terminology and use of large databases. Placenta accreta prediction should move beyond ultrasound with the addition of biomarkers, and needs to extend to those without traditional risk factors. Future research should identify practices that can prevent future accreta development.</t>
+  </si>
+  <si>
+    <t>M6074</t>
+  </si>
+  <si>
+    <t>10.1002/nur.22336</t>
+  </si>
+  <si>
+    <t>Identification of postpartum symptom subgroups and associated long-term maternal depressive symptoms and well-being</t>
+  </si>
+  <si>
+    <t>Many postpartum women experience postpartum symptoms which often occur in clusters (i.e., three or more co-occurring symptoms that are related to each other). To date, research has focused on individual symptoms, which limits our understanding of how postpartum symptom clusters manifest and influence health. This secondary analysis used the Community and Child Health Network study data (N = 1784). No patient or public directly participated or contributed to the current analysis. Guided by the Symptom Management Theory, latent class analysis was performed to identify subgroups of postpartum women with different symptom experiences using observed variables at 6 months postpartum: anxiety (MINI-anxiety), general stress (PSS-10), posttraumatic stress (PCL-C), postpartum depression (EPDS), sleep disturbance (PSQI-sleep disturbance), and sleep duration (PSQI-sleep duration). Bivariate and multiple regression analyses were conducted to examine the association between subgroups and (a) individual characteristics and (b) long-term depressive symptoms (CES-D-9) and well-being at 18 and/or 24 months postpartum. Five subgroups were selected that had better-fit indices, entropy, and interpretability. Subgroups were labeled as (1) Minimum overall, (2) Mild-moderate overall, (3) Moderate-high sleep symptoms, (4) High psychological symptoms, and (5) High overall. After adjusting for covariates, postpartum women in Subgroups 4 and 5 had higher CES-D-9 scores at 18 and 24 months and lower well-being scores at 24 months. More postpartum women in Subgroups 4 and 5 experienced a history of depression or unemployment. Clinicians should provide targeted interventions for postpartum women in high-symptom subgroups.</t>
+  </si>
+  <si>
+    <t>M6076</t>
+  </si>
+  <si>
+    <t>10.1007/s10896-023-00502-0</t>
+  </si>
+  <si>
+    <t>Cumulative lifetime violence, gender, social determinants of health and mental health in canadian men: A latent class analysis</t>
+  </si>
+  <si>
+    <t>Purpose:Among men, violence is pervasive and associated with poor mental health, but little is known about which men are most vulnerable. Our purpose is to address this gap by exploring mental health and social determinants of health (SDOH) including gender role conflict (GRC) in heterogenous groups of men with distinct patterns of cumulative lifetime violence (CLV) as target and perpetrator. Methods:Latent class analysis was conducted using means of 64 indicators of CLV severity collected from a community sample of 685 eastern Canadian men, ages 19 to 65 years. Class differences by SDOH, and depression, anxiety, and posttraumatic stress disorder (PTSD) were explored with Chi-square and analysis of variance. Results:A 4-class solution was optimal. Class 1 had the lowest CLV severity; were more likely to be better educated, employed, and have little difficulty living on their incomes; and had better mental health than other classes. Class 2, characterized by moderate psychological violence as both target and perpetrator, had mean depression and PTSD scores at clinical levels, and more difficulty living on income than Class 1. Classes 3 and 4 were typified by high severity CLV as target but differentiated by Class 4 having the highest perpetration severity, higher GRC, and being older. In both classes, mean mental health scores were above cut-offs for clinical symptomology and higher than Classes 1 and 2. Conclusion:This is the first evidence that distinct patterns of CLV severity among men intersect with GRC and SDOH and are uniquely associated with mental health. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M10408</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpsychires.2023.05.078</t>
+  </si>
+  <si>
+    <t>Exacerbated PTSD symptoms among older U.S. military veterans during the COVID-19 pandemic: Results from the national health and resilience in veterans study</t>
+  </si>
+  <si>
+    <t>Research has demonstrated that the impact of the coronavirus 2019 (COVID-19) pandemic on the mental health of United States (U.S.) veterans was less negative than originally anticipated. However, U.S. veterans are susceptible to exacerbation of post-traumatic stress disorder (PTSD) symptomology in late life. The aims of this study were to examine the extent to which older U.S. veterans experienced an exacerbation of PTSD symptoms during the COVID-19 pandemic, and to identify pre- and peri-pandemic factors that conferred risk for symptom exacerbation. Participants were U.S. military veterans aged 60 and older who completed three waves of the 2019–2022 National Health and Resilience in Veterans Study (NHRVS) (n=1858). PTSD symptoms were measured at all waves using the PTSD Checklist for DSM-5, and a latent growth mixture model was conducted to compute latent slopes of change of PTSD symptoms over the 3-year period. 159 (8.3%) participants experienced a worsening of PTSD symptomology over the pandemic period. Factors related to PTSD exacerbation were incident trauma exposure between Waves 1 and 2, more medical conditions with onset prior to the pandemic, and peri-pandemic social restriction stress. Number of incident traumas moderated the relationship between both number of pre-pandemic medical conditions and pre-pandemic social connectedness, and exacerbated PTSD symptoms. These results suggest that the pandemic did not confer additional risk for PTSD exacerbation than would be expected over a 3-year period for older veterans. Those who experience incident trauma exposure should be monitored for symptom exacerbation.</t>
+  </si>
+  <si>
+    <t>M10399</t>
+  </si>
+  <si>
+    <t>10.1111/eip.13456</t>
+  </si>
+  <si>
+    <t>Gender-affirming care in the assessment and treatment of psychosis risk: Considering minority stress in current practice and future research</t>
+  </si>
+  <si>
+    <t>Introduction Although research has documented the marked disparities in rates of psychosis-spectrum diagnoses in various socially marginalized populations, there is limited research addressing the needs of gender expansive individuals in the context of psychosis-spectrum illnesses using a minority stress lens. As clinical high-risk for psychosis (CHR-p) assessment and treatment becomes accessible to increasingly diverse populations, there is a need for clinicians to demonstrate greater clinical competency working with individuals across diverse social backgrounds and identities. Methods We examined rates of gender expansive (GE) patients seeking evaluation at an urban-based CHR-p clinic and compared the diagnostic profile of GE individuals to cisgender patients. Post-hoc analyses were conducted on clinical variables with significant differences between the cisgender and GE groups. Results The proportion of GE patients seeking evaluation increased from 2017 (9.3%) to 2021 (16.7%). Compared to cisgender youth, GE patients had significantly higher depressive, social anxiety, borderline personality disorder symptoms, higher levels of suicidality and non-suicidal self-injurious behaviour, and lower role functioning. Gender identity was predictive of suicidality controlling for social anxiety, borderline symptoms, and role functioning. Conclusions We review implications for CHR-p treatment and discuss ways to integrate minority stress theory and gender-affirming practices into coordinated specialty care for CHR-p patients. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6093</t>
+  </si>
+  <si>
+    <t>10.1037/ccp0000817</t>
+  </si>
+  <si>
+    <t>Do changes in dysfunctional posttraumatic cognitions differentially predict PTSD symptom clusters?</t>
+  </si>
+  <si>
+    <t>Objective: In recent years, it has been suggested that the modification of dysfunctional posttraumatic cognitions plays a central role as a mechanism of change in cognitive behavioral therapy (CBT) for posttraumatic stress disorder (PTSD). Indeed, several studies have shown that changes in dysfunctional posttraumatic cognitions precede and predict symptom change. However, these studies have investigated the influence on overall symptom severity-despite the well-known multidimensionality of PTSD. The present study therefore aimed to explore differential associations between change in dysfunctional conditions and change in PTSD symptom clusters. Method: As part of a naturalistic effectiveness study evaluating trauma-focused cognitive behavioral therapy for PTSD in routine clinical care, 61 patients with PTSD filled out measures of dysfunctional posttraumatic cognitions and PTSD symptom severity every five sessions during the course of treatment. Lagged associations between dysfunctional cognitions and symptom severity at the following timepoint were examined using linear mixed models. Results: Over the course of therapy, both dysfunctional cognitions and PTSD symptoms decreased. Posttraumatic cognitions predicted subsequent total PTSD symptom severity, although this effect was at least partly explained by the time factor. Moreover, dysfunctional cognitions predicted three out of four symptom clusters as expected. However, these effects were no longer statistically significant when the general effect for time was controlled for. Conclusion: The present study provides preliminary evidence that dysfunctional posttraumatic cognitions predict PTSD symptom clusters differentially. However, different findings when employing a traditional versus a more rigorous statistical approach make interpretation of findings difficult. (PsycInfo Database Record (c) 2023 APA, all rights reserved) Impact Statement This study highlights how posttraumatic cognitions, that is, dysfunctional appraisals about the traumatic event and its consequences, predict changes in posttraumatic stress disorder (PTSD) over the course of psychotherapy. It was closely investigated how these cognitions affect different PTSD symptom subgroups. This can inform clinicians and practitioners in their treatment planning. (PsycInfo Database Record (c) 2023 APA, all rights reserved)</t>
+  </si>
+  <si>
+    <t>M6095</t>
+  </si>
+  <si>
+    <t>10.1007/s10484-022-09565-z</t>
+  </si>
+  <si>
+    <t>A Pilot Study of a Three-Session Heart Rate Variability Biofeedback Intervention for Veterans with Posttraumatic Stress Disorder</t>
+  </si>
+  <si>
+    <t>Many veterans do not complete traditional trauma treatments; others may continue to struggle with posttraumatic stress disorder (PTSD) even after completing a full course of therapy (Blasé et al., in Int J Environ Res Public Health 18(7):Article 3329, https://doi.org/10.3390/ijerph18073329 , 2016). Heart rate variability (HRV) biofeedback (HRVB) is a non-invasive, non-pharmacological, breathing-based cardiorespiratory training technique that can reduce trauma symptoms and improve HRV parameters. Prior studies have demonstrated HRVB is well-tolerated by veterans with PTSD symptoms (Tan et al., in Appl Psychophysiol Biofeedback 36(1):27-35, 10.1007/s10484-010-9141-y, 2011; Schuman and Killian, in Appl Psychophysiol Biofeedback 44(1):9-20, https://doi.org/10.1007/s10484-018-9415-3 , 2019). This randomized wait-list controlled pilot study tested a short mobile app-adapted HRVB intervention in combination with treatment as usual for veterans with military-related PTSD to determine if further investigation was warranted. We assessed veterans' military-related PTSD symptoms, depression symptoms, and HRV time and frequency domain measures at baseline, after three clinical sessions, and one month later. This study combined clinical training and home biofeedback with a smartphone app and sensor to reinforce training and validate adherence. In the intervention group, depression and SDNN significantly improved, and we observed marginally significant improvements for PTSD Cluster B (intrusion) symptoms, whereas no significant improvements were observed in the control group. In addition, the brief protocol was acceptable to veterans with PTSD with over 83% of participants completing the study. However, adherence to home practice was low. Findings suggest brief HRVB interventions can decrease comorbid depression and improve overall autonomic function in veterans with PTSD; however, additional research on home biofeedback is necessary to determine the best strategies to increase adherence and which veterans would benefit from brief HRVB interventions.</t>
+  </si>
+  <si>
+    <t>M6100</t>
+  </si>
+  <si>
+    <t>10.1016/j.genhosppsych.2023.01.012</t>
+  </si>
+  <si>
+    <t>Development and validation of a brief screener for posttraumatic stress disorder risk in emergency medical settings</t>
+  </si>
+  <si>
+    <t>Objective: Predicting risk of posttraumatic stress disorder (PTSD) in the acute care setting is challenging given the pace and acute care demands in the emergency department (ED) and the infeasibility of using time-consuming assessments. Currently, no accurate brief screening for long-term PTSD risk is routinely used in the ED. One instrument widely used in the ED is the 27-item Immediate Stress Reaction Checklist (ISRC). The aim of this study was to develop a short screener using a machine learning approach and to investigate whether accurate PTSD prediction in the ED can be achieved with substantially fewer items than the IRSC. Method: This prospective longitudinal cohort study examined the development and validation of a brief screening instrument in two independent samples, a model development sample (N = 253) and an external validation sample (N = 93). We used a feature selection algorithm to identify a minimal subset of features of the ISRC and tested this subset in a predictive model to investigate if we can accurately predict long-term PTSD outcomes. Results: We were able to identify a reduced subset of 5 highly predictive features of the ISRC in the model development sample (AUC = 0.80), and we were able to validate those findings in the external validation sample (AUC = 0.84) to discriminate non-remitting vs. resilient trajectories. Conclusion: This study developed and validated a brief 5-item screener in the ED setting, which may help to improve the diagnostic process of PTSD in the acute care setting and help ED clinicians plan follow-up care when patients are still in contact with the healthcare system. This could reduce the burden on patients and decrease the risk of chronic PTSD.</t>
+  </si>
+  <si>
+    <t>M10373</t>
+  </si>
+  <si>
+    <t>10.1007/s12072-023-10501-4</t>
+  </si>
+  <si>
+    <t>Drug interactions between antipsychotics and direct acting antivirals in patients receiving opioid replacement therapy</t>
+  </si>
+  <si>
+    <t>Background: New generation of pangenotypic direct acting antivirals (DAA) have shown to be highly effective with well tolerated safety profile, however, they carry the drawback of potential drug-drug interaction (DDI) with concomitant medications. Therefore, DDI risk assessment is required before starting treatment with DAA. Recent published data from western countries indicated that central system drugs were the most frequently prescribed comedication in patients with opioid substitution therapy who are infected with HCV. The aim of current study is to describe the drug use and the associated risk of DDIs in patients with addiction from a single center in Taiwan. Methods: A single center observational study reviewing HCV patients (&gt;20 years old) treated in an addiction center between Jan and Dec 2021 with DAAs. Demographic variables collected were age, baseline fibrosis, presence of addictions or substance abuse, neurological comorbidities. Type of DAA prescribed and presence or absence of psychiatric co-medication used. Potential DDI between concomitant medication and DAA were assessed using Liverpool database. Results: A total of 81 patients were included (mean age: 47 years old; 36% with HIV coinfection; mean FIB-4: 1.6; 43% received methadone replacement therapy). In this cohort, 50 patients received SOF/ VEL and 31 received GLE/PIB. 28% and 13% of patients in SOF/ VEL and GLE/PIB group respectively received concurrent recreational drug use while being treated for their HCV infection. Thirtysix patients had neurological disorder: 12 with insomnia, 10 with dysthymic disorder, 4 with depressive disorder, 4 with anxiety, 3 with bipolar, 2 with alcohol/nicotine dependent and 1 with PTSD. Twentythree patients (27.7%) received antipsychotics during HCV treatment, the most prescribed one are quetiapine (26%), mirtazapine (26%) and agomelatine (22%). In terms of potential interactions, 36.3% (4/11) of patients received GLE/PIB and antipsychotics were at risk of DDIs. Conclusion: Antipsychotics are frequently prescribed among HCV patients receiving opioid substitution therapy. A careful evaluation of DDI prior to DAA initiation is important to minimize potential risk and optimize treatment outcome.</t>
+  </si>
+  <si>
+    <t>M10369</t>
+  </si>
+  <si>
+    <t>10.1016/j.ynstr.2023.100569</t>
+  </si>
+  <si>
+    <t>Time-course analysis of frontal gene expression profiles in the rat model of posttraumatic stress disorder and a comparison with the conditioned fear model</t>
+  </si>
+  <si>
+    <t>Posttraumatic stress disorder (PTSD) is a complex disorder that involves physiological, emotional, and cognitive dysregulation that may occur after exposure to a life-threatening event. In contrast with the condition of learned fear with resilience to extinction, abnormal fear with impaired fear extinction and exaggeration are considered crucial factors for the pathological development of PTSD. The prefrontal cortex (mPFC) is considered a critical region of top-down control in fear regulation, which involves the modulation of fear expression and extinction. The pathological course of PTSD is usually chronic and persistent; a number of studies have indicated temporal progression in gene expression and phenotypes may be involved in PTSD pathology. In the current study, we use a well-established modified single-prolonged stress (SPS&amp;FS) rat model to feature PTSD-like phenotypes and compared it with a footshock fear conditioning model (FS model); we collected the frontal tissue after extreme stress exposure or fear conditioning and extracted RNA for transcriptome-level gene sequencing. We compared the genetic profiling of the mPFC at early (&lt;2 h after solely FS or SPS&amp;FS exposure) and late (7 days after solely FS or SPS&amp;FS exposure) stages in these two models. First, we identified temporal differences in the expressional patterns between these two models and found pathways such as protein synthesis factor eukaryotic initiation factor 2 (EIF2), transcription factor NF-E2-related factor 2 (NRF2)-mediated oxidative stress response, and acute phase responding signaling enriched in the early stage in both models with significant p-values. Furthermore, in the late stage, the sirtuin signaling pathway was enriched in both models; other pathways such as STAT3, cAMP, lipid metabolism, Gα signaling, and increased fear were especially enriched in the late stage of the SPS&amp;FS model. However, pathways such as VDR/RXR, GP6, and PPAR signaling were activated significantly in the FS model's late stage. Last, the network analysis revealed the temporal dynamics of psychological disorder, the endocrine system, and also genes related to increased fear in the two models. This study could help elucidate the genetic temporal alteration and stage-specific pathways in these two models, as well as a better understanding of the transcriptome-level differences between them. © 2023 The Authors</t>
+  </si>
+  <si>
+    <t>M6107</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpsychires.2023.05.065</t>
+  </si>
+  <si>
+    <t>Treatment outcomes of Veteran men in a comprehensive dialectical behavior therapy program: Characterizing sex differences in symptom trajectories</t>
+  </si>
+  <si>
+    <t>Dialectical Behavior Therapy (DBT) is one of the primary psychosocial treatments for reducing suicidal behaviors and improving psychosocial outcomes among patients with borderline personality disorder (BPD) and has been shown to reduce BPD symptoms when delivered in a Veteran Affairs medical center setting. Despite evidence of similar rates of BPD in both men and women, the vast majority of treatment outcome research in BPD has focused on women. We sought to characterize sex differences in symptom trajectories among Veterans participating in a comprehensive DBT program. We found that Veteran men and women who entered the DBT program were diagnostically and demographically similar. Participants exhibited reductions in BPD symptoms and improvements in emotion regulation over the course of treatment. Moreover, Veteran men reported BPD symptom reductions that were not statistically inferior to those of Veteran women and exhibited a sharper reduction in these symptoms. This research provides support for the use of DBT as a psychosocial treatment for Veteran men with BPD symptoms.</t>
+  </si>
+  <si>
+    <t>M10364</t>
+  </si>
+  <si>
+    <t>10.1016/j.nicl.2023.103417</t>
+  </si>
+  <si>
+    <t>Altered Resting-State functional connectivity in the anterior and posterior hippocampus in Post-traumatic stress disorder: The central role of the anterior hippocampus</t>
+  </si>
+  <si>
+    <t>Background: Post-traumatic stress disorder can be viewed as a memory disorder, with trauma-related flashbacks being a core symptom. Given the central role of the hippocampus in autobiographical memory, surprisingly, there is mixed evidence concerning altered hippocampal functional connectivity in PTSD. We shed light on this discrepancy by considering the distinct roles of the anterior versus posterior hippocampus and examine how this distinction may map onto whole-brain resting-state functional connectivity patterns among those with and without PTSD. Methods: We first assessed whole-brain between-group differences in the functional connectivity profiles of the anterior and posterior hippocampus within a publicly available data set of resting-state fMRI data from 31 male Vietnam war veterans diagnosed with PTSD (mean age = 67.6 years, sd = 2.3) and 29 age-matched combat-exposed male controls (age = 69.1 years, sd = 3.5). Next, the connectivity patterns of each subject within the PTSD group were correlated with their PTSD symptom scores. Finally, the between-group differences in whole-brain functional connectivity profiles discovered for the anterior and posterior hippocampal seeds were used to prescribe post-hoc ROIs, which were then used to perform ROI-to-ROI functional connectivity and graph-theoretic analyses. Results: The PTSD group showed increased functional connectivity of the anterior hippocampus with affective brain regions (anterior/posterior insula, orbitofrontal cortex, temporal pole) and decreased functional connectivity of the anterior/posterior hippocampus with regions involved in processing bodily self-consciousness (supramarginal gyrus). Notably, decreased anterior hippocampus connectivity with the posterior cingulate cortex/precuneus was associated with increased PTSD symptom severity. The left anterior hippocampus also emerged as a central locus of abnormal functional connectivity, with graph-theoretic measures suggestive of a more central hub-like role for this region in those with PTSD compared to trauma-exposed controls. Conclusions: Our results highlight that the anterior hippocampus plays a critical role in the neurocircuitry underlying PTSD and underscore the importance of the differential roles of hippocampal sub-regions in serving as biomarkers of PTSD. Future studies should investigate whether the differential patterns of functional connectivity stemming from hippocampal sub-regions is observed in PTSD populations other than older war veterans. © 2023 The Author(s)</t>
+  </si>
+  <si>
+    <t>M10348</t>
+  </si>
+  <si>
+    <t>10.1192/j.eurpsy.2023.1919</t>
+  </si>
+  <si>
+    <t>Psychosocial and Physical Rehabilitation of Burn Survivors: A large multicentre cluster randomised controlled trial from Pakistan</t>
+  </si>
+  <si>
+    <t>Introduction: Globally, burns are responsible for around 11 million injuries and 180 000 burn-related deaths yearly. Unfortunately, 9 of 10 burn injuries and deaths happen in low-and-middle-income countries (LMICs) such as Pakistan. One in three people admitted to hospitals with burn injuries die within three weeks, and survivors face serious lifelong physical, emotional and psychosocial problems. This may result in anxiety, depression, post-traumatic stress disorder, increased mortality and social disintegration. This study aims to evaluate if implementation of a culturally adapted multidisciplinary rehabilitation programme for burn survivors is clinically and cost-effective, sustainable and scalable across Pakistan. Objectives: - To understand lived experiences of burn survivors, families, and other stakeholders including the experience of care and impact of burns To work together with key stakeholders (such as burn survivors, family members) to adapt a culturally appropriate affordable burn rehabilitation programme - To undertake social media campaigns to promote burn prevention and risk assessment at communities, workplaces/industries/households; improve first aid; and address burn related stigma - To work with policy makers/parliamentarians to develop national guidelines for burns care and prevention in Pakistan Methods: There are 6 work-packages (WPs). WP1 is to co-adapt a culturally appropriate burn care and rehabilitation programme. WP2 will develop and implement national burn registry on WHO's initiative. WP3 is a cluster randomised controlled trial to determine clinical and cost-effectiveness in Pakistan. WP4 will evaluate social media campaigns for burn prevention and reduce stigma. WP5 involves working with key-stakeholders for burns-related care and policy and WP6 offers sustainable capacity and capability for burns treatment and rehabilitation. Results: A clinical and cost-effective burn care quality and rehabilitation programme may have a huge potential to save lives and contribute health and socio-economic benefits for patients, families, and the healthcare system in Pakistan. The nation-wide implementation and involvement of burn centres across all provinces offer an excellent opportunity to overcome the problem of burn care access experienced in LMICs. Conclusions: To date, burns prevention, care and rehabilitation have not received sufficient attention in policy initiatives in Pakistan and other LMICs. This study is an excellent opportunity to evaluate culturally adapted burn care and rehabilitation programmes that can be implemented across LMICs. We will disseminate our findings widely, using a variety of approaches, supported by our stakeholder and patient advisory groups.</t>
+  </si>
+  <si>
+    <t>M8519</t>
+  </si>
+  <si>
+    <t>10.1016/j.pharmthera.2023.108431</t>
+  </si>
+  <si>
+    <t>The antidepressant actions of ketamine and its enantiomers</t>
+  </si>
+  <si>
+    <t>Ketamine, an N-methyl-d-aspartate receptor (NMDAR) antagonist first developed as an anesthetic, has shown significant promise as a medication with rapid antidepressant properties in treatment-resistant depression. However, concerns such as adverse side effects and potential misuse liability have limited its widespread use. Racemic ketamine has two enantiomers-(S)- and (R)-ketamine-that appear to have disparate underlying mechanisms. This brief review summarizes some of the most recent preclinical and clinical research regarding the convergent and divergent prophylactic, immediate, and sustained antidepressant effects of (S)- and (R)-ketamine while addressing potential differences in their side effect and misuse liability profiles. Preclinical research suggests divergent mechanisms underlying (S)- and (R)-ketamine, with (S)-ketamine more directly affecting mechanistic target of rapamycin complex 1 (mTORC1) signaling and (R)-ketamine more directly affecting extracellular signal-related kinase (ERK) signaling. Clinical research suggests that (R)-ketamine has a milder side effect profile than (S)-ketamine and decreases depression rating scale scores, but recent randomized, controlled trials found that it had no significant antidepressant efficacy compared to placebo, suggesting that caution is warranted in interpreting its therapeutic potential. Future preclinical and clinical research is needed to maximize the efficacy of each enantiomer, either by optimizing dose, route of administration, or administration paradigm.</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +3578,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2352,6 +3594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,13 +3631,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2692,10 +3941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D170" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3312,10 +4561,10 @@
         <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3387,10 +4636,10 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3463,53 +4712,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>2013</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28">
         <v>2013</v>
@@ -3535,16 +4787,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>2013</v>
@@ -3558,13 +4810,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>2013</v>
@@ -3590,13 +4842,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E31">
         <v>2013</v>
@@ -3622,13 +4874,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E32">
         <v>2013</v>
@@ -3654,16 +4906,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E33">
         <v>2013</v>
@@ -3684,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3692,16 +4944,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E34">
         <v>2013</v>
@@ -3715,13 +4967,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35">
         <v>2013</v>
@@ -3747,13 +4999,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E36">
         <v>2013</v>
@@ -3779,16 +5031,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E37">
         <v>2013</v>
@@ -3802,13 +5054,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38">
         <v>2013</v>
@@ -3829,7 +5081,7 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3837,13 +5089,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39">
         <v>2013</v>
@@ -3852,7 +5104,7 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3860,16 +5112,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E40">
         <v>2013</v>
@@ -3895,16 +5147,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E41">
         <v>2013</v>
@@ -3930,13 +5182,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E42">
         <v>2013</v>
@@ -3960,53 +5212,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="2">
         <v>2013</v>
       </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43">
+      <c r="F43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E44">
         <v>2013</v>
@@ -4032,16 +5284,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E45">
         <v>2013</v>
@@ -4067,16 +5319,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E46">
         <v>2013</v>
@@ -4102,16 +5354,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E47">
         <v>2013</v>
@@ -4137,16 +5389,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E48">
         <v>2014</v>
@@ -4172,16 +5424,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E49">
         <v>2014</v>
@@ -4195,16 +5447,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E50">
         <v>2014</v>
@@ -4230,16 +5482,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E51">
         <v>2014</v>
@@ -4253,16 +5505,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E52">
         <v>2014</v>
@@ -4276,16 +5528,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E53">
         <v>2014</v>
@@ -4311,16 +5563,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E54">
         <v>2014</v>
@@ -4346,16 +5598,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55">
         <v>2014</v>
@@ -4381,16 +5633,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E56">
         <v>2014</v>
@@ -4416,16 +5668,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E57">
         <v>2014</v>
@@ -4451,16 +5703,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E58">
         <v>2014</v>
@@ -4474,16 +5726,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E59">
         <v>2014</v>
@@ -4509,16 +5761,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E60">
         <v>2014</v>
@@ -4544,16 +5796,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61">
         <v>2014</v>
@@ -4567,16 +5819,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E62">
         <v>2014</v>
@@ -4600,53 +5852,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>247</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E63">
+      <c r="D63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="2">
         <v>2014</v>
       </c>
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63">
+      <c r="F63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E64">
         <v>2014</v>
@@ -4672,16 +5924,16 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E65">
         <v>2014</v>
@@ -4707,16 +5959,16 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E66">
         <v>2014</v>
@@ -4742,16 +5994,16 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E67">
         <v>2014</v>
@@ -4777,13 +6029,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E68">
         <v>2014</v>
@@ -4804,7 +6056,7 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -4812,16 +6064,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E69">
         <v>2014</v>
@@ -4847,16 +6099,16 @@
     </row>
     <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E70" s="2">
         <v>2014</v>
@@ -4882,16 +6134,16 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E71">
         <v>2014</v>
@@ -4905,16 +6157,16 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E72">
         <v>2014</v>
@@ -4932,24 +6184,27 @@
         <v>16</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
+        <v>114</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E73">
         <v>2014</v>
@@ -4975,13 +6230,13 @@
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E74" s="2">
         <v>2014</v>
@@ -5007,16 +6262,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E75">
         <v>2014</v>
@@ -5030,16 +6285,16 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E76">
         <v>2014</v>
@@ -5065,16 +6320,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E77">
         <v>2014</v>
@@ -5100,16 +6355,16 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E78">
         <v>2014</v>
@@ -5135,16 +6390,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E79">
         <v>2014</v>
@@ -5170,16 +6425,16 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E80">
         <v>2014</v>
@@ -5193,16 +6448,16 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E81">
         <v>2014</v>
@@ -5228,16 +6483,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E82">
         <v>2014</v>
@@ -5251,16 +6506,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E83">
         <v>2014</v>
@@ -5284,50 +6539,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>329</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="84" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B84" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E84">
+      <c r="D84" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E84" s="2">
         <v>2014</v>
       </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84">
+      <c r="F84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E85">
         <v>2014</v>
@@ -5339,50 +6594,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E86">
+      <c r="D86" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E86" s="2">
         <v>2014</v>
       </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86">
+      <c r="F86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E87">
         <v>2014</v>
@@ -5396,16 +6651,16 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C88" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E88">
         <v>2014</v>
@@ -5431,16 +6686,16 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E89">
         <v>2014</v>
@@ -5461,7 +6716,7 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -5469,16 +6724,16 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E90">
         <v>2014</v>
@@ -5496,24 +6751,27 @@
         <v>16</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
+        <v>114</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E91">
         <v>2014</v>
@@ -5531,56 +6789,56 @@
         <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>359</v>
-      </c>
-      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E92">
+      <c r="D92" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E92" s="2">
         <v>2014</v>
       </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" t="s">
-        <v>18</v>
-      </c>
-      <c r="J92" t="s">
-        <v>18</v>
-      </c>
-      <c r="L92">
+      <c r="F92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E93">
         <v>2014</v>
@@ -5589,7 +6847,7 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -5597,13 +6855,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E94">
         <v>2014</v>
@@ -5629,16 +6887,16 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E95">
         <v>2014</v>
@@ -5652,16 +6910,16 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E96">
         <v>2014</v>
@@ -5675,16 +6933,16 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E97">
         <v>2014</v>
@@ -5710,16 +6968,16 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E98">
         <v>2014</v>
@@ -5745,16 +7003,16 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D99" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E99">
         <v>2014</v>
@@ -5780,13 +7038,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E100">
         <v>2014</v>
@@ -5800,16 +7058,16 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E101">
         <v>2014</v>
@@ -5835,16 +7093,16 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E102">
         <v>2023</v>
@@ -5870,16 +7128,16 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B103" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E103">
         <v>2020</v>
@@ -5905,16 +7163,16 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D104" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E104">
         <v>2021</v>
@@ -5928,16 +7186,16 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B105" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C105" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E105">
         <v>2015</v>
@@ -5951,16 +7209,16 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B106" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C106" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E106">
         <v>2023</v>
@@ -5986,16 +7244,16 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B107" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C107" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D107" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E107">
         <v>2017</v>
@@ -6009,16 +7267,16 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C108" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D108" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E108">
         <v>2021</v>
@@ -6044,16 +7302,16 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B109" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D109" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E109">
         <v>2020</v>
@@ -6079,16 +7337,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B110" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C110" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E110">
         <v>2019</v>
@@ -6114,13 +7372,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C111" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D111" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E111">
         <v>2018</v>
@@ -6146,16 +7404,16 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C112" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D112" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E112">
         <v>2023</v>
@@ -6181,16 +7439,16 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B113" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C113" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E113">
         <v>2019</v>
@@ -6204,16 +7462,16 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B114" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C114" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D114" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E114">
         <v>2018</v>
@@ -6227,16 +7485,16 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B115" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C115" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E115">
         <v>2021</v>
@@ -6254,21 +7512,21 @@
         <v>16</v>
       </c>
       <c r="J115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D116" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E116">
         <v>2019</v>
@@ -6294,16 +7552,16 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B117" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C117" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D117" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E117">
         <v>2016</v>
@@ -6329,16 +7587,16 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B118" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C118" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D118" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E118">
         <v>2021</v>
@@ -6352,16 +7610,16 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B119" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C119" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D119" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E119">
         <v>2023</v>
@@ -6387,16 +7645,16 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B120" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C120" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E120">
         <v>2023</v>
@@ -6422,16 +7680,16 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B121" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C121" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D121" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E121">
         <v>2016</v>
@@ -6457,16 +7715,16 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B122" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D122" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E122">
         <v>2016</v>
@@ -6480,16 +7738,16 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B123" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C123" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D123" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E123">
         <v>2023</v>
@@ -6515,16 +7773,16 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B124" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C124" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D124" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E124">
         <v>2017</v>
@@ -6538,16 +7796,16 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C125" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D125" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E125">
         <v>2022</v>
@@ -6573,16 +7831,16 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B126" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C126" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E126">
         <v>2018</v>
@@ -6608,16 +7866,16 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B127" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C127" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D127" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E127">
         <v>2022</v>
@@ -6643,16 +7901,16 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B128" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C128" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D128" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E128">
         <v>2021</v>
@@ -6666,16 +7924,16 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B129" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C129" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D129" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E129">
         <v>2020</v>
@@ -6689,16 +7947,16 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B130" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C130" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D130" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E130">
         <v>2021</v>
@@ -6724,16 +7982,16 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B131" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D131" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E131">
         <v>2020</v>
@@ -6747,16 +8005,16 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B132" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C132" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D132" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E132">
         <v>2016</v>
@@ -6770,16 +8028,16 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B133" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C133" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D133" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E133">
         <v>2021</v>
@@ -6793,16 +8051,16 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B134" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C134" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D134" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E134">
         <v>2015</v>
@@ -6816,16 +8074,16 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B135" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C135" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D135" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E135">
         <v>2023</v>
@@ -6839,16 +8097,16 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B136" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C136" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D136" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E136">
         <v>2023</v>
@@ -6869,7 +8127,7 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -6877,16 +8135,16 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B137" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C137" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D137" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E137">
         <v>2023</v>
@@ -6912,16 +8170,16 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B138" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D138" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E138">
         <v>2023</v>
@@ -6947,16 +8205,16 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B139" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D139" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E139">
         <v>2020</v>
@@ -6982,16 +8240,16 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B140" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C140" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D140" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E140">
         <v>2018</v>
@@ -7005,16 +8263,16 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C141" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D141" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E141">
         <v>2021</v>
@@ -7028,16 +8286,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B142" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D142" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E142">
         <v>2018</v>
@@ -7051,16 +8309,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C143" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D143" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E143">
         <v>2021</v>
@@ -7086,16 +8344,16 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B144" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C144" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D144" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E144">
         <v>2022</v>
@@ -7121,16 +8379,16 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B145" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C145" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D145" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E145">
         <v>2018</v>
@@ -7144,16 +8402,16 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B146" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C146" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D146" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E146">
         <v>2022</v>
@@ -7167,16 +8425,16 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B147" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C147" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D147" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E147">
         <v>2019</v>
@@ -7190,16 +8448,16 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B148" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C148" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D148" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E148">
         <v>2020</v>
@@ -7213,16 +8471,16 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B149" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C149" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D149" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E149">
         <v>2016</v>
@@ -7234,53 +8492,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>586</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="150" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B150" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D150" t="s">
+      <c r="C150" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E150">
+      <c r="D150" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E150" s="2">
         <v>2022</v>
       </c>
-      <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150" t="s">
-        <v>18</v>
-      </c>
-      <c r="I150" t="s">
-        <v>16</v>
-      </c>
-      <c r="J150" t="s">
-        <v>18</v>
-      </c>
-      <c r="L150">
+      <c r="F150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B151" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C151" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D151" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E151">
         <v>2019</v>
@@ -7294,16 +8552,16 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B152" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C152" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D152" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E152">
         <v>2020</v>
@@ -7327,53 +8585,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>598</v>
-      </c>
-      <c r="B153" t="s">
+    <row r="153" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B153" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D153" t="s">
+      <c r="C153" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E153">
+      <c r="D153" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E153" s="2">
         <v>2017</v>
       </c>
-      <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
-      <c r="H153" t="s">
-        <v>18</v>
-      </c>
-      <c r="I153" t="s">
-        <v>16</v>
-      </c>
-      <c r="J153" t="s">
-        <v>16</v>
-      </c>
-      <c r="L153">
+      <c r="F153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L153" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B154" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C154" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D154" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E154">
         <v>2020</v>
@@ -7397,50 +8655,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="155" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B155" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D155" t="s">
+      <c r="C155" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E155">
+      <c r="D155" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E155" s="3">
         <v>2013</v>
       </c>
-      <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" t="s">
-        <v>18</v>
-      </c>
-      <c r="J155" t="s">
-        <v>16</v>
-      </c>
-      <c r="L155">
-        <v>1</v>
+      <c r="K155" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C156" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D156" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E156">
         <v>2015</v>
@@ -7454,16 +8697,16 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B157" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C157" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D157" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E157">
         <v>2020</v>
@@ -7489,16 +8732,16 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B158" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C158" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D158" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E158">
         <v>2022</v>
@@ -7524,16 +8767,16 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B159" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C159" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D159" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E159">
         <v>2021</v>
@@ -7559,16 +8802,16 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B160" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C160" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D160" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E160">
         <v>2016</v>
@@ -7582,16 +8825,16 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B161" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C161" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D161" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E161">
         <v>2021</v>
@@ -7617,16 +8860,16 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B162" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C162" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D162" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E162">
         <v>2022</v>
@@ -7652,16 +8895,16 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B163" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C163" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D163" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E163">
         <v>2021</v>
@@ -7675,16 +8918,16 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B164" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C164" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D164" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E164">
         <v>2021</v>
@@ -7698,16 +8941,16 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B165" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C165" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D165" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E165">
         <v>2022</v>
@@ -7733,16 +8976,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B166" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C166" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D166" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E166">
         <v>2021</v>
@@ -7768,16 +9011,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B167" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C167" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D167" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E167">
         <v>2020</v>
@@ -7803,16 +9046,16 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B168" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C168" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D168" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E168">
         <v>2017</v>
@@ -7826,16 +9069,16 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B169" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C169" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D169" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E169">
         <v>2021</v>
@@ -7849,36 +9092,36 @@
     </row>
     <row r="170" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E170" s="3">
         <v>2014</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B171" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C171" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D171" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E171">
         <v>2018</v>
@@ -7904,16 +9147,16 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B172" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C172" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D172" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E172">
         <v>2023</v>
@@ -7939,16 +9182,16 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B173" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C173" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D173" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E173">
         <v>2020</v>
@@ -7962,16 +9205,16 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B174" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C174" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D174" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E174">
         <v>2021</v>
@@ -7985,13 +9228,13 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C175" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D175" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E175">
         <v>2016</v>
@@ -8005,16 +9248,16 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B176" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C176" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D176" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E176">
         <v>2022</v>
@@ -8035,7 +9278,7 @@
         <v>17</v>
       </c>
       <c r="K176" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -8043,16 +9286,16 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B177" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C177" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D177" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E177">
         <v>2019</v>
@@ -8066,16 +9309,16 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B178" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C178" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D178" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E178">
         <v>2017</v>
@@ -8101,13 +9344,13 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C179" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D179" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E179">
         <v>2017</v>
@@ -8133,16 +9376,16 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B180" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C180" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D180" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E180">
         <v>2022</v>
@@ -8154,50 +9397,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>700</v>
-      </c>
-      <c r="B181" t="s">
-        <v>701</v>
-      </c>
-      <c r="C181" t="s">
+    <row r="181" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D181" t="s">
+      <c r="B181" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E181">
+      <c r="C181" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E181" s="2">
         <v>2021</v>
       </c>
-      <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" t="s">
-        <v>18</v>
-      </c>
-      <c r="I181" t="s">
-        <v>18</v>
-      </c>
-      <c r="J181" t="s">
-        <v>16</v>
-      </c>
-      <c r="L181">
+      <c r="F181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L181" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C182" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D182" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E182">
         <v>2019</v>
@@ -8223,16 +9466,16 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B183" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C183" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D183" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E183">
         <v>2020</v>
@@ -8258,16 +9501,16 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B184" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C184" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D184" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E184">
         <v>2018</v>
@@ -8293,16 +9536,16 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B185" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C185" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D185" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E185">
         <v>2023</v>
@@ -8328,16 +9571,16 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B186" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C186" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D186" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E186">
         <v>2021</v>
@@ -8363,16 +9606,16 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B187" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C187" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D187" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E187">
         <v>2018</v>
@@ -8386,16 +9629,16 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B188" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C188" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D188" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E188">
         <v>2020</v>
@@ -8404,36 +9647,36 @@
         <v>16</v>
       </c>
       <c r="G188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K188" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B189" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C189" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D189" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E189">
         <v>2019</v>
@@ -8459,16 +9702,16 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B190" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C190" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D190" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E190">
         <v>2023</v>
@@ -8494,16 +9737,16 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C191" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D191" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E191">
         <v>2022</v>
@@ -8529,16 +9772,16 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B192" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C192" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D192" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E192">
         <v>2017</v>
@@ -8552,16 +9795,16 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B193" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C193" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D193" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E193">
         <v>2019</v>
@@ -8587,16 +9830,16 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B194" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C194" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D194" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E194">
         <v>2021</v>
@@ -8622,16 +9865,16 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B195" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C195" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D195" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E195">
         <v>2021</v>
@@ -8652,6 +9895,3092 @@
         <v>17</v>
       </c>
       <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>762</v>
+      </c>
+      <c r="B196" t="s">
+        <v>763</v>
+      </c>
+      <c r="C196" t="s">
+        <v>764</v>
+      </c>
+      <c r="D196" t="s">
+        <v>765</v>
+      </c>
+      <c r="E196">
+        <v>2021</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E197" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>770</v>
+      </c>
+      <c r="B198" t="s">
+        <v>771</v>
+      </c>
+      <c r="C198" t="s">
+        <v>772</v>
+      </c>
+      <c r="D198" t="s">
+        <v>773</v>
+      </c>
+      <c r="E198">
+        <v>2017</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>774</v>
+      </c>
+      <c r="C199" t="s">
+        <v>775</v>
+      </c>
+      <c r="D199" t="s">
+        <v>776</v>
+      </c>
+      <c r="E199">
+        <v>2016</v>
+      </c>
+      <c r="F199" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" t="s">
+        <v>17</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>777</v>
+      </c>
+      <c r="B200" t="s">
+        <v>778</v>
+      </c>
+      <c r="C200" t="s">
+        <v>779</v>
+      </c>
+      <c r="D200" t="s">
+        <v>780</v>
+      </c>
+      <c r="E200">
+        <v>2023</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>781</v>
+      </c>
+      <c r="B201" t="s">
+        <v>782</v>
+      </c>
+      <c r="C201" t="s">
+        <v>783</v>
+      </c>
+      <c r="D201" t="s">
+        <v>784</v>
+      </c>
+      <c r="E201">
+        <v>2018</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>785</v>
+      </c>
+      <c r="C202" t="s">
+        <v>786</v>
+      </c>
+      <c r="D202" t="s">
+        <v>787</v>
+      </c>
+      <c r="E202">
+        <v>2023</v>
+      </c>
+      <c r="F202" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" t="s">
+        <v>17</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>788</v>
+      </c>
+      <c r="B203" t="s">
+        <v>789</v>
+      </c>
+      <c r="C203" t="s">
+        <v>790</v>
+      </c>
+      <c r="D203" t="s">
+        <v>791</v>
+      </c>
+      <c r="E203">
+        <v>2023</v>
+      </c>
+      <c r="F203" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>17</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>792</v>
+      </c>
+      <c r="B204" t="s">
+        <v>793</v>
+      </c>
+      <c r="C204" t="s">
+        <v>794</v>
+      </c>
+      <c r="D204" t="s">
+        <v>795</v>
+      </c>
+      <c r="E204">
+        <v>2023</v>
+      </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" t="s">
+        <v>17</v>
+      </c>
+      <c r="J204" t="s">
+        <v>17</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>796</v>
+      </c>
+      <c r="B205" t="s">
+        <v>797</v>
+      </c>
+      <c r="C205" t="s">
+        <v>798</v>
+      </c>
+      <c r="D205" t="s">
+        <v>799</v>
+      </c>
+      <c r="E205">
+        <v>2023</v>
+      </c>
+      <c r="F205" t="s">
+        <v>17</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>800</v>
+      </c>
+      <c r="B206" t="s">
+        <v>801</v>
+      </c>
+      <c r="C206" t="s">
+        <v>802</v>
+      </c>
+      <c r="D206" t="s">
+        <v>803</v>
+      </c>
+      <c r="E206">
+        <v>2023</v>
+      </c>
+      <c r="F206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
+      <c r="H206" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" t="s">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>17</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>804</v>
+      </c>
+      <c r="B207" t="s">
+        <v>805</v>
+      </c>
+      <c r="C207" t="s">
+        <v>806</v>
+      </c>
+      <c r="D207" t="s">
+        <v>807</v>
+      </c>
+      <c r="E207">
+        <v>2023</v>
+      </c>
+      <c r="F207" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" t="s">
+        <v>16</v>
+      </c>
+      <c r="H207" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" t="s">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s">
+        <v>17</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>808</v>
+      </c>
+      <c r="B208" t="s">
+        <v>809</v>
+      </c>
+      <c r="C208" t="s">
+        <v>810</v>
+      </c>
+      <c r="D208" t="s">
+        <v>811</v>
+      </c>
+      <c r="E208">
+        <v>2023</v>
+      </c>
+      <c r="F208" t="s">
+        <v>17</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>812</v>
+      </c>
+      <c r="B209" t="s">
+        <v>813</v>
+      </c>
+      <c r="C209" t="s">
+        <v>814</v>
+      </c>
+      <c r="D209" t="s">
+        <v>815</v>
+      </c>
+      <c r="E209">
+        <v>2023</v>
+      </c>
+      <c r="F209" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" t="s">
+        <v>18</v>
+      </c>
+      <c r="I209" t="s">
+        <v>18</v>
+      </c>
+      <c r="J209" t="s">
+        <v>17</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>816</v>
+      </c>
+      <c r="B210" t="s">
+        <v>817</v>
+      </c>
+      <c r="C210" t="s">
+        <v>818</v>
+      </c>
+      <c r="D210" t="s">
+        <v>819</v>
+      </c>
+      <c r="E210">
+        <v>2023</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>820</v>
+      </c>
+      <c r="B211" t="s">
+        <v>821</v>
+      </c>
+      <c r="C211" t="s">
+        <v>822</v>
+      </c>
+      <c r="D211" t="s">
+        <v>823</v>
+      </c>
+      <c r="E211">
+        <v>2023</v>
+      </c>
+      <c r="F211" t="s">
+        <v>17</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>824</v>
+      </c>
+      <c r="C212" t="s">
+        <v>825</v>
+      </c>
+      <c r="D212" t="s">
+        <v>826</v>
+      </c>
+      <c r="E212">
+        <v>2023</v>
+      </c>
+      <c r="F212" t="s">
+        <v>17</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>827</v>
+      </c>
+      <c r="B213" t="s">
+        <v>828</v>
+      </c>
+      <c r="C213" t="s">
+        <v>829</v>
+      </c>
+      <c r="D213" t="s">
+        <v>830</v>
+      </c>
+      <c r="E213">
+        <v>2023</v>
+      </c>
+      <c r="F213" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" t="s">
+        <v>16</v>
+      </c>
+      <c r="J213" t="s">
+        <v>17</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>831</v>
+      </c>
+      <c r="B214" t="s">
+        <v>832</v>
+      </c>
+      <c r="C214" t="s">
+        <v>833</v>
+      </c>
+      <c r="D214" t="s">
+        <v>834</v>
+      </c>
+      <c r="E214">
+        <v>2023</v>
+      </c>
+      <c r="F214" t="s">
+        <v>17</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>835</v>
+      </c>
+      <c r="B215" t="s">
+        <v>836</v>
+      </c>
+      <c r="C215" t="s">
+        <v>837</v>
+      </c>
+      <c r="D215" t="s">
+        <v>838</v>
+      </c>
+      <c r="E215">
+        <v>2023</v>
+      </c>
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" t="s">
+        <v>16</v>
+      </c>
+      <c r="J215" t="s">
+        <v>17</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>839</v>
+      </c>
+      <c r="B216" t="s">
+        <v>840</v>
+      </c>
+      <c r="C216" t="s">
+        <v>841</v>
+      </c>
+      <c r="D216" t="s">
+        <v>842</v>
+      </c>
+      <c r="E216">
+        <v>2023</v>
+      </c>
+      <c r="F216" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216" t="s">
+        <v>17</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>843</v>
+      </c>
+      <c r="B217" t="s">
+        <v>844</v>
+      </c>
+      <c r="C217" t="s">
+        <v>845</v>
+      </c>
+      <c r="D217" t="s">
+        <v>846</v>
+      </c>
+      <c r="E217">
+        <v>2023</v>
+      </c>
+      <c r="F217" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" t="s">
+        <v>18</v>
+      </c>
+      <c r="J217" t="s">
+        <v>17</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>847</v>
+      </c>
+      <c r="B218" t="s">
+        <v>848</v>
+      </c>
+      <c r="C218" t="s">
+        <v>849</v>
+      </c>
+      <c r="D218" t="s">
+        <v>850</v>
+      </c>
+      <c r="E218">
+        <v>2023</v>
+      </c>
+      <c r="F218" t="s">
+        <v>17</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>851</v>
+      </c>
+      <c r="B219" t="s">
+        <v>852</v>
+      </c>
+      <c r="C219" t="s">
+        <v>853</v>
+      </c>
+      <c r="D219" t="s">
+        <v>854</v>
+      </c>
+      <c r="E219">
+        <v>2023</v>
+      </c>
+      <c r="F219" t="s">
+        <v>17</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>855</v>
+      </c>
+      <c r="B220" t="s">
+        <v>856</v>
+      </c>
+      <c r="C220" t="s">
+        <v>857</v>
+      </c>
+      <c r="D220" t="s">
+        <v>858</v>
+      </c>
+      <c r="E220">
+        <v>2023</v>
+      </c>
+      <c r="F220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" t="s">
+        <v>17</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220" t="s">
+        <v>17</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>859</v>
+      </c>
+      <c r="B221" t="s">
+        <v>860</v>
+      </c>
+      <c r="C221" t="s">
+        <v>861</v>
+      </c>
+      <c r="D221" t="s">
+        <v>862</v>
+      </c>
+      <c r="E221">
+        <v>2023</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" t="s">
+        <v>17</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221" t="s">
+        <v>17</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>863</v>
+      </c>
+      <c r="B222" t="s">
+        <v>864</v>
+      </c>
+      <c r="C222" t="s">
+        <v>865</v>
+      </c>
+      <c r="D222" t="s">
+        <v>866</v>
+      </c>
+      <c r="E222">
+        <v>2023</v>
+      </c>
+      <c r="F222" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>18</v>
+      </c>
+      <c r="H222" t="s">
+        <v>17</v>
+      </c>
+      <c r="I222" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222" t="s">
+        <v>17</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>867</v>
+      </c>
+      <c r="B223" t="s">
+        <v>868</v>
+      </c>
+      <c r="C223" t="s">
+        <v>869</v>
+      </c>
+      <c r="D223" t="s">
+        <v>870</v>
+      </c>
+      <c r="E223">
+        <v>2023</v>
+      </c>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" t="s">
+        <v>16</v>
+      </c>
+      <c r="J223" t="s">
+        <v>17</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E224" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L224" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>875</v>
+      </c>
+      <c r="B225" t="s">
+        <v>876</v>
+      </c>
+      <c r="C225" t="s">
+        <v>877</v>
+      </c>
+      <c r="D225" t="s">
+        <v>878</v>
+      </c>
+      <c r="E225">
+        <v>2023</v>
+      </c>
+      <c r="F225" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" t="s">
+        <v>17</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>879</v>
+      </c>
+      <c r="B226" t="s">
+        <v>880</v>
+      </c>
+      <c r="C226" t="s">
+        <v>881</v>
+      </c>
+      <c r="D226" t="s">
+        <v>882</v>
+      </c>
+      <c r="E226">
+        <v>2023</v>
+      </c>
+      <c r="F226" t="s">
+        <v>17</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="E227" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>887</v>
+      </c>
+      <c r="B228" t="s">
+        <v>888</v>
+      </c>
+      <c r="C228" t="s">
+        <v>889</v>
+      </c>
+      <c r="D228" t="s">
+        <v>890</v>
+      </c>
+      <c r="E228">
+        <v>2023</v>
+      </c>
+      <c r="F228" t="s">
+        <v>17</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>891</v>
+      </c>
+      <c r="C229" t="s">
+        <v>892</v>
+      </c>
+      <c r="D229" t="s">
+        <v>893</v>
+      </c>
+      <c r="E229">
+        <v>2023</v>
+      </c>
+      <c r="F229" t="s">
+        <v>17</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>894</v>
+      </c>
+      <c r="B230" t="s">
+        <v>895</v>
+      </c>
+      <c r="C230" t="s">
+        <v>896</v>
+      </c>
+      <c r="D230" t="s">
+        <v>897</v>
+      </c>
+      <c r="E230">
+        <v>2023</v>
+      </c>
+      <c r="F230" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" t="s">
+        <v>16</v>
+      </c>
+      <c r="J230" t="s">
+        <v>17</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>898</v>
+      </c>
+      <c r="B231" t="s">
+        <v>899</v>
+      </c>
+      <c r="C231" t="s">
+        <v>900</v>
+      </c>
+      <c r="D231" t="s">
+        <v>901</v>
+      </c>
+      <c r="E231">
+        <v>2023</v>
+      </c>
+      <c r="F231" t="s">
+        <v>17</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>902</v>
+      </c>
+      <c r="C232" t="s">
+        <v>903</v>
+      </c>
+      <c r="D232" t="s">
+        <v>904</v>
+      </c>
+      <c r="E232">
+        <v>2023</v>
+      </c>
+      <c r="F232" t="s">
+        <v>17</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>905</v>
+      </c>
+      <c r="B233" t="s">
+        <v>906</v>
+      </c>
+      <c r="C233" t="s">
+        <v>907</v>
+      </c>
+      <c r="D233" t="s">
+        <v>908</v>
+      </c>
+      <c r="E233">
+        <v>2023</v>
+      </c>
+      <c r="F233" t="s">
+        <v>17</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>909</v>
+      </c>
+      <c r="B234" t="s">
+        <v>910</v>
+      </c>
+      <c r="C234" t="s">
+        <v>911</v>
+      </c>
+      <c r="D234" t="s">
+        <v>912</v>
+      </c>
+      <c r="E234">
+        <v>2023</v>
+      </c>
+      <c r="F234" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" t="s">
+        <v>18</v>
+      </c>
+      <c r="H234" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234" t="s">
+        <v>17</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>913</v>
+      </c>
+      <c r="B235" t="s">
+        <v>914</v>
+      </c>
+      <c r="C235" t="s">
+        <v>915</v>
+      </c>
+      <c r="D235" t="s">
+        <v>916</v>
+      </c>
+      <c r="E235">
+        <v>2023</v>
+      </c>
+      <c r="F235" t="s">
+        <v>17</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>917</v>
+      </c>
+      <c r="B236" t="s">
+        <v>918</v>
+      </c>
+      <c r="C236" t="s">
+        <v>919</v>
+      </c>
+      <c r="D236" t="s">
+        <v>920</v>
+      </c>
+      <c r="E236">
+        <v>2023</v>
+      </c>
+      <c r="F236" t="s">
+        <v>17</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>921</v>
+      </c>
+      <c r="B237" t="s">
+        <v>922</v>
+      </c>
+      <c r="C237" t="s">
+        <v>923</v>
+      </c>
+      <c r="D237" t="s">
+        <v>924</v>
+      </c>
+      <c r="E237">
+        <v>2023</v>
+      </c>
+      <c r="F237" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" t="s">
+        <v>17</v>
+      </c>
+      <c r="H237" t="s">
+        <v>18</v>
+      </c>
+      <c r="I237" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237" t="s">
+        <v>17</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>925</v>
+      </c>
+      <c r="B238" t="s">
+        <v>926</v>
+      </c>
+      <c r="C238" t="s">
+        <v>927</v>
+      </c>
+      <c r="D238" t="s">
+        <v>928</v>
+      </c>
+      <c r="E238">
+        <v>2023</v>
+      </c>
+      <c r="F238" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" t="s">
+        <v>18</v>
+      </c>
+      <c r="I238" t="s">
+        <v>16</v>
+      </c>
+      <c r="J238" t="s">
+        <v>17</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>929</v>
+      </c>
+      <c r="B239" t="s">
+        <v>930</v>
+      </c>
+      <c r="C239" t="s">
+        <v>931</v>
+      </c>
+      <c r="D239" t="s">
+        <v>932</v>
+      </c>
+      <c r="E239">
+        <v>2023</v>
+      </c>
+      <c r="F239" t="s">
+        <v>17</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>933</v>
+      </c>
+      <c r="C240" t="s">
+        <v>934</v>
+      </c>
+      <c r="D240" t="s">
+        <v>935</v>
+      </c>
+      <c r="E240">
+        <v>2023</v>
+      </c>
+      <c r="F240" t="s">
+        <v>16</v>
+      </c>
+      <c r="G240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" t="s">
+        <v>18</v>
+      </c>
+      <c r="J240" t="s">
+        <v>17</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>936</v>
+      </c>
+      <c r="B241" t="s">
+        <v>937</v>
+      </c>
+      <c r="C241" t="s">
+        <v>938</v>
+      </c>
+      <c r="D241" t="s">
+        <v>939</v>
+      </c>
+      <c r="E241">
+        <v>2023</v>
+      </c>
+      <c r="F241" t="s">
+        <v>17</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>940</v>
+      </c>
+      <c r="B242" t="s">
+        <v>941</v>
+      </c>
+      <c r="C242" t="s">
+        <v>942</v>
+      </c>
+      <c r="D242" t="s">
+        <v>943</v>
+      </c>
+      <c r="E242">
+        <v>2023</v>
+      </c>
+      <c r="F242" t="s">
+        <v>17</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>944</v>
+      </c>
+      <c r="B243" t="s">
+        <v>945</v>
+      </c>
+      <c r="C243" t="s">
+        <v>946</v>
+      </c>
+      <c r="D243" t="s">
+        <v>947</v>
+      </c>
+      <c r="E243">
+        <v>2023</v>
+      </c>
+      <c r="F243" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" t="s">
+        <v>17</v>
+      </c>
+      <c r="H243" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" t="s">
+        <v>17</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>948</v>
+      </c>
+      <c r="B244" t="s">
+        <v>949</v>
+      </c>
+      <c r="C244" t="s">
+        <v>950</v>
+      </c>
+      <c r="D244" t="s">
+        <v>951</v>
+      </c>
+      <c r="E244">
+        <v>2023</v>
+      </c>
+      <c r="F244" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" t="s">
+        <v>17</v>
+      </c>
+      <c r="H244" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" t="s">
+        <v>18</v>
+      </c>
+      <c r="J244" t="s">
+        <v>17</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>952</v>
+      </c>
+      <c r="B245" t="s">
+        <v>953</v>
+      </c>
+      <c r="C245" t="s">
+        <v>954</v>
+      </c>
+      <c r="D245" t="s">
+        <v>955</v>
+      </c>
+      <c r="E245">
+        <v>2023</v>
+      </c>
+      <c r="F245" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" t="s">
+        <v>17</v>
+      </c>
+      <c r="H245" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" t="s">
+        <v>16</v>
+      </c>
+      <c r="J245" t="s">
+        <v>17</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>956</v>
+      </c>
+      <c r="B246" t="s">
+        <v>957</v>
+      </c>
+      <c r="C246" t="s">
+        <v>958</v>
+      </c>
+      <c r="D246" t="s">
+        <v>959</v>
+      </c>
+      <c r="E246">
+        <v>2023</v>
+      </c>
+      <c r="F246" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246" t="s">
+        <v>17</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>960</v>
+      </c>
+      <c r="B247" t="s">
+        <v>961</v>
+      </c>
+      <c r="C247" t="s">
+        <v>962</v>
+      </c>
+      <c r="D247" t="s">
+        <v>963</v>
+      </c>
+      <c r="E247">
+        <v>2023</v>
+      </c>
+      <c r="F247" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247" t="s">
+        <v>16</v>
+      </c>
+      <c r="I247" t="s">
+        <v>16</v>
+      </c>
+      <c r="J247" t="s">
+        <v>17</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>964</v>
+      </c>
+      <c r="B248" t="s">
+        <v>965</v>
+      </c>
+      <c r="C248" t="s">
+        <v>966</v>
+      </c>
+      <c r="D248" t="s">
+        <v>967</v>
+      </c>
+      <c r="E248">
+        <v>2023</v>
+      </c>
+      <c r="F248" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" t="s">
+        <v>18</v>
+      </c>
+      <c r="H248" t="s">
+        <v>18</v>
+      </c>
+      <c r="I248" t="s">
+        <v>16</v>
+      </c>
+      <c r="J248" t="s">
+        <v>17</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>968</v>
+      </c>
+      <c r="B249" t="s">
+        <v>969</v>
+      </c>
+      <c r="C249" t="s">
+        <v>970</v>
+      </c>
+      <c r="D249" t="s">
+        <v>971</v>
+      </c>
+      <c r="E249">
+        <v>2023</v>
+      </c>
+      <c r="F249" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" t="s">
+        <v>18</v>
+      </c>
+      <c r="I249" t="s">
+        <v>16</v>
+      </c>
+      <c r="J249" t="s">
+        <v>17</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>972</v>
+      </c>
+      <c r="B250" t="s">
+        <v>973</v>
+      </c>
+      <c r="C250" t="s">
+        <v>974</v>
+      </c>
+      <c r="D250" t="s">
+        <v>975</v>
+      </c>
+      <c r="E250">
+        <v>2023</v>
+      </c>
+      <c r="F250" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" t="s">
+        <v>17</v>
+      </c>
+      <c r="I250" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250" t="s">
+        <v>17</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>976</v>
+      </c>
+      <c r="B251" t="s">
+        <v>977</v>
+      </c>
+      <c r="C251" t="s">
+        <v>978</v>
+      </c>
+      <c r="D251" t="s">
+        <v>979</v>
+      </c>
+      <c r="E251">
+        <v>2023</v>
+      </c>
+      <c r="F251" t="s">
+        <v>17</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>980</v>
+      </c>
+      <c r="B252" t="s">
+        <v>981</v>
+      </c>
+      <c r="C252" t="s">
+        <v>982</v>
+      </c>
+      <c r="D252" t="s">
+        <v>983</v>
+      </c>
+      <c r="E252">
+        <v>2023</v>
+      </c>
+      <c r="F252" t="s">
+        <v>17</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>984</v>
+      </c>
+      <c r="B253" t="s">
+        <v>985</v>
+      </c>
+      <c r="C253" t="s">
+        <v>986</v>
+      </c>
+      <c r="D253" t="s">
+        <v>987</v>
+      </c>
+      <c r="E253">
+        <v>2023</v>
+      </c>
+      <c r="F253" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" t="s">
+        <v>18</v>
+      </c>
+      <c r="I253" t="s">
+        <v>18</v>
+      </c>
+      <c r="J253" t="s">
+        <v>17</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>988</v>
+      </c>
+      <c r="B254" t="s">
+        <v>989</v>
+      </c>
+      <c r="C254" t="s">
+        <v>990</v>
+      </c>
+      <c r="D254" t="s">
+        <v>991</v>
+      </c>
+      <c r="E254">
+        <v>2023</v>
+      </c>
+      <c r="F254" t="s">
+        <v>17</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>992</v>
+      </c>
+      <c r="B255" t="s">
+        <v>993</v>
+      </c>
+      <c r="C255" t="s">
+        <v>994</v>
+      </c>
+      <c r="D255" t="s">
+        <v>995</v>
+      </c>
+      <c r="E255">
+        <v>2023</v>
+      </c>
+      <c r="F255" t="s">
+        <v>17</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>996</v>
+      </c>
+      <c r="B256" t="s">
+        <v>997</v>
+      </c>
+      <c r="C256" t="s">
+        <v>998</v>
+      </c>
+      <c r="D256" t="s">
+        <v>999</v>
+      </c>
+      <c r="E256">
+        <v>2023</v>
+      </c>
+      <c r="F256" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" t="s">
+        <v>16</v>
+      </c>
+      <c r="H256" t="s">
+        <v>16</v>
+      </c>
+      <c r="I256" t="s">
+        <v>18</v>
+      </c>
+      <c r="J256" t="s">
+        <v>17</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E257">
+        <v>2023</v>
+      </c>
+      <c r="F257" t="s">
+        <v>17</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E258">
+        <v>2023</v>
+      </c>
+      <c r="F258" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" t="s">
+        <v>18</v>
+      </c>
+      <c r="J258" t="s">
+        <v>17</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E259">
+        <v>2023</v>
+      </c>
+      <c r="F259" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" t="s">
+        <v>18</v>
+      </c>
+      <c r="I259" t="s">
+        <v>18</v>
+      </c>
+      <c r="J259" t="s">
+        <v>17</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E260">
+        <v>2023</v>
+      </c>
+      <c r="F260" t="s">
+        <v>17</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E261">
+        <v>2023</v>
+      </c>
+      <c r="F261" t="s">
+        <v>16</v>
+      </c>
+      <c r="G261" t="s">
+        <v>16</v>
+      </c>
+      <c r="H261" t="s">
+        <v>16</v>
+      </c>
+      <c r="I261" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" t="s">
+        <v>17</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E262">
+        <v>2023</v>
+      </c>
+      <c r="F262" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" t="s">
+        <v>16</v>
+      </c>
+      <c r="I262" t="s">
+        <v>18</v>
+      </c>
+      <c r="J262" t="s">
+        <v>17</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E263">
+        <v>2023</v>
+      </c>
+      <c r="F263" t="s">
+        <v>17</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E264">
+        <v>2023</v>
+      </c>
+      <c r="F264" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" t="s">
+        <v>16</v>
+      </c>
+      <c r="I264" t="s">
+        <v>18</v>
+      </c>
+      <c r="J264" t="s">
+        <v>17</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E265">
+        <v>2023</v>
+      </c>
+      <c r="F265" t="s">
+        <v>17</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E266">
+        <v>2023</v>
+      </c>
+      <c r="F266" t="s">
+        <v>17</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E267">
+        <v>2023</v>
+      </c>
+      <c r="F267" t="s">
+        <v>17</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E268">
+        <v>2023</v>
+      </c>
+      <c r="F268" t="s">
+        <v>17</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E269">
+        <v>2023</v>
+      </c>
+      <c r="F269" t="s">
+        <v>16</v>
+      </c>
+      <c r="G269" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" t="s">
+        <v>18</v>
+      </c>
+      <c r="I269" t="s">
+        <v>16</v>
+      </c>
+      <c r="J269" t="s">
+        <v>17</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E270">
+        <v>2023</v>
+      </c>
+      <c r="F270" t="s">
+        <v>17</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E271">
+        <v>2023</v>
+      </c>
+      <c r="F271" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" t="s">
+        <v>18</v>
+      </c>
+      <c r="I271" t="s">
+        <v>16</v>
+      </c>
+      <c r="J271" t="s">
+        <v>17</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E272">
+        <v>2023</v>
+      </c>
+      <c r="F272" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" t="s">
+        <v>17</v>
+      </c>
+      <c r="H272" t="s">
+        <v>17</v>
+      </c>
+      <c r="I272" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" t="s">
+        <v>17</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E273">
+        <v>2023</v>
+      </c>
+      <c r="F273" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" t="s">
+        <v>17</v>
+      </c>
+      <c r="I273" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273" t="s">
+        <v>17</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E274">
+        <v>2023</v>
+      </c>
+      <c r="F274" t="s">
+        <v>16</v>
+      </c>
+      <c r="G274" t="s">
+        <v>17</v>
+      </c>
+      <c r="H274" t="s">
+        <v>16</v>
+      </c>
+      <c r="I274" t="s">
+        <v>18</v>
+      </c>
+      <c r="J274" t="s">
+        <v>17</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E275">
+        <v>2023</v>
+      </c>
+      <c r="F275" t="s">
+        <v>17</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E276">
+        <v>2023</v>
+      </c>
+      <c r="F276" t="s">
+        <v>17</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E277">
+        <v>2023</v>
+      </c>
+      <c r="F277" t="s">
+        <v>17</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E278">
+        <v>2023</v>
+      </c>
+      <c r="F278" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" t="s">
+        <v>16</v>
+      </c>
+      <c r="I278" t="s">
+        <v>16</v>
+      </c>
+      <c r="J278" t="s">
+        <v>17</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E279">
+        <v>2023</v>
+      </c>
+      <c r="F279" t="s">
+        <v>17</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E280">
+        <v>2023</v>
+      </c>
+      <c r="F280" t="s">
+        <v>17</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E281">
+        <v>2023</v>
+      </c>
+      <c r="F281" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" t="s">
+        <v>17</v>
+      </c>
+      <c r="H281" t="s">
+        <v>18</v>
+      </c>
+      <c r="I281" t="s">
+        <v>16</v>
+      </c>
+      <c r="J281" t="s">
+        <v>17</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E282">
+        <v>2023</v>
+      </c>
+      <c r="F282" t="s">
+        <v>17</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E283">
+        <v>2023</v>
+      </c>
+      <c r="F283" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" t="s">
+        <v>17</v>
+      </c>
+      <c r="H283" t="s">
+        <v>18</v>
+      </c>
+      <c r="I283" t="s">
+        <v>16</v>
+      </c>
+      <c r="J283" t="s">
+        <v>17</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E284" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L284" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E285">
+        <v>2023</v>
+      </c>
+      <c r="F285" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" t="s">
+        <v>17</v>
+      </c>
+      <c r="H285" t="s">
+        <v>17</v>
+      </c>
+      <c r="I285" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285" t="s">
+        <v>17</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E286">
+        <v>2023</v>
+      </c>
+      <c r="F286" t="s">
+        <v>16</v>
+      </c>
+      <c r="G286" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" t="s">
+        <v>16</v>
+      </c>
+      <c r="I286" t="s">
+        <v>16</v>
+      </c>
+      <c r="J286" t="s">
+        <v>17</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E287">
+        <v>2023</v>
+      </c>
+      <c r="F287" t="s">
+        <v>17</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E288">
+        <v>2023</v>
+      </c>
+      <c r="F288" t="s">
+        <v>17</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E289">
+        <v>2023</v>
+      </c>
+      <c r="F289" t="s">
+        <v>16</v>
+      </c>
+      <c r="G289" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" t="s">
+        <v>16</v>
+      </c>
+      <c r="I289" t="s">
+        <v>18</v>
+      </c>
+      <c r="J289" t="s">
+        <v>17</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E290">
+        <v>2023</v>
+      </c>
+      <c r="F290" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" t="s">
+        <v>17</v>
+      </c>
+      <c r="H290" t="s">
+        <v>18</v>
+      </c>
+      <c r="I290" t="s">
+        <v>16</v>
+      </c>
+      <c r="J290" t="s">
+        <v>17</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E291" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L291" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E292">
+        <v>2023</v>
+      </c>
+      <c r="F292" t="s">
+        <v>17</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E293">
+        <v>2023</v>
+      </c>
+      <c r="F293" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" t="s">
+        <v>18</v>
+      </c>
+      <c r="I293" t="s">
+        <v>16</v>
+      </c>
+      <c r="J293" t="s">
+        <v>17</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E294">
+        <v>2023</v>
+      </c>
+      <c r="F294" t="s">
+        <v>17</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E295">
+        <v>2023</v>
+      </c>
+      <c r="F295" t="s">
+        <v>17</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E296">
+        <v>2023</v>
+      </c>
+      <c r="F296" t="s">
+        <v>17</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E297">
+        <v>2023</v>
+      </c>
+      <c r="F297" t="s">
+        <v>17</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E298">
+        <v>2023</v>
+      </c>
+      <c r="F298" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" t="s">
+        <v>17</v>
+      </c>
+      <c r="I298" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298" t="s">
+        <v>17</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E299">
+        <v>2023</v>
+      </c>
+      <c r="F299" t="s">
+        <v>17</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E300">
+        <v>2023</v>
+      </c>
+      <c r="F300" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" t="s">
+        <v>17</v>
+      </c>
+      <c r="I300" t="s">
+        <v>17</v>
+      </c>
+      <c r="J300" t="s">
+        <v>17</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E301">
+        <v>2023</v>
+      </c>
+      <c r="F301" t="s">
+        <v>17</v>
+      </c>
+      <c r="L301">
         <v>0</v>
       </c>
     </row>
